--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7EAAA-FD29-44EA-91FB-4F5BA5E15AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F899C43-F92A-4742-9230-7F77F6173102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="2190" windowWidth="14670" windowHeight="8325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="563">
   <si>
     <t>Data</t>
   </si>
@@ -1358,9 +1358,6 @@
     <t>1/0/0/0/1/0</t>
   </si>
   <si>
-    <t>1/0/0/0/0/Trójca Święta</t>
-  </si>
-  <si>
     <t>0/1/1/0/0/Chrzest</t>
   </si>
   <si>
@@ -1453,6 +1450,4254 @@
 Jezu Chryste, zmiłuj się nad nami.
 I Ty, któraś współcierpiała
 Matko Bolesna, przyczyń się za nami.</t>
+  </si>
+  <si>
+    <t>O zbawcza Hostio</t>
+  </si>
+  <si>
+    <t>Niechaj będzie pochwalony</t>
+  </si>
+  <si>
+    <t>Niechaj będzie pochwalony * od nas wszystkich uwielbiony
+Przenajświętszy Sakrament * ten niebieski testament</t>
+  </si>
+  <si>
+    <t>1.
+O zbawcza Hostio, godna czci
+Co lud do niebios wiedziesz bram
+Bój srogi nęka wiernych Ci
+Daj siłę, pomoc ześlij nam
+2.
+Jednemu w Trójcy Władcy ziem
+Niech będzie chwała w każdy czas
+Niech On wieczystym życiem swym
+W ojczyźnie rajskiej darzy nas
+Amen</t>
+  </si>
+  <si>
+    <t>1.
+Przed tak wielkim Sakramentem
+upadajmy wszyscy wraz
+Niech przed Nowym Testamentem
+starych prawd ustąpi czas
+Co dla zmysłów niepojęte
+niech dopełni wiara w nas
+2.
+Bogu Ojcu i Synowi
+hołd po wszystkie nieśmy dni
+Niech podaje wiek wiekowi
+hymn tryumfu, dzięki czci
+A równemu Im Duchowi
+niechaj wieczna chwała brzmi.
+Amen.</t>
+  </si>
+  <si>
+    <t>1.
+Zawitaj, Królowo Różańca świętego
+Jedyna nadziejo człowieka grzesznego
+*
+Zawitaj, bez zmazy lilijo
+Matko Różańcowa, Maryjo
+2.
+Panno nad pannami, Święta nad świętymi
+Najświętsza Królowo Pani nieba, ziemi
+*
+Najśliczniejszy kwiecie, lilijo
+Matko Różańcowa, Maryjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Zawitaj, Matko Różańca świętego
+Przybytku Boga w Trójcy jedynego
+*
+Ucieczko nasza, ucieczko nasza
+w życia doczesności
+O cedrze czystości
+2.
+Najozdobniejsza Różo ogrodowa
+Najprzyjemniejsza Różdżko Aronowa
+*
+Wonność balsamu, wonność balsamu
+balsam przechodząca
+Matko kochająca </t>
+  </si>
+  <si>
+    <t>Święty Boże, Święty Mocny,
+Święty, a Nieśmiertelny
+Zmiłuj się nad nami
+1.
+Od powietrza, głodu, ognia i wojny
+Wybaw nas, Panie
+2.
+Od nagłej i niespodzianej śmierci
+Zachowaj nas Panie
+3.
+My grzeszni Ciebie, Boga, prosimy
+Wysłuchaj nas Panie</t>
+  </si>
+  <si>
+    <t>Chwała i dziękczynienie, bądź w każdym momencie
+Jezusowi w Najświętszym Boskim Sakramencie
+Ile minut w godzinie, a godzin w wieczności
+Tylekroć bądź pochwalon, Jezu, ma miłości</t>
+  </si>
+  <si>
+    <t>Pieśni do Trójcy Przenajświętszej</t>
+  </si>
+  <si>
+    <t>Chwała Ojcu i Synowi,
+i Duchowi Świętemu,
+jak była na początku,
+teraz, i zawsze, i na wieki wieków. Amen.</t>
+  </si>
+  <si>
+    <t>0/0/0/1/0/Te Deum</t>
+  </si>
+  <si>
+    <t>1.
+Ciebie, Boga, wysławiamy,
+Tobie, Panu, wieczna chwała
+Ciebie, Ojca, niebios bramy
+Ciebie wielbi ziemia cała.
+2.
+Tobie wszyscy aniołowie
+Tobie moce i niebiosy
+cheruby, Serafinowie
+ślą wieczystej pieśni głosy:
+3.
+Święty, Święty, nad Świętymi
+Bóg Zastępów, Król łaskawy,
+pełne niebo z kręgiem ziemi
+majestatu Twojej sławy.
+4.
+Apostołów Tobie rzesza,
+chór proroków, pełen chwały,
+Tobie hołdy nieść pośpiesza
+męczenników orszak biały.
+5.
+Ciebie, poprzez okrąg ziemi,
+z głębi serca, ile zdoła,
+głosy ludów zgodzonymi
+wielbi święta pieśń Kościoła.
+6.
+Niezmierzonej Ojca chwały,
+Syna, Słowo wiekuiste,
+z Duchem, wszechświat wielbi cały:
+Królem chwały Tyś, o Chryste!
+7.
+Tyś Rodzica Syn z wiek wieka.
+By świat zbawić swoim zgonem,
+przyoblókłszy się w człowieka,
+nie wzgardziłeś Panny łonem.
+8.
+Tyś pokruszył śmierci wrota,
+starł jej oścień w męki dobie
+i rajskiego kraj żywota
+otworzyłeś wiernym sobie.
+9.
+Po prawicy siedzisz Boga,
+w chwale Ojca, Syn jedyny,
+lecz gdy zabrzmi trąba sroga,
+przyjdziesz sądzić ludzkie czyny.
+10.
+Prosim, słudzy łask niegodni,
+wspomóż, obmyj grzech, co plami,
+gdyś odkupił nas od zbrodni
+drogiej swojej Krwi strugami.
+11.
+Ze świętymi, w blaskach mocy,
+wiecznej chwały zlej nam zdroje,
+zbaw, o Panie, lud sierocy,
+błogosław dziedzictwo swoje!
+12.
+Rządź je, broń po wszystkie lata,
+prowadź w niebios błogie bramy.
+My w dzień każdy, Władco świata,
+imię Twoje wysławiamy.
+13.
+Po wiek wieków nie ustanie
+pieśń, co sławi Twoje czyny.
+O, w dniu onym racz nas, Panie,
+od wszelakiej ustrzec winy.
+14.
+Zjaw swą litość w życiu całym
+tym, co żebrzą Twej opieki;
+w Tobie, Panie, zaufałem,
+nie zawstydzę się na wieki.</t>
+  </si>
+  <si>
+    <t>1.
+Ciebie wzywamy, Ciebie błagamy, * o błogosławiona Trójco!
+Ratuj stworzenie, daj opatrzenie, * o błogosławiona Trójco!
+2.
+Wlej Ducha Twego do serca mego, * o błogosławiona Trójco!
+Wspomóż w potrzebie proszących Ciebie, * o błogosławiona Trójco!
+3.
+Daj dar miłości i pobożności, * o błogosławiona Trójco!
+Szczęść zebranemu ludowi Twemu, * o błogosławiona Trójco!
+4.
+Odpuść nam złości dla Twej miłości, * o błogosławiona Trójco!
+Oddal głód, wojny, daj czas spokojny, * o błogosławiona Trójco!
+5.
+Strzeż nas żyjących, broń konających, * o błogosławiona Trójco!
+Daj nam być w niebie, prosimy Ciebie, * o błogosławiona Trójco!</t>
+  </si>
+  <si>
+    <t>1.
+Com przyrzekł Bogu przy chrzcie raz,
+dotrzymać pragnę szczerze;
+Kościoła słuchać w każdy czas
+i w świętej wytrwać wierze.
+*
+O, Panie, Boże, dzięki Ci,
+żeś mi Kościoła otwarł drzwi.
+W nim żyć, umierać pragnę.
+2.
+W Kościele tym jest z Ciałem, Krwią,
+Bóg pod postacią chleba.
+Swym Ciałem karmi duszę mą,
+by żyła w Nim dla nieba.
+*
+W to wierzyć zawsze mocno chcę,
+bo tego Kościół uczy mnie.
+W Nim żyć umierać pragnę.</t>
+  </si>
+  <si>
+    <t>Dobry Jezu, a nasz Panie • Daj im wieczne spoczywanie.</t>
+  </si>
+  <si>
+    <t>*
+Dziś moją duszę w ręce Twe powierzam
+Mój Stworzycielu i najlepszy Ojcze
+Do domu wracam jak strudzony pielgrzym
+A Ty z miłością przyjmij mnie z powrotem
+**
+1.
+Stanę przed Stwórcą i przed moim Bogiem
+On mnie z miłości wezwał do istnienia
+Tchnął swego Ducha, stworzył na swój obraz
+Jak własne dziecko znał mnie po imieniu
+*
+Dziś moją duszę w ręce Twe powierzam…
+2.
+Wstyd mnie ogarnia, że przed Tobą stanę
+Tak niepodobny, Boże mój, do Ciebie
+Nie karz mnie za to zbyt surowym sądem
+Rozpoznaj, Ojcze, swoje dziecko we mnie 
+*
+Dziś moją duszę w ręce Twe powierzam…
+3.
+Tułaczka moja już dobiegła kresu
+Dla moich oczu słońce ziemi zgasło
+W Tobie, mój Panie, znajdę pokój wieczny
+Ty będziesz dla mnie nie gasnącym światłem 
+*
+Dziś moją duszę w ręce Twe powierzam…</t>
+  </si>
+  <si>
+    <t>1.
+Duszo moja, niech pieśń twoja 
+głosi Józefowi cześć.
+On wybrany, niezrównany,
+więc mu hołdy trzeba nieść.
+*
+Z nami chwałę niebo całe,
+niech u Bożych złoży nóg,
+że bez miary swoje dary
+na Józefa rozlał Bóg.
+2.
+On w świętości i czystości
+po Maryi pierwszym był,
+przy Panience on w stajence
+pierwszy Boże Dziecię czcił.
+*
+Z nami chwałę niebo całe…
+3.
+Na swym łonie jak na tronie
+Króla niebios Józef niósł;
+w Nazarecie Boskie Dziecię,
+słodki Jezus przy nim rósł. 
+*
+Z nami chwałę niebo całe…</t>
+  </si>
+  <si>
+    <t>1.
+Kiedy ranne wstają zorze,
+Tobie ziemia, Tobie morze,
+Tobie śpiewa żywioł wszelki:
+bądź pochwalon, Boże wielki!
+2.
+A człowiek, który bez miary
+obsypany Twymi dary,
+coś go stworzył i ocalił,
+a czemuż by Cię nie chwalił?
+3.
+Ledwie oczy przetrzeć zdołam,
+wnet do mego Pana wołam,
+do mego Boga na niebie
+i szukam Go koło siebie.
+4.
+Wielu snem śmierci upadli,
+co się wczoraj spać pokładli;
+my się jeszcze obudzili,
+byśmy Cię, Boże, chwalili.
+5.
+Boże w Trójcy niepojęty,
+Ojcze, Synu, Duchu Święty,
+Tobie chwałę oddajemy,
+niech dla Ciebie dziś żyjemy.</t>
+  </si>
+  <si>
+    <t>1.
+Wszystkie nasze dzienne sprawy,
+przyjm litośnie, Boże prawy,
+a gdy będziem zasypiali,
+niech Cię nawet sen nasz chwali.
+2.
+Twoje oczy obrócone
+dzień i noc patrzą w tę stronę,
+gdzie niedołężność człowieka
+Twojego ratunku czeka.
+3.
+Odwracaj nocne przygody,
+od wszelakiej broń nas szkody.
+Miej nas wiecznie w swojej pieczy,
+Stróżu i Sędzio człowieczy.
+4.
+A gdy niebo już osiądziem,
+Tobie wspólnie śpiewać będziem,
+Boże w Trójcy niepojęty,
+Święty, na wiek wieków Święty.</t>
+  </si>
+  <si>
+    <t>1.
+Nie rzucim, Chryste, świątyń Twych,
+Nie damy pogrześć wiary!
+Próżne zakusy duchów złych
+i próżne ich zamiary.
+Bronić będziemy Twoich dróg.
+Tak nam dopomóż Bóg! =
+2.
+Ze wszystkich świątyń, chat i pól
+Popłynie hymn wspaniały;
+Niech żyje Jezus Chrystus Król
+w koronie wiecznej chwały!
+Niech, żyje Maria! Zagrzmi róg.
+Tak nam dopomóż Bóg! = 
+3.
+I taki triumf, taki cud
+Powieje z Jasnej Góry
+I z taką wiarą ruszy lud
+Synowie Polski, córy,
+Że jak mgławica pierzchnie wróg.
+Tak nam dopomóż Bóg! =</t>
+  </si>
+  <si>
+    <t>1.
+Otoczon gronem świętych aniołów
+Dziwiąc triumfem świat cały
+Z pośrodka wiernych swych Apostołów
+Wzniósł się do nieba Pan chwały
+2.
+Płakał i bolał nad grzesznym ludem
+Nim prawdę w sercach odrodził
+Nim zgładził grzechy odkupu cudem
+I ludzi z Bogiem pogodził
+3.
+Wraca do Ojca jako Syn prawy
+Słowo Przedwieczne, Bóg wielki
+By Go na tronie mocy i sławy
+Wielbił i kochał dusz wszelki</t>
+  </si>
+  <si>
+    <t>1.
+Pieśnią wesela witamy
+O Maryjo, miesiąc Twój
+My Ci z serca cześć składamy
+Ty nam otwórz łaski zdrój
+W tym miesiącu ziemia cała
+Życiem, wonią, wdziękiem lśni
+=Wszędzie Twoja dźwięczy chwała
+Gdy majowe płyną dni.</t>
+  </si>
+  <si>
+    <t>1.
+Przybądź, Duchu Święty,
+Ześlij z nieba wzięty
+Światła Twego strumień.
+Przyjdź, Ojcze ubogich,
+Przyjdź, Dawco łask drogich,
+Przyjdź, Światłości sumień.
+2.
+O, najmilszy z gości,
+Słodka serc radości,
+Słodkie orzeźwienie.
+W pracy Tyś ochłodą,
+W skwarze żywą wodą,
+W płaczu utulenie.
+3.
+Światłości najświętsza,
+Serc wierzących wnętrza
+Poddaj Twej potędze.
+Bez Twojego tchnienia,
+Cóż jest wśród stworzenia?
+Jeno cierń i nędze.
+4.
+Obmyj, co nieświęte,
+Oschłym wlej zachętę,
+Ulecz serca ranę.
+Nagnij, co jest harde,
+Rozgrzej serca twarde,
+Prowadź zabłąkane.
+5.
+Daj Twoim wierzącym,
+W Tobie ufającym,
+Siedmiorakie dary.
+Daj zasługę męstwa,
+Daj wieniec zwycięstwa,
+Daj szczęście bez miary.</t>
+  </si>
+  <si>
+    <t>1.
+Sław, języku, tajemnicę
+Ciała i najdroższej Krwi,
+którą, jako łask krynicę,
+wylał w czasie ziemskich dni
+Ten, co Matkę miał Dziewicę,
+Król narodów godzien czci.
+2.
+Z Panny czystej narodzony,
+posłan zbawić ludzki ród,
+gdy po świecie na wsze strony
+ziarno słowa rzucił w lud,
+wtedy cudem niezgłębionym
+zamknął swej pielgrzymki trud.
+3.
+W noc ostatnią przy wieczerzy,
+z tymi, których braćmi zwał,
+pełniąc wszystko, jak należy,
+czego przepis prawny chciał.
+Sam Dwunastu się powierzył
+i za pokarm z rąk swych dał.
+4.
+Słowem więc, Wcielone Słowo,
+chleb zamienia w Ciało swe.
+Wino Krwią jest Chrystusową,
+darmo wzrok to widzieć chce:
+tylko wiara Bożą mową
+pewność o tym w serca śle.</t>
+  </si>
+  <si>
+    <t>Święty X, patronie nasz
+Święty X, patronie nasz
+Módl się, módl się, módl się za nami</t>
+  </si>
+  <si>
+    <t>1328/1329/1288/1327/1330</t>
+  </si>
+  <si>
+    <t>1.
+Twoja cześć, chwała, nasz wieczny Panie,
+na wieczne czasy niech nie ustanie!
+2.
+Tobie dziś dajem z rzeszą tych ludzi
+pokłon i pienie, my, Twoi słudzy.
+3.
+Dziękując wielce Twej wielmożności
+za ten dar zacny, Twej wszechmocności;
+4.
+Żeś się darował nam nic niegodnym
+w tym Sakramencie nam tu przytomnym.
+5.
+Raczyłeś zostać w takiej postaci,
+nie szczędząc siebie dla nas, swych braci.
+6.
+Ciało Twe Święte, co krzyżowali,
+i Krew najświętszą, którą przelali.
+7.
+Przyszedłszy na świat, Pan wiecznej chwały,
+użyłeś wiele nędzy niemałej.
+8.
+Dałeś się potem z wielkiej miłości
+na męki srogie bez wszej litości.
+9.
+Wstępując potem do chwały wiecznej,
+zostawiłeś nam ten to dar zacny.
+10.
+Na co my patrząc w tym Sakramencie,
+z pociechą wielką serce nam rośnie.
+11.
+Tobie my, Boże, teraz śpiewamy,
+przed Twą światłością nisko padamy.
+12.
+Użycz nam łaski, wszechmocny Boże,
+bez Twej pomocy człek nic nie może.</t>
+  </si>
+  <si>
+    <t>0/0/0/0/0/Magnificat</t>
+  </si>
+  <si>
+    <t>1.
+Uwielbiaj, duszo moja, sławę Pana mego
+Chwal Boga Stworzyciela tak bardzo dobrego
+Bóg mój, zbawienie moje jedyna otucha
+Bóg mi rozkoszą serca i weselem ducha
+2.
+Bo mile przyjąć raczył swej sługi pokorę
+Łaskawym okiem wejrzał na Dawida córę
+Przeto wszystkie narody, co ziemię osiądą
+Odtąd błogosławioną mnie nazywać będą
+3.
+Bo wielkimi darami uczczonam od Tego,
+Którego moc przedziwna, święte imię Jego
+Którzy się Pana boją, szczęśliwi na wieki
+Bo z nimi miłosierdzie z rodu w ród daleki
+4.
+Na cały świat pokazał moc swych ramion świętych
+Rozproszył dumne myśli głów pychą nadętych
+Wyniosłych złożył z tronu, znikczemnił wielmożne
+Wywyższył, uwielmożnił w pokorę zamożne
+5.
+Głodnych nasycił hojnie i w dobra spanoszył
+Bogaczów z torbą puścił i nędznie rozproszył
+Przyjął do łaski sługę Izraela cnego
+Wspomniał nań, użyczył mu miłosierdzia swego
+6.
+Wypełnił, co był przyrzekł niegdyś ojcom naszym
+Abrahamowi z potomstwem jego, wiecznym czasem
+Wszyscy śpiewajmy Bogu w Trójcy Jedynemu
+Chwała Ojcu, Synowi, Duchowi Świętemu
+Jak była na początku, tak zawsze niech będzie
+Teraz i na wiek wieków niechaj słynie wszędzie</t>
+  </si>
+  <si>
+    <t>1.
+Witaj, Królowo, Matko litości
+Nadziejo nasza, życia słodkości
+Witaj, Maryjo, Matko jedyna
+Matko nas, ludzi, Salve Regina
+2.
+Nędzne my dzieci Ewy wołamy
+Do Ciebie, Matko, z płaczem wzdychamy
+Niech nas wspomaga Twoja przyczyna
+Na tym padole, Salve Regina
+3.
+Zwróć, Pośredniczko, na nas wejrzenie
+Przyjmij łaskawie nasze westchnienie
+Pokaż nam, Matko, swojego Syna
+W górnej krainie, Salve Regina</t>
+  </si>
+  <si>
+    <t>1.
+Zapada zmrok, już świat ukołysany,
+znów jeden dzień odfrunął nam jak ptak.
+Panience swej piosenkę na dobranoc
+zaśpiewać chcę w ostatnią chwilę dnia.
+2.
+I chociaż wnet ostatnie światła zgasną,
+opieka Twa rozproszy nocy mrok.
+Uśpionym wsiom, ukołysanym miastom,
+Panienko, daj szczęśliwą, dobrą noc.
+3.
+I ludzkim snom błogosław dłonią jasną
+i oddal od nich cień codziennych trosk.
+I tym, co znów nie będą mogli zasnąć,
+Panienko, daj szczęśliwą, dobrą noc.
+4.
+A komu noc czuwaniem jest niełatwym,
+na czas bezsenny siłę daj i moc.
+I tym, co dzisiaj zasną raz ostatni,
+Panienko, daj szczęśliwą, dobrą noc.</t>
+  </si>
+  <si>
+    <t>1.
+Pan kiedyś stanął nad brzegiem,
+Szukał ludzi gotowych pójść za Nim;
+By łowić serca Słów Bożych prawdą.
+*
+O Panie, to Ty na mnie spojrzałeś,
+Twoje usta dziś wyrzekły me imię.
+Swoją barkę pozostawiam na brzegu,
+Razem z Tobą nowy zacznę dziś łów.
+2.
+Jestem ubogim człowiekiem,
+Moim skarbem są ręce gotowe
+Do pracy z Tobą i czyste serce.
+*
+O Panie, to Ty na mnie spojrzałeś…
+3.
+Ty, potrzebujesz mych dłoni,
+Mego serca młodego zapałem
+Mych kropli potu i samotności.
+*
+O Panie, to Ty na mnie spojrzałeś…
+4.
+Dziś wypłyniemy już razem
+Łowić serca na morzach dusz ludzkich
+Twej prawdy siecią i słowem życia.
+*
+O Panie, to Ty na mnie spojrzałeś…</t>
+  </si>
+  <si>
+    <t>1.
+Bądź uwielbiony, miłosierny Boże
+Wszechmocny Stwórco, dobry nasz Panie
+Cześć Ci oddajem w najgłębszej pokorze
+W Bóstwa Twojego tonąc oceanie
+2.
+Bądź uwielbiony Ty, w Trójcy Jedyny
+Tak niezgłębiony i niepojęty
+Ty, co przebaczać umiesz wszystkie winy
+Trzykroć wołamy: Święty, Święty, Święty
+3.
+Bądź uwielbiony, miłosierny Boże
+Żeś zstąpić raczył z niebios na ziemię
+Wielbimy Ciebie w najgłębszej pokorze
+Żeś tak wywyższył całe ludzkie plemię
+4.
+Bądź uwielbiony w miłosierdzia dziele
+Przez wszystkie serca Tobie zawsze wierne
+Które Cię wielbią tu, w Twoim Kościele
+A którym dałeś życie nieśmiertelne
+5.
+Bądź uwielbiony, Stwórco nasz i Panie
+Przez wszechświat, który wielbi Cię w pokorze
+Dziękujmy Stwórcy, ile sił nam stanie
+I wysławiajmy Miłosierdzie Boże</t>
+  </si>
+  <si>
+    <t>1.
+Bądźże pozdrowiona, Hostio żywa
+W której Jezus Chrystus Bóstwo ukrywa
+*
+Witaj, Jezu, Synu Maryi
+Tyś jest Bóg prawdziwy w świętej Hostyi
+2.
+Bądźże pozdrowione, drzewo żywota
+Niech kwitnie niewinność, anielska cnota 
+*
+Witaj, Jezu, Synu Maryi…
+3.
+Bądźże pozdrowiony, Baranku Boży
+Zbaw nas, gdy miecz Pański na złych się sroży 
+*
+Witaj, Jezu, Synu Maryi…
+4.
+Bądźże pozdrowiony, Anielski Chlebie
+W tym tu Sakramencie wielbimy Ciebie 
+*
+Witaj, Jezu, Synu Maryi…
+5.
+Bądźże pozdrowiona, święta Krynico
+Serce Przenajświętsze, łaski świątnico 
+*
+Witaj, Jezu, Synu Maryi…
+6.
+Bądźże pozdrowiony, Boski kapłanie
+Przyjm nasze ofiary, usłysz błaganie 
+*
+Witaj, Jezu, Synu Maryi…
+7.
+Bądźże pozdrowiona, żywa Ofiaro
+Broń nas przed doczesną i wieczną karą 
+*
+Witaj, Jezu, Synu Maryi…
+8.
+Bądźże pozdrowiony, Wszechmocny Boże
+Już Cię kocham szczerze, jak serce może 
+*
+Witaj, Jezu, Synu Maryi</t>
+  </si>
+  <si>
+    <t>1.
+Będę Cię wielbił, mój Panie
+Póki mnie na świecie stanie
+Boś mnie w przygodzie ratował
+I śmiechów ludzkich uchował
+2.
+Panie, wołałem ku Tobie
+A Tyś mnie wsparł w mej chorobie
+Dodałeś mi swej pomocy
+Żem wiecznej nie ujrzał nocy
+3.
+Użyłeś zwykłej litości
+Płacz obróciłeś w radości
+Wór ze mnie zdjąłeś żałobny
+A płaszcz włożyłeś ozdobny
+4.
+Przeto Cię wesoła wszędzie
+Lutnia ma uwielbiać będzie
+Twa chwała, o wieczny Panie
+W mych ustach już nie ustanie</t>
+  </si>
+  <si>
+    <t>*
+Bliskie jest królestwo Boże,
+nawracajmy się i wierzmy w Ewangelię.
+**
+1.
+Bóg _jest_ światłością
+i nie ma w Nim żad_nej_ ciemności.
+*
+Bliskie jest królestwo Boże…
+2.
+Jeżeli chodzi_my_ w światłości,
+wtedy mamy łączność _mię_dzy sobą.
+*
+Bliskie jest królestwo Boże…
+3.
+Krew Jezusa, _Je_go Syna
+oczyszcza nas z wszel_kie_go grzechu.
+*
+Bliskie jest królestwo Boże…
+4.
+Jeżeli mówimy, że nie _ma_my grzechu,
+to samych siebie o_szu_kujemy.
+*
+Bliskie jest królestwo Boże…
+5.
+Jeżeli wyznajemy _na_sze grzechy,
+Bóg oczyści nas z wszelkiej _nie_prawości.
+*
+Bliskie jest królestwo Boże…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Błogosławione serca, które płoną
+Miłością Boga i Jego przykazań
+Błogosławione oczy, które widzą
+Majestat Stwórcy i marność stworzenia
+2.
+Błogosławione ręce, które sieją
+Zbawienne ziarno Nowiny Chrystusa
+Błogosławione dłonie namaszczone
+Co leczą rany balsamem pokoju
+3.
+Błogosławione usta pełne wiary
+Głoszące prawdę o Słowie wcielonym
+Błogosławione stopy, co szukają
+Zbłąkanych owiec wśród cierni pustkowia
+4.
+Błogosławieni, który własne życie
+Złożyli w darze dla dobra Kościoła
+Błogosławieni słudzy odkupienia
+Pasterze ludu Nowego Przymierza
+5.
+Błogosławiony jesteś ponad wszystko
+Jedyny Boże na tronie swej chwały
+Panie wszechświata: Ojcze z Twoim Synem
+I Duchem Świętym pociechy i łaski </t>
+  </si>
+  <si>
+    <t>1.
+Boże mocny, Boże cudów
+Przenajświętszy Ojcze nasz
+Co dla szczęścia wszystkich ludów
+Dobroć, moc i łaskę masz
+Który widzisz serca drgnienie
+I najskrytsze myśli znasz
+Racz wysłuchać me westchnienie
+Przenajświętszy Ojcze nasz
+2.
+Spraw, abyśmy korzystali
+Z darów udzielonych nam
+Byśmy przez nie uzyskali
+Wstęp do Twych niebieskich bram
+Udziel w pracy wytrwałości
+Łaska Twa niech wzmacnia nas
+Byśmy mężnie ku wieczności
+Szli z weselem, a bez zmaz</t>
+  </si>
+  <si>
+    <t>1.
+Boże w dobroci nigdy nie przebrany
+Żadnym językiem niewypowiedziany
+Ty jesteś godzien, Ty jesteś godzien wszelakiej miłości
+Poszanowania, poszanowania, chwały, uczciwości
+2.
+Ciebie czczę, pragnę i ważę samego
+Nad wszystkie dobra Tyś u serca mego
+Najwyższe dobro, najwyższe dobro, Tyś w najwyższej cenie
+Sam jeden u mnie, sam jeden u mnie nad wszystko stworzenie
+3.
+Choćbyś za grzechy nie karał mnie, Panie
+Przecież skruszony żałowałbym za nie
+A żałowałbym, a żałowałbym dla tego samego
+Żem Cię obraził, żem Cię obraził, Pana tak dobrego
+4.
+Więc, o mój Boże, i teraz żałuję
+Dlatego, że Cię nad wszystko miłuję
+I to u siebie, i to u siebie, statecznie stanowię
+Że grzechów swoich, że grzechów swoich nigdy nie ponowię
+5.
+Mam mocną wolę spowiadać się szczerze
+I zawsze trzymać z Tobą to przymierze
+Co gdy uczynię, co gdy uczynię, spodziewam się, Panie
+Mieć w niebie z Tobą, mieć w niebie z Tobą wieczne królowanie</t>
+  </si>
+  <si>
+    <t>1.
+Boże, coś Polskę przez tak liczne wieki,
+otaczał blaskiem potęgi i chwały,
+coś ją osłaniał tarczą swej opieki 
+od nieszczęść, które pognębić ją miały.
+*
+Przed Twe ołtarze zanosim błaganie
+ojczyznę wolną pobłogosław, Panie!
+2.
+Ty, któryś potem, tknięty jej upadkiem,
+wspierał walczących za najświętszą sprawę 
+i chcąc świat cały mieć jej męstwa świadkiem, 
+w nieszczęściach samych pomnażał jej sławę.
+*
+Przed Twe ołtarze zanosim błaganie…
+3.
+Powstała z grobu na Twe władne słowo 
+Polska, wolności narodów chorąży, 
+pierzchnęły straże, a ponad jej głową 
+znowu swobodnie orzeł biały krąży!
+*
+Przed Twe ołtarze zanosim błaganie…</t>
+  </si>
+  <si>
+    <t>Boże, lud Twój czcią przejęty
+Twoich dzieł wszechmocność głosi
+Oczy na Twój ołtarz święty
+Serce swe do Ciebie wznosi
+Liczne nasze ciążą winy
+Lecz niech żal nasz litość wznieci
+Przyjmij, Ojcze, grzeszne syny
+Nie odpychaj swoich dzieci</t>
+  </si>
+  <si>
+    <t>Z rąk kapłańskich przyjmij Panie
+Tę ofiarę chleba, wina
+Co się wkrótce dla nas stanie
+Krwią i Ciałem Twego Syna
+Niech przestępstwa nasze zmywa
+I uśmierza gniew Twój, Panie
+Niech nas z niebem pojednywa
+I uzyska przebłaganie</t>
+  </si>
+  <si>
+    <t>Witaj, Chrystusowe Ciało
+Z Panny świętej narodzone
+Coś na krzyżu życie dało
+Chociaż z Bóstwem połączone
+Witaj, Krwi Bożego Syna
+Na zbawienie dusz przelana
+Któraś z boku wytrysnęła
+Najświętszego mego Pana</t>
+  </si>
+  <si>
+    <t>*
+Boże, obdarz Kościół Twój
+Jednością i pokojem
+**
+1.
+Uradowałem się wezwaniem
+Pójdziemy do domu Pana
+*
+Boże, obdarz Kościół Twój…
+2.
+I oto stoję u bram Twoich
+Jeruzalem nowe, Kościele Święty
+*
+Boże, obdarz Kościół Twój…
+3.
+O Jeruzalem, miasto pokoju
+W Tobie wszyscy się jednoczą 
+*
+Boże, obdarz Kościół Twój…
+4.
+Przychodzą doń pokolenia
+Aby wielbić imię Pana 
+*
+Boże, obdarz Kościół Twój…
+5.
+Prosimy o pokój dla ludu Twego
+Niech będą bezpieczni, którzy Cię miłują 
+*
+Boże, obdarz Kościół Twój…
+6.
+Dla braci i bliźnich naszych
+Prosimy o dobra Twoje 
+*
+Boże, obdarz Kościół Twój...</t>
+  </si>
+  <si>
+    <t>1.
+Boże, zmiłuj się nad nami
+Pobłogosław, udziel łaski
+Niechaj znowu oglądamy
+Twe oblicze pełne blasku
+*
+Niechaj sławią Cię narody
+Niechaj sławią Cię narody wszystkie
+2.
+Niech świat cały pozna wreszcie
+Ciebie, Panie, Twoje drogi
+Niechaj przyjmą Twe zbawienie
+Wszyscy ludzie i narody
+*
+Niechaj sławią Cię narody…
+3.
+Niechaj radość zapanuje
+Pośród ludów całej ziemi
+Żeś Ty, Panie sprawiedliwy
+Rządzisz i kierujesz nimi
+*
+Niechaj sławią Cię narody…
+4.
+Ziemia plony już wydała
+Bóg nam dał błogosławieństwo
+Niech rozbrzmiewa Jego chwała
+W każdym czasie, w każdym miejscu
+*
+Niechaj sławią Cię narody…</t>
+  </si>
+  <si>
+    <t>1.
+Bóg kiedyś stał się jednym z nas,
+by nas przemienić w siebie.
+*
+Przyjdź, Jezu mój,
+zostań wśród nas
+na zawsze już.=
+2.
+Uczył, że Pan Bóg kocha nas,
+wszyscy jesteśmy braćmi.
+*
+Przyjdź, Jezu mój…
+3.
+Cierpiał na krzyżu wiele ran,
+by zmazać nasze grzechy.
+*
+Przyjdź, Jezu mój…
+4.
+Zmartwychwstał z grobu po trzech dniach,
+by niebo nam otworzyć.
+*
+Przyjdź, Jezu mój…
+5.
+Ducha Świętego zesłał nam,
+by wszystkich nas uświęcił.
+*
+Przyjdź, Jezu mój…
+6.
+Założył Święty Kościół swój,
+byśmy z Nim jedno byli.
+*
+Przyjdź, Jezu mój…
+7.
+Maryję Matkę ludziom dał,
+by wspomożeniem była.
+*
+Przyjdź, Jezu mój…</t>
+  </si>
+  <si>
+    <t>1.
+Była cicha i piękna jak wiosna
+Żyła prosto, zwyczajnie jak my
+Ona Boga na świat nam przyniosła
+I na Ziemi wśród łez nowe dni zajaśniały
+*
+Matka, która wszystko rozumie
+Sercem ogarnia każdego z nas
+Matka zobaczyć dobro w nas umie
+Ona jest z nami w każdy czas
+2.
+Dzisiaj światu potrzeba dobroci
+By niepokój zwyciężyć i zło
+Trzeba ciepła, co życie ozłoci
+Trzeba Boga, więc ludziom nieśmy Go, tak jak Ona
+*
+Matka, która wszystko rozumie…
+3.
+Życie niesie ze sobą cierpienie
+Zewsząd krzyże, zawody i ból
+Serce ludzkie wśród męki, udręczenia
+Ma nadzieję, że wciąż Ona czuwa i kocha
+*
+Matka, która wszystko rozumie…</t>
+  </si>
+  <si>
+    <t>*
+Cały świat niech śpiewa tę pieśń
+Panem naszym Bóg
+**
+1.
+Niech cały świat weseli się w Bogu
+Z radością niechaj służy i czcią
+Albowiem Pan Bóg jest naszym Stwórcą
+On w dłoniach swoich dzierży nasz los
+*
+Cały świat niech śpiewa tę pieśń…
+2.
+Pan Bóg jest naszym najlepszym Ojcem
+Z radością każdy niech śpieszy doń
+Pan Bój jest także naszym Pasterzem
+Za Nim jak owce dążymy wciąż 
+*
+Cały świat niech śpiewa tę pieśń…
+3.
+Bóg okazuje nam miłosierdzie
+Niech wdzięczność nigdy nie gaśnie w nas
+Chwała bądź Bogu po wszystkie wieki
+Za dobrodziejstwa dawane nam 
+*
+Cały świat niech śpiewa tę pieśń…</t>
+  </si>
+  <si>
+    <t>*
+Chrystus Pan karmi nas
+Swoim świętym Ciałem
+Chwalmy Go na wieki
+**
+1.
+Duchem całym wielbię Pana
+Boga Zbawcę jedynego
+Bo w Nim samym odnajduję
+Wszystką radość życia mego
+*
+Chrystus Pan karmi nas…
+2.
+Wielbię, bo chciał wejrzeć z nieba
+Na swą sługę uniżoną
+By mnie odtąd wszyscy ludzie
+Mogli zwać błogosławioną 
+*
+Chrystus Pan karmi nas…
+3.
+Sprawił we mnie wielkie dzieła
+W swej dobroci niepojętej
+On wszechmocny, On najwyższy
+On sam jeden zawsze święty 
+*
+Chrystus Pan karmi nas…
+4.
+On, który przez pokolenia
+Pozostaje miłosierny
+Wobec tego, kto Mu służy
+I chce zostać Jemu wierny 
+*
+Chrystus Pan karmi nas…
+5.
+On, który swą moc objawia
+Gdy wyniosłość serc uniża
+Każdy zamiar może zburzyć
+Który pychą Mu ubliża 
+*
+Chrystus Pan karmi nas…
+6.
+W mocy Jego odjąć władzę
+A wydźwignąć pokornego
+Wszystkich głodnych zaspokoić
+Głodem wstrząsnąć bogatego 
+*
+Chrystus Pan karmi nas…
+7.
+On się ujął za swym ludem
+Dziećmi wiary Abrahama
+Pomny na swe miłosierdzie
+Obietnicy swej nie złamał 
+*
+Chrystus Pan karmi nas…</t>
+  </si>
+  <si>
+    <t>*
+Chrystus Wodzem, Chrystus Królem
+Chrystus, Chrystus władcą nam
+**
+1.
+Boga naszego chwalcie wszystkie ziemie
+Daj Mu cześć winną całe ludzkie plemię
+Bo litość Jego nad nami stwierdzona
+A prawda Pańska wiecznie uiszczona
+*
+Chrystus Wodzem, Chrystus Królem…
+2.
+Chwała bądź Bogu w Trójcy Jedynemu
+Ojcu, Synowi, Duchowi Świętemu
+Jak od początku była tak i ninie
+I na wiek wieków niechaj zawsze słynie
+*
+Chrystus Wodzem, Chrystus Królem…</t>
+  </si>
+  <si>
+    <t>*
+Chrystus, Chrystus to nadzieja cała nasza
+Umierając zło zwyciężył, pokój nam ogłasza
+On do Ojca nas prowadzi, miłość czyni życia prawem
+Chrystus naszym jest pokojem, naszym pojednaniem
+** 
+1.
+On jest Słowem nad wiekami
+Pierworodnym pośród stworzeń
+Bóg przez Niego dał nam życie
+I ukazał nam swą chwałę
+*
+Chrystus, Chrystus to nadzieja cała nasza…
+2.
+To On Głową jest Kościoła
+I początkiem wszystkich rzeczy
+Zechciał Bóg, by cała Pełnia
+W Jego ciele zamieszkała 
+*
+Chrystus, Chrystus to nadzieja cała nasza…
+3.
+Pokój przyszedł On budować
+Między ludźmi dobrej woli
+Z Bogiem znowu nas pojednał
+Gdy na krzyżu oddał życie 
+*
+Chrystus, Chrystus to nadzieja cała nasza…
+4.
+On jednoczy we wspólnocie
+Przezwyciężył mur wrogości
+Jak Brat starszy nas prowadzi
+Do radości swego Ojca 
+*
+Chrystus, Chrystus to nadzieja cała nasza…</t>
+  </si>
+  <si>
+    <t>1.
+Chwal, Syjonie, Zbawiciela
+Chwal hymnami wśród wesela
+Wodza i Pasterza rzesz
+Ile zdołasz, sław Go śmiało
+Bo przewyższa wszystko chwałą
+Co wyśpiewać pieśnią chcesz
+2.
+Chwały przedmiot nad podziwy
+Chleb żywiący, pokarm żywy
+Dzisiaj się przedkłada nam
+Chleb ten za wieczerzy stołem
+Chrystus, łamiąc z braćmi społem
+Apostołom dał go sam
+3.
+Co Pan czynił przy Wieczerzy
+Wskazał, że i nam należy
+Spełniać dla pamięci Nań
+Pouczeni tą ustawą
+Chleb i wino na bezkrwawą
+Odkupienia święcim dań
+4.
+Dogmat dan jest do wierzenia
+Że się w Ciało chleb przemienia
+Wino zaś w Najświętszą Krew
+Gdzie zmysł darmo dojść się stara
+Serca żywa krzepi wiara
+Porządkowi rzeczy wbrew
+5.
+Pod odmiennych szat figurą
+W znakach różny, nie naturą
+Kryje się tajemnic dziw
+Ciało strawą, Krew napojem
+W obu znakach z Bóstwem swoim
+Chrystus cały mieszka żyw</t>
+  </si>
+  <si>
+    <t>1.
+Chwalcie łąki umajone, 
+góry, doliny zielone; 
+chwalcie cieniste gaiki, 
+źródła i kręte strumyki!
+2.
+Co igra z morza falami,
+w powietrzu buja skrzydłami, 
+chwalcie z nami Panią świata, 
+Jej dłoń nasza wieniec splata.
+3.
+Ona, dzieł Boskich korona,
+nad anioły wywyższona; 
+choć jest Panią nieba, ziemi, 
+nie gardzi dary naszymi.
+4.
+Wdzięcznym strumyki mruczeniem, 
+ptaszęta słodkim kwileniem 
+i co czuje, i co żyje,
+niech z nami sławi Maryję!</t>
+  </si>
+  <si>
+    <t>1.
+Ciebie na wieki wychwalać będziemy,
+Królowo nieba, Maryjo!
+W Twojej opiece niechaj zostajemy,
+śliczna, bez zmazy, Lilijo!
+*
+Wdzięczna Estero, o Panienko Święta,
+tyś przez aniołów jest do nieba wzięta;
+Niepokalanie Poczęta!
+2.
+Na każdy moment, na każdą godzinę
+Twojej pomocy żądamy;
+Pani anielska, odproś naszą winę,
+do Ciebie grzeszni wzdychamy.
+*
+O furto rajska! Ucieczko grzeszników!
+O Matko Boska! Ratuj niewolników!
+Niepokalanie Poczęta!
+3.
+Masz berło w ręce, znać, żeś Monarchinią,
+masz drugie: Syna swojego;
+zjednaj nam łaskę w ostatnią godzinę,
+w on dzień skonania naszego.
+*
+Niech Cię chwalimy z Synem Twym społecznie,
+jak teraz w życiu, tak i potem wiecznie,
+Niepokalanie Poczęta!</t>
+  </si>
+  <si>
+    <t>1.
+Cóż Ci, Jezu, damy za Twych łask strumienie
+Z serca Ci składamy korne dziękczynienie
+*
+Panie nasz, króluj nam, Boże nasz, króluj nam
+Poprzez wieczny czas króluj, Jezu, nam
+2.
+W serca Twego ranie, o serc naszych Królu
+Pokój i wytrwanie, ukojenie w bólu
+*
+Panie nasz, króluj nam…
+3.
+Ty nas wspieraj w znoju, strzeż przez życie całe
+Byśmy w serc pokoju Twą wielbili chwałę
+*
+Panie nasz, króluj nam…</t>
+  </si>
+  <si>
+    <t>1.
+Cześć Maryi, cześć i chwała
+Pannie świętej cześć
+= Śpiewaj, śpiewaj, ziemio cała
+Hołd jej śpiesz
+2.
+Jej to ręce piastowały
+Tego, co ten świat
+= Stworzył wielki i wspaniały
+Syn Jej, a nasz brat
+3.
+On jak matkę Ją miłował
+Jej posłusznym był
+= Każde słowo Jej szanował
+Chociaż Bogiem był
+4.
+Dziatki lube, jeśli chcecie
+Błogi żywot mieć
+= Jako święte Jezus Dziecię
+Marię chciejcie czcić
+5.
+Czystość, cichość i pokora
+To Maryi strój
+= Przez nie miła niebios Córa
+Łask zyskała zdrój
+6.
+Ten Maryi, dziatwo droga
+W sercu obraz noś
+= O opiekę Matki Boga
+Zawsze kornie proś</t>
+  </si>
+  <si>
+    <t>1.
+Do Ciebie, Matko, szafarko łask,
+błagalne pienia wciąż płyną.
+Twa dobroć świeci nad słońca blask,
+nadzieją Tyś nam jedyną.
+*
+W cierpienia czas pomocą darz
+i nieustannie ratuj nas.
+2.
+Gdy Twojej chwały niebieski tron,
+daleki duszy cierpiącej,
+spoglądnij na nas przez obraz on
+Pomocy Nieustającej.
+*
+W cierpienia czas pomocą darz…
+3.
+Twe oczy jakże łaskawe są,
+pociąga słodycz z nich Twoja,
+ufamy mocno, że ulżysz łzom
+i wsparciem staniesz się w znojach
+*
+W cierpienia czas pomocą darz…</t>
+  </si>
+  <si>
+    <t>1.
+Do Twej dążym kaplicy
+Co z brzegu czeka nas
+Wśród wichrów nawałnicy
+W pochmurny, słotny czas
+Byśmy tam wciąż dążyli
+I nigdy nie zbłądzili
+Maryjo, Maryjo, o Maryjo, świeć
+2.
+Jak cudnie w zmierzchu cieni
+Twój obraz w sercu lśni
+Wód kryształ się rumieni
+Na nim Twój promień drży
+O Jutrznio powstająca
+O Gwiazdo z chmur świecąca
+Maryjo, Maryjo, o Maryjo, świeć</t>
+  </si>
+  <si>
+    <t>*
+= Dzięki Ci, Panie, za Ciało Twe i Krew
+Za dary nieskończone wielbimy Cię
+**
+1.
+Chwalimy Cię, wszechmocny, za dary Twe nieskończone
+Za Ciało i Twoją Krew
+Przebacz w swojej dobroci tym, co Ciebie niegodni
+Kiedy do Twego stołu się zbliżamy
+*
+Dzięki Ci, Panie, za Ciało Twe i Krew…
+2.
+Przebacz, żeś hojny i wierny
+Uwolnij z więzów grzechu
+Byśmy się odmienili
+Przez tajemnice najświętsze 
+*
+Dzięki Ci, Panie, za Ciało Twe i Krew…
+3.
+?
+4.
+?
+5.
+?</t>
+  </si>
+  <si>
+    <t>*
+Dzięki, o Panie
+składamy dzięki
+o Wszechmogący nasz Królu w niebie
+**
+1.
+Za to, że dałeś nam wiarę
+Za to, że dałeś nam miłość
+*
+Dzięki, o Panie…
+2.
+Za to, że dałeś nam siebie
+Za to że jesteś z nami 
+*
+Dzięki, o Panie…
+3.
+Ty nam przebaczasz grzechy
+Ty nam przywracasz życie 
+*
+Dzięki, o Panie…
+4.
+Tobie śpiewamy z radością
+Ciebie wielbimy bez końca 
+*
+Dzięki, o Panie…</t>
+  </si>
+  <si>
+    <t>1.
+Dziękujemy Ci, Ojcze nasz
+Za święty winny szczep Dawida 
+Który nam poznać dałeś
+Przez Jezusa, Syna Twego
+Tobie chwała na wieki
+2.
+Dziękujemy Ci, Ojcze nasz
+Za życie i za wiarę
+Którą nam poznać dałeś
+Przez Jezusa, Syna Twego
+Tobie chwała na wieki
+3.
+Dziękujemy Ci, Ojcze nasz
+Za święte imię Twoje
+Któremu zgotowałeś
+Mieszkanie w sercach naszych 
+Tobie chwała na wieki
+4.
+Dziękujemy Ci, Ojcze nasz
+Za wiarę i za nieśmiertelność
+Którą nam poznać dałeś
+Przez Jezusa, Syna Twego 
+Tobie chwała na wieki
+5.
+Ty, o Panie wszechmocny
+Stworzyłeś wszystko dla imienia swego
+Pokarm i napój dałeś
+Ludziom na pożywienie 
+Tobie chwała na wieki
+6.
+Nam zaś darowałeś
+Pokarm duchowy oraz napój
+I żywot wieczny
+Przez Jezusa, Syna Twego 
+Tobie chwała na wieki
+7.
+Pomnij, Panie, na Twój Kościół
+I wybaw go od wszelkiego złego
+I doprowadź go w miłości swojej
+Do Królestwa Twego 
+Tobie chwała na wieki
+8.
+Niechaj przyjdzie Twa łaska
+I niech przeminie ten świat
+Kto święty, niech przystąpi
+Kto nim nie jest, niech czyni pokutę 
+Tobie chwała na wieki</t>
+  </si>
+  <si>
+    <t>1.
+Gdy trwoga nas ogarnie
+Matko, wspomóż nas
+I w smutku skróć cierpienia
+Matko, wspomóż nas
+*
+Matko, Ty wspomagaj nas
+nieustannie w każdy czas,
+nieustannie w każdy czas!
+2.
+Gdy wiarę tracim żywą,
+Matko, wspomóż nas!
+Nadzieję wzbudź prawdziwą;
+Matko, wspomóż nas! 
+*
+Matko, Ty wspomagaj nas…
+3.
+Gdy miłość gaśnie w duszy,
+Matko, wspomóż nas!
+Niech głos nasz Ciebie wzruszy;
+Matko, wspomóż nas! 
+*
+Matko, Ty wspomagaj nas…
+4.
+W pokusy złej godzinie,
+Matko, wspomóż nas!
+Kto wzywa Cię, nie zginie;
+Matko, wspomóż nas! 
+*
+Matko, Ty wspomagaj nas…
+5.
+Gdy śmierć się do nas zbliży,
+Matko, wspomóż nas!
+Do nieba wprowadź wyżyn;
+Matko, wspomóż nas! 
+*
+Matko, Ty wspomagaj nas…</t>
+  </si>
+  <si>
+    <t>*
+Gdzie miłość wzajemna i dobroć
+Tam znajdziesz Boga żywego
+**
+1.
+W jedno nas tu zgromadziła miłość Chrystusa
+Weselmy się w Nim i radujmy
+*
+Gdzie miłość wzajemna i dobroć…
+2.
+Z pokorą szczerą miłujmy Boga
+Z czystego serca miłujmy się nawzajem 
+*
+Gdzie miłość wzajemna i dobroć…
+3.
+Skoro się wszyscy tu gromadzimy
+Strzeżmy się tego, co nas rozdziela 
+*
+Gdzie miłość wzajemna i dobroć…
+4.
+Niech ustaną wszystkie gniewy i spory
+A pośrodku nas niech będzie Chrystus 
+*
+Gdzie miłość wzajemna i dobroć…
+5.
+Obyśmy oglądali Twoje oblicze, Chryste Boże
+Razem ze świętymi w chwale Twego Królestwa 
+*
+Gdzie miłość wzajemna i dobroć…
+6.
+To będzie naszą radością czystą i bez granic
+Przez nieskończone wieki wieków, amen 
+*
+Gdzie miłość wzajemna i dobroć…</t>
+  </si>
+  <si>
+    <t>1.
+Głoś imię Pana, Króla wszechmocy i chwały
+Złącz się z chórami niebios, zastępów wspaniałych
+Harfa i róg niech zagra „Któż jest jak Bóg”
+By krańce ziemi słyszały
+2.
+Głoś imię Pana, On twoim losem kieruje
+Na skrzydłach niesie, jak orzeł się opiekuje
+Daj Mu swą dłoń, w przygodzie zawołaj doń
+On cię od zła zachowuje
+3.
+Głoś imię Pana, razem ze wszystkim, co żyje
+On twoim światłem, Jemu niech serce twe bije
+On życiem twym, wdzięczności śpiewaj mu hymn
+Teraz i na wieki, amen</t>
+  </si>
+  <si>
+    <t>1.
+Gwiazdo śliczna wspaniała,
+Częstochowska (Kalwaryjska) Maryjo,
+do Ciebie się uciekamy,
+o Maryjo, Maryjo!
+2.
+Słyszeliśmy wdzięczny głos,
+jak Maryja woła nas:
+„Pójdźcie do mnie, moje dzieci,
+przyszedł czas, ach! przyszedł czas”.
+3.
+Gdy ptaszkowie śpiewają,
+Maryję wychwalają,
+słowiczkowie wdzięcznym głosem,
+śpiewają, ach! śpiewają.
+4.
+I my też zgromadzeni
+pokłon dajmy Maryi,
+czyste serce Bożej Matce
+darujmy, ach! darujmy.
+5.
+O przedrogi klejnocie,
+Maryjo, na tym świecie!
+Kto Ciebie ma, ten się z Tobą
+raduje, ach! raduje.
+6.
+Jak szczęśliwy tron Boży,
+Pannie Maryi służy,
+cherubiny, serafiny
+śpiewają, ach! śpiewają.
+7.
+O Maryjo, Maryjo!
+Tyś pomocą jedyną.
+Dusza ma się w moim ciele
+raduje, ach! raduje.
+8.
+Ty się przyczyń za nami,
+o Częstochowska (Kalwaryjska) Pani,
+Niech się nad nami zmiłuje
+Twój Synaczek kochany.
+9.
+O Ty, Pani Anielska,
+Maryjo Częstochowska (Kalwaryjska),
+prosimy Cię, dopomóż nam
+przyjść tam, gdzie Twój Syn mieszka.</t>
+  </si>
+  <si>
+    <t>*
+Idźcie na cały świat
+I nauczajcie wszystkie narody
+**
+1.
+Żniwo wprawdzie wielkie
+Ale robotników mało
+Proście więc Pana żniwa
+Żeby wyprawił robotników na żniwo swoje
+*
+Idźcie na cały świat…
+2.
+Nie wyście mnie wybrali
+Ale Ja was wybrałem
+I przeznaczyłem was na to
+Abyście szli i owoc przynosili 
+*
+Idźcie na cały świat…
+3.
+To wam przykazuję
+Abyście się wzajemnie miłowali
+Po tym wszyscy poznają, żeście uczniami Moimi
+Jeśli będziecie się wzajemnie miłowali 
+*
+Idźcie na cały świat…
+4.
+Jak Ojciec Mnie posłał
+Tak i Ja was posyłam
+Weźmijcie Ducha Świętego
+I bądźcie Moimi świadkami aż po krańce ziemi 
+*
+Idźcie na cały świat…</t>
+  </si>
+  <si>
+    <t>1.
+Idźmy, tulmy się jak dziatki
+do Serca Maryi Matki
+czy nas nęka życia trud
+czy to winy czerni brud
+*
+Idźmy, idźmy ufnym krokiem
+z rzewnym sercem, z łzawym okiem
+Serce to zna dzieci głos
+odwróci bolesny cios.
+2.
+Ach, to Serce dobroć sama
+najczulszej z córek Adama
+jest otwarte w każdy czas,
+samo szuka, wzywa nas
+*
+Pójdźcie do mnie, dziatki moje
+Wyczerpnijcie łaski zdroje
+Kto mnie znajdzie, życie ma
+temu Syn zbawienie da
+3.
+To Maryi Serca chwałą
+że zgubionym Zbawcę dało
+Jemuś winien, świecie, cud
+że Bóg zstąpił zbawić lud
+*
+Pod nim Jezusa nosiła
+do niego czule tuliła
+wychowała, by Bóg-Syn 
+zgładził długi naszych win.
+4.
+Więc do Ciebie, jak do Matki
+idziem, tulim się, Twe dziatki
+Matko, ulżyj życia trud
+zmyj z serc naszych winy brud
+*
+Ty nas kochasz, a my Ciebie
+niech się z Tobą złączym w niebie
+Matko, kto nie kocha Cię
+dzieckiem Twym nie zowie się</t>
+  </si>
+  <si>
+    <t>1.
+Jak miłe przybytki nam dał
+Wszechmocny i dobry nasz Bóg
+Że sam w nich zamieszkał, wszak chciał
+Wieczności zostawić nam próg
+*
+Oto nasz Boży dom
+Pokłonem uczcijmy go wraz
+Witaj nam, tu nasz Pan
+_Przyjmuje_ nas
+2.
+Tu ołtarz krynicą wszech łask
+Gdzie nie ma dostępu nasz wróg
+Tu cichy wszechmocny Twój blask
+By życie płynęło bez trwóg
+*
+Oto nasz Boży dom
+Pokłonem uczcijmy go wraz
+Witaj nam, tu nasz Pan
+_Wysłucha_ nas</t>
+  </si>
+  <si>
+    <t>1.
+Jak szczęśliwa Polska cała,
+W niej Maryi kwitnie chwała,
+Od Bałtyku po gór szczyty,
+Kraj nasz płaszczem Jej okryty.
+*
+Matko Boska, Królowo Polska,
+O Pani nasza Częstochowska.
+2.
+W Częstochowie tron swój wzniosła,
+Wielka, można i wyniosła,
+Lecz najczulsza z matek ziemi,
+Cierpi razem z dziećmi swymi.
+*
+Matko Boska, Królowo Polska…
+3.
+Tyś cudami zajaśniała,
+Swoje serce nam oddała.
+Ludu Polski, dziecię drogie,
+Masz tu Matkę, szczęście błogie.
+*
+Matko Boska, Królowo Polska…</t>
+  </si>
+  <si>
+    <t>*
+Jam jest chlebem żywym
+Który zstąpił z nieba
+**
+1.
+Ciało moje _est pokarmem
+A krew mo_ja_ jest napojem
+*
+Jam jest chlebem żywym…
+2.
+Kto pożywa Ciało i Krew moją
+Ten _ma_ życie wieczne
+*
+Jam jest chlebem żywym…
+3.
+Kto przyjmuje Ciało i Krew moją
+Ten we Mnie, _a_ Ja w nim mieszkam
+*
+Jam jest chlebem żywym…
+4.
+Ja go wskrzeszę w dzień ostateczny
+I bę_dzie_ żył na wieki
+*
+Jam jest chlebem żywym…</t>
+  </si>
+  <si>
+    <t>*
+Jasnogórska Pani, Tyś naszą hetmanką
+Polski Tyś Królową i najlepszą Matką
+**
+1.
+Spójrz na polskie domy, na miasta i wioski
+Niech z miłości Twojej słynie naród polski
+*
+Jasnogórska Pani, Tyś naszą hetmanką…
+2.
+Weź w opiekę młodzież i niewinne dziatki
+By się nie wyrzekły swej niebieskiej Matki
+*
+Jasnogórska Pani, Tyś naszą hetmanką…
+3.
+Niech i Kościół święty, dzieło Twego Syna
+U Bożego tronu wspiera Twa przyczyna
+*
+Jasnogórska Pani, Tyś naszą hetmanką…</t>
+  </si>
+  <si>
+    <t>1.
+Jeden chleb co zmienia się w Chrystusa Ciało,
+z wielu ziaren pszenicznych się rodzi.
+Jedno wino, co się Krwią Chrystusa stało,
+z soku wielu winnych gron pochodzi.
+*
+Jak ten chleb, co złączył złote ziarna,
+tak niech miłość złączy nas ofiarna.
+Jak ten kielich łączy kropel wiele,
+tak nas, Chryste, w swoim złącz Kościele.
+2.
+O Pasterzu, zgromadź w jednej swej owczarni
+zabłąkane owce, które giną.
+W jeden Kościół zbierz na nowo i przygarnij,
+byśmy jedną stali się rodziną
+*
+Jak ten chleb, co złączył złote ziarna…
+3.
+Na ramiona swoje weź, o (dobry) Panie,
+tych, co sami wrócić już nie mogą!
+Niechaj zjednoczenia cud się (wielki) stanie,
+prowadź nas ku niebu wspólną drogą
+*
+Jak ten chleb, co złączył złote ziarna…</t>
+  </si>
+  <si>
+    <t>1.
+Jezu drogi, Tyś miłością, przyjdź, daj siebie nam
+Duszy mojej Tyś ufnością, króluj w niej Ty sam
+*
+Jezu, Jezu, przyjdź do duszy mej
+Obdarz ją łaskami swymi i bądź królem jej
+2.
+Choć mnie brudzą grzechu cienie, Ty mi siebie daj
+Duszę moją łaski tchnieniem przemień w cichy raj
+*
+Jezu, Jezu, przyjdź do duszy mej…
+3.
+Dodaj siły w życia znoju, usuń zwątpień noc
+I zachowaj nas w pokoju, sercom daj Twą moc
+*
+Jezu, Jezu, przyjdź do duszy mej…</t>
+  </si>
+  <si>
+    <t>1.
+Jezu, Jezu, do mnie przyjdź
+Ach, do serca mego wnijdź
+Przyjacielu prostych dusz
+Niech się z Tobą złączę już
+2.
+Serce się ku Tobie rwie
+Żyć bez Ciebie, Panie, źle
+Pragnę, wzdycham, Jezu mój
+W Tobie słodycz, życia zdrój
+3.
+Żadna rozkosz w świecie tym
+Nie ma miejsca w sercu mym
+Tylko miłość, Jezu, Twa
+Błogi pokój sercu da
+4.
+Choć niegodny sługa Twój
+Byś majestat zniżył swój
+Uzdrów słowem duszę mą
+Niech się zbudzi z grzechu snu
+5.
+Przyjdź, o Jezu, proszę Cię
+Niech Twym dzieckiem stanę się
+Chroń od złego duszę mą
+Niech na wieki będzie Twą</t>
+  </si>
+  <si>
+    <t>1.
+Jezu, miłości Twej,
+ukryty w Hostii tej
+wielbimy cud,
+żeś się pokarmem stał,
+żeś nam swe Ciało dał,
+żeś skarby łaski zlał,
+na wierny lud.
+2.
+Dla biednych stworzeń Twych, 
+co ostrzem grzechów swych
+zraniły Cię,
+włócznią, co w boku tkwi,
+otwierasz serca drzwi,
+by w Twojej Boskiej Krwi
+obmyły się.
+3.
+I w Boskim Sercu tam
+schronienie dajesz nam,
+o Jezu mój!
+Aby nas żądłem swym
+wróg nasz nie dotknął w Nim,
+by się przed piekła złem
+lud ukrył Twój.
+4.
+Twe Serce tronem łask,
+i miłosierdzia blask
+w Nim świeci się.
+Panie, Ty widzisz sam,
+jak bardzo ciężko nam,
+więc grzesznym pozwól tam
+przytulić się.
+5.
+O Jezu, Zbawco nasz,
+co nędzę naszą znasz,
+grzeszników zbaw,
+by święte życie wieść,
+a potem Tobie cześć
+w niebiosach mogli nieść,
+o Jezu, spraw!</t>
+  </si>
+  <si>
+    <t>1.
+Jezu w Hostii utajony
+Daj mi serce Twoje, daj
+Tyś mi jeden ulubiony
+Tyś mojego serca raj
+2.
+Wszędzie dobrze mi, o Panie
+Choćby krzyż me siły rwał
+Słodkie ziemskie me wygnanie
+Byleś mi sam siebie dał
+3.
+Wszystko, wszystko chętnie zniosę
+Panie, dla miłości Twej
+Tylko błagam, tylko proszę
+Ty mnie w Sercu zawsze miej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Jezusa ukrytego mam w Sakramencie czcić
+Wszystko oddać dla Niego, Jego miłością żyć
+On się nam daje cały, z nami zamieszkał tu
+Dla Jego Boskiej chwały życie poświęćmy Mu
+Wiarą ukorzyć trzeba zmysły i rozum swój
+Bo tu już nie ma chleba, to Bóg, to Jezus mój
+2.
+Tu Mu ciągle Hosanna śpiewa anielski chór
+A ta cześć nieustanna to dla nas biednych wzór
+Dzielić z nami wygnanie Jego rozkosze są
+Niechże z Nim przebywanie będzie radością mą
+On wie, co udręczenie, On zna, co smutku łzy
+Powiem Mu swe cierpienie, bo serce z bólu drży
+3.
+O Niebo mojej duszy, najsłodszy Jezu mój
+Dla mnie wśród ziemskiej suszy Tyś szczęścia pełen zdrój
+Tyś w Wieczerniku siebie raz tylko uczniom dał
+W ołtarzuś się jak w niebie powszednim chlebem stał
+Chciałbym tu być aniołem, co śpiewa ciągle cześć
+Z rozpromienionym czołem Tobie swe serce nieść </t>
+  </si>
+  <si>
+    <t>*
+Jezusowi cześć i chwała
+Za miłości cud
+Niech Mu śpiewa ziemia cała
+Niech Go wielbi lud
+**
+1.
+On nam wskazał nieomylną drogę
+On za owce swoje życie dał
+On przez krzyż zwyciężył śmierci trwogę
+W nas nadzieję zmartwychwstania wlał
+*
+Jezusowi cześć i chwała…
+2.
+On prowadzi nas do nowej ziemi
+Gdzie nie będzie cierpień ani łez
+Choć krzyżową drogą z Nim idziemy
+Wiedzie tam, gdzie wieczne szczęście jest 
+*
+Jezusowi cześć i chwała…
+3.
+Więc dziękujmy Jemu z całej duszy
+Że się dla nas w małej Hostii skrył
+Niech ta miłość serca nasze wzruszy
+Byśmy Go kochali z wszystkich sił 
+*
+Jezusowi cześć i chwała…</t>
+  </si>
+  <si>
+    <t>1.
+Już od rana rozśpiewana,
+chwal o duszo, Maryję!
+Cześć Jej świątkom, cześć pamiątkom,
+co dzień w niebo niech bije!
+*
+Cud bo żywy, nad podziwy,
+Jej wielmożność u Boga:
+Panna czysta, Matka Chrysta,
+przechwalebna, przebłoga.
+2.
+Serce rośnij w cześć rozgłośniej,
+dźwięków Marii nieś krocie;
+świat w niemocy, świat sierocy
+odmieniła w żywocie
+*
+Cud bo żywy, nad podziwy…
+3.
+Przez Cię czarta pycha starta
+i na wszystkie plemiona
+Tyś otucha znów dla ducha,
+Panno błogosławiona 
+*
+Cud bo żywy, nad podziwy…
+4.
+O Królowo! Tyś na nowo
+światu rozradowaniem,
+z Twej opieki na wiek wieki
+chwałę niebios dostaniem 
+*
+Cud bo żywy, nad podziwy…
+5.
+Bądź ochłodą i osłodą
+tym, co wiernie i stale
+Twoje świątki i pamiątki
+podawają ku chwale. 
+*
+Cud bo żywy, nad podziwy…</t>
+  </si>
+  <si>
+    <t>1.
+Każda żyjąca dusza
+Niech się miłością wzrusza
+Uwielbiając, wychwalając
+Serce Jezusa
+2.
+Bo niebo ani ziemia
+Nic tak słodkiego nie ma
+Jako Serce Jezusowe
+Pełne zbawienia
+3.
+Dla nas otwarte stoi
+Niech grzesznik się nie boi
+Niech żałuje, pokutuje
+Tu rany zgoi
+4.
+W Najświętszym Sakramencie
+To Serce uwielbiajcie
+Za te dary serc ofiary
+Chętnie oddajcie
+5.
+Niech, Jezu, Twe mieszkanie
+Wśród naszych serc zostanie
+Niechaj dusza ma Jezusa
+Na posilanie
+6.
+Posilaj, Jezu drogi
+Rzucam się pod Twe nogi
+Serce kruszę, dając duszę
+Człowiek ubogi
+7.
+Gdy zbliży się konanie
+A serce me ustanie
+Z Twej opieki mnie na wieki
+Nie wypuść, Panie</t>
+  </si>
+  <si>
+    <t>1.
+Kiedy w jasną, spokojną, cichą noc
+Spoglądam na niebo pełne gwiazd
+Wtedy myślę, czy życie to ma sens
+I wołam do Ciebie, Ojcze nasz
+*
+O Boże, o Boże, Panie mój
+Nie pamiętaj, że czasem było źle
+Wiesz dobrze, że zawsze jestem Twój
+I że tylko Twoją drogą kroczyć chcę
+2.
+Kiedy w życiu tak pełnym rozczarowań
+Przez grzechu kamienie potknę się
+Kiedy spokój utonie w fali knowań
+Każdym drżeniem mej duszy szukam Cię
+*
+O Boże, o Boże, Panie mój…
+3.
+Życie ludzi przebiega krętą drogą
+Hen w górze cel wędrówki mojej tkwi
+I choć czasem sił braknie moim nogom
+To ja dojdę, bo zaufałem Ci
+*
+O Boże, o Boże, Panie mój…</t>
+  </si>
+  <si>
+    <t>1.
+Kiedyś, o Jezu, chodził po świecie,
+brałeś dziateczki w objęcia swe,
+patrz, tu przed Tobą stoi Twe dziecię,
+do Serca Twego przytul i mnie!
+2.
+Byłeś Dzieciątkiem, Ty wielki Boże!
+W żłóbku płakałeś nad światem złym.
+Nie płacz, Dzieciątko! Ja Ci w pokorze
+serce me daję! Ty mieszkaj w nim!
+3.
+Kto by u siebie dziecko przyjmował,
+rzekłeś, że wtenczas przyjmuje Cię.
+Dzięki Ci, Jezu, żeś nas miłował!
+Za to Cię kochać na wieki chcę!
+4.
+Rzekłeś: „Nie może ze Mną być w niebie,
+kto nie chce dziecku podobnym być”!
+Ja, dziecko Twoje, chcę przyjść do Ciebie!
+Daj mi niewinnie do śmierci żyć!
+5.
+Kiedy w ostatniej będę potrzebie,
+gdy się rozstanę ze światem tym
+– zlituj się, Jezu! Weź mnie do siebie!
+Niech wiecznie spocznę przy Sercu Twym!</t>
+  </si>
+  <si>
+    <t>1.
+Kłaniam się Tobie, przedwieczny Boże
+Którego niebo pojąć nie może
+Ja, proch mizerny, przed Twą możnością
+Z wojskiem aniołów klękam z radością
+2.
+Tu Stwórcę swego z wiarą wyznaję
+Kocham serdecznie, pokłon oddaję
+Cieszę się wielce z Twej Boskiej chwały
+Niech Ci się kłania z niebem świat cały
+3.
+Dziękuję za to, żeś się zostawił
+W tym Sakramencie, abyś nas zbawił
+Za swoje łaski tu wyświadczony
+Odbieraj od nas serca skruszone
+4.
+?
+5.
+?
+6.
+?</t>
+  </si>
+  <si>
+    <t>1.
+Kochajmy Pana, bo Serce Jego
+Żąda i pragnie serca naszego
+Dla nas Mu włócznią rana zadana
+Kochajmy Pana, kochajmy Pana
+2.
+O pójdź do Niego wszystko stworzenie
+Sercu Jezusa złóż dziękczynienie
+I twoje przed Nim zegnij kolana
+Kochajmy Pana, kochajmy Pana
+3.
+Pójdźcie do Niego, biedni grzesznicy
+Zmyć grzechów zmazy w czystej Krynicy
+Nad śnieg zbieleje dusza zmazana
+Kochajmy Pana, kochajmy Pana
+4.
+Pójdźcie do Niego, szczęśliwe dusze
+Obmyte we łzach, w pokuty skrusze
+Już niewinności szata wam dana
+Kochajmy Pana, kochajmy Pana</t>
+  </si>
+  <si>
+    <t>1.
+Królowej Anielskiej śpiewajmy
+Różami uwieńczmy Jej skroń
+Jej serca w ofierze składajmy
+Ze łzami wołajmy doń
+*
+= O Maryjo, bądź nam pozdrowiona
+Bądź Ty zawsze Matką nam
+2.
+Przez Ciebie, o Matko miłości
+Łask wszelkich udziela nam Bóg
+A my Ci hołd dajem wdzięczności
+Upadłszy do Twoich nóg
+*
+= O lilijo, jakżeś Ty wspaniała
+Wszelkich cnót rozlewasz woń
+3.
+O tronie Ty Boga wiecznego
+O Słońce nadziei i łask
+O Różdżko przedziwna Jessego
+Jak wielki cnót Twych jest blask
+*
+= O Maryjo, bądź nam pozdrowiona
+Bądź Ty zawsze Matką nam</t>
+  </si>
+  <si>
+    <t>1.
+Króluj nam, Chryste, zawsze i wszędzie
+To nasze rycerskie hasło
+= Ono nas zawsze prowadzić będzie
+I świecić jak słońce jasno
+2.
+Naprzód, przebojem, młodzi rycerze
+Do walki z grzechem swej duszy
+= Wodzem nam Jezus w Hostii ukryty
+Z Nim w bój nasz zastęp wyruszy
+3.
+Pójdziemy naprzód, naprzód radośnie
+Podnosząc w górę swe czoła
+= Przed nami życie rozkwita w wiośnie
+Odważnie, bo Jezus woła</t>
+  </si>
+  <si>
+    <t>1.
+Kto się w opiekę odda Panu swemu
+A całym sercem szczerze ufa Jemu
+Śmiele rzec może – mam obrońcę Boga
+Nie przyjdzie na mnie = żadna straszna trwoga
+2.
+Ciebie On z łowczych obieży wyzuje
+I w zaraźliwym powietrzu ratuje
+W cieniu swych skrzydeł zachowa cię wiecznie
+Pod Jego pióry = uleżysz bezpiecznie
+3.
+Stateczność Jego tarcz i puklerz mocny
+Za którym stojąc, na żaden strach nocny
+Na żadną trwogę ani dbaj na strzały
+Którymi sieje = przygoda w dzień biały
+4.
+?
+5.
+Iżeś rzekł Panu – Tyś nadzieja moja
+Iż Bóg najwyższy jest ucieczka twoja
+Nie padnie na cię żadna zła przygoda
+Ani się znajdzie = w domu twoim szkoda
+6.
+?
+7.
+?
+8.
+Słysz, co Pan mówi – Ten kto mnie miłuje
+I ze Mną sobie szczerze postępuje
+I Ja go także w jego każdą trwogę
+I nie zapomnę, = i owszem, pomogę</t>
+  </si>
+  <si>
+    <t>1.
+Maryjo, ja Twe dziecię, o podaj mi Twą dłoń
+od złego mnie w tym świecie, od grzechu, Matko, chroń
+*
+Bądź z nami w każdy czas
+wspieraj i ratuj nas
+Matko, Matko, bądź z nami, w każdy czas
+2.
+O, tkliwe Twoje oczy ku dzieciom, Matko, zniż
+Gdy niemoc serce tłoczy, Ty je pociągnij wzwyż
+*
+Bądź z nami w każdy czas…
+3.
+Ty płoniesz blaskiem słońca, rozpraszasz świata mrok
+niech w obraz Twój bez końca utkwiony mamy wzrok
+*
+Bądź z nami w każdy czas…</t>
+  </si>
+  <si>
+    <t>Maryjo, Królowo Polski =
+= Jestem przy Tobie, pamiętam
+Jestem przy Tobie, czuwam =</t>
+  </si>
+  <si>
+    <t>*
+Miłujcie się wzajemnie
+Jak ja was umiłowałem
+**
+1.
+To jest nowe przykazanie
+Abyście się wzajemnie miłowali
+*
+Miłujcie się wzajemnie…
+2.
+Nie ma większej miłości
+Jak oddać życie za przyjaciół swoich 
+*
+Miłujcie się wzajemnie…
+3.
+Nie nazywam was sługami
+Ale przyjaciółmi 
+*
+Miłujcie się wzajemnie…
+4.
+Jesteście przyjaciółmi moimi
+Gdy czynicie, co wam nakazałem
+*
+Miłujcie się wzajemnie…</t>
+  </si>
+  <si>
+    <t>1.
+My chcemy Boga, Panno Święta!
+O, usłysz naszych wołań głos!
+Miłości Bożej dźwigać pęta,
+to nasza chluba, to nasz los.
+*
+Błogosław, słodka Pani!
+Błogosław wszelki stan!
+= My chcemy Boga! My poddani!
+On naszym Królem, On nasz Pan!
+2.
+My chcemy Boga w rodzin kole,
+w troskach rodziców, w dziatek snach;
+my chcemy Boga w książce, w szkole,
+w godzinach wytchnień, w pracy dniach.
+*
+Błogosław, słodka Pani…
+3.
+My chcemy Boga w naszym kraju,
+wśród starodawnych polskich strzech,
+w polskim języku i zwyczaju
+niech Boga wielbi Chrobry, Lech. 
+*
+Błogosław, słodka Pani…
+4.
+My chcemy Boga w każdej chwili,
+i dziś, i jutro, w szczęściu, w łzach;
+czy nam się pociech niebo schyli,
+czy w gruzach legnie szczęścia gmach.
+*
+Błogosław, słodka Pani…
+5.
+My chcemy Boga! Jego prawo
+niech będzie naszych czynów tchem!
+Byśmy umieli chętnie, żwawo:
+obierać dobro, gardzić złem!
+*
+Błogosław, słodka Pani…</t>
+  </si>
+  <si>
+    <t>Najświętsze Serce Boże,
+poświęcamy Ci
+naszą ojczyznę, miasta i wioski,
+nasze rodziny i nas samych.
+Serce Boże, przyjdź Królestwo Twoje!</t>
+  </si>
+  <si>
+    <t>1.
+Nawróć się, ludu, w pokorze
+W poście i w płaczu, i w żalu
+A światłość twoja jak zorze
+Rozbłyśnie nad Jeruzalem
+2.
+Nawróć się, córko Syjonu
+Do Pana, Boga swojego
+Tułaczy przyjmij do domu
+Łaknących obdaruj chlebem
+3.
+Obmyj się dziś żywą wodą
+Bo Bóg ci przebaczyć gotów
+Jak orzeł odnów swą młodość
+I wzmocnij skrzydła do lotu
+4.
+Wtedy Pańskiego Imienia
+Zawezwiesz, a On odpowie
+Wprowadzi do bram zbawienia
+Pasterzem będzie swych owiec</t>
+  </si>
+  <si>
+    <t>*
+Nie lękajcie się, ja jestem z wami,
+nie lękajcie się, ja jestem z wami
+Nie lękajcie się, Bóg jest miłością,
+nie lękajcie się, trwajcie mocni w wierze
+**
+1.
+Ty jesteś skałą zbawienia
+Jedyną naszą ostoją
+Przychodzimy do Ciebie po światło
+Ulecz nasze serca, zmartwychwstać daj
+*
+Nie lękajcie się, ja jestem z wami…
+2.
+Pomóż nam wytrwać przy Tobie
+Być wiernym w wierze przez życia czas
+Tylko w Tobie cała nasza nadzieja
+Miłosierdziem swoim uzdrawiaj nas
+*
+Nie lękajcie się, ja jestem z wami…
+3.
+Przekażcie światu Mój ogień
+Pokoju i miłosierdzia
+Nieście wszystkim orędzie nadziei
+Moje światło niech świeci wśród was
+*
+Nie lękajcie się, ja jestem z wami…</t>
+  </si>
+  <si>
+    <t>1.
+Nie opuszczaj nas, nie opuszczaj nas
+*
+Jezu, nie opuszczaj nas
+**
+Tyś powiedział, że na ziemi
+Nie zostawisz nas samymi
+Twoje serce czuło w niebie
+Jak nam ciężko żyć bez Ciebie
+2.
+Nie opuszczaj nas, nie opuszczaj nas
+Jezu, nie opuszczaj nas
+Gdzie pociechę my znajdziemy
+Gdzie łzy żalu ukoimy?
+W sercu Twoim tylko, Panie,
+I pociecha i wytrwanie
+3.
+Nie opuszczaj nas, nie opuszczaj nas
+Jezu, nie opuszczaj nas
+W serca Twego słodkiej ranie
+Wszystko mamy, dobry Panie
+Tam ucieczka, tam schronienie
+Tam wesele, tam wzmocnienie
+&lt;hr /&gt;
+1.
+Nie opuszczaj nas, nie opuszczaj nas
+*
+Matko, nie opuszczaj nas
+**
+Matko, pociesz, bo płaczemy
+Matko, prowadź, bo zginiemy
+Ucz nas kochać, choć w cierpieniu
+Ucz nas cierpieć, lecz w milczeniu
+2.
+Nie opuszczaj nas, nie opuszczaj nas
+Matko, nie opuszczaj nas
+Cóż dziwnego, że łzy płyną
+Gdy to życie łez doliną
+Dusza smutkiem zamroczona
+Pod ciężarem krzyża kona
+3.
+Nie opuszczaj nas, nie opuszczaj nas
+Matko, nie opuszczaj nas
+Wyjednało Twe wstawienie
+Nie jednemu już zbawienie
+Kto swą ufność w Tobie złożył
+Nowem łaski życia ożył</t>
+  </si>
+  <si>
+    <t>1.
+Niechaj z nami będzie Pan, Alleluja
+Niech obroną będzie nam, Alleluja
+2.
+Jego Słowo zawsze trwa, Alleluja
+Wieczną prawdę w sobie ma, Alleluja
+3.
+Chcemy zgłębiać Słowa treść, Alleluja
+Braciom je radośnie nieść, Alleluja
+4.
+Chcemy Nim na co dzień żyć, Alleluja
+I w przyjaźni z Bogiem być, Alleluja
+5.
+Źródło życia, Panie nasz, Alleluja
+Ty nam wieczne życie dasz, Alleluja
+6.
+Prowadź wśród zawiłych dróg, Alleluja
+W Trójcy Świętej Jeden Bóg, Alleluja</t>
+  </si>
+  <si>
+    <t>Niech będzie chwała i cześć, i uwielbienie
+Chwała i cześć Jezusowi
+Chwała, niech będzie chwała
+Tak, Jemu chwała i cześć</t>
+  </si>
+  <si>
+    <t>1.
+O Boże, dzięki Ci składamy za ten wielki cud.
+Za Twej miłości wieczny zamysł, by odkupić lud.
+Tyś Syna swego dał, by człowiek życie miał.
+On przyjął na się ludzkie ciało, jednym z nas się stał.
+2.
+Lecz nie dość było tej miłości, że wśród ludzi żył.
+On w Eucharystii wśród nas gości, w Hostii tej się skrył.
+Tu otwarł Serce swe i łaski wiernym śle,
+On jest pokarmem naszych dusz i umocnieniem sił.
+3.
+Zawitaj, Jezu, drogi Gościu, źródło hojnych łask.
+Ty nas gromadzisz w jeden Kościół, Ty jednoczysz nas.
+Bądź siłą naszych dusz, ostoją pośród burz,
+pozostań z nami w doczesności i po wieczny czas.</t>
+  </si>
+  <si>
+    <t>1.
+O mój Jezu w Hostii skryty
+Na kolanach wielbię Cię
+W postać chleba Tyś spowity
+Bóstwo Twoje kryje się
+Ty, co rządzisz całym światem
+Me zbawienie w ręku masz
+Tu przed Twoim Majestatem
+Aniołowie kryją twarz
+2.
+O światłości przysłoniona
+Rzuć mi Twój promienny blask
+O Dobroci nieskończona
+Otwórz dla nas skarby łask
+Chlebie życia przeobfity
+Nasyć duszy mojej głód
+Boski ogniu tu zakryty
+Rozgrzej serca mego chłód
+3.
+Jezu, Tyś jest Zbawicielem
+Ustrzeż mnie od zgubnych dróg
+Bądź mi siłą i weselem
+Boś w tej Hostii żywy Bóg
+Dla miłości Matki Twojej
+Racz wysłuchać prośbę mą
+Bądź miłością duszy mojej
+Nie gardź moją cichą łzą</t>
+  </si>
+  <si>
+    <t>1.
+O niewysłowione szczęście zajaśniało,
+gdy Słowo Wcielone Serce swe nam dało.
+*
+Cud Boskiej miłości, o duszo ludzka, głoś;
+ku wiecznej światłości dźwięki twej pieśni wznoś.
+2.
+Miłość świat ten cały w niebo przemieniła,
+gdy w tej Hostii małej Serce Boże skryła
+*
+Cud Boskiej miłości, o duszo ludzka, głoś…
+3.
+Jako hołd wdzięczności serca Sercu dajmy,
+w bólu i radości zawsze Je kochajmy. 
+*
+Cud Boskiej miłości, o duszo ludzka, głoś…
+4.
+A nam Serce Boże po cierpieniach w świecie
+szczęścia wieczystego w raju wieniec splecie. 
+*
+Cud Boskiej miłości, o duszo ludzka, głoś…</t>
+  </si>
+  <si>
+    <t>1.
+= O Panie, Ty nam dajesz Ciało swe i Krew =
+Do Ciebie więc idziemy, wciąż radosną niosąc pieśń
+*
+= Ty jesteś Bogiem wiernym na wieczny czas
+2.
+= Przez dar Twojego chleba, dobry Boże nasz =
+Rodzinę bratnią czynisz z nas, miłować uczysz nas
+*
+= Ty jesteś Bogiem wiernym na wieczny czas
+3.
+= To Twoje miłowanie dało wolność nam =
+Chwalimy święte Imię Boga, jak uczyłeś nas
+*
+= Ty jesteś Bogiem wiernym na wieczny czas
+4.
+= Tyś nam wyznaczył drogę wiodącą na Twój szlak =
+Idziemy więc, by radość nieść tam, gdzie jej światu brak
+*
+= Ty jesteś Bogiem wiernym na wieczny czas</t>
+  </si>
+  <si>
+    <t>1.
+O Panie, Tyś moim Pasterzem
+Tak dobrym, że nic mi nie braknie
+Do źródeł wód żywych mnie wiedziesz
+Prostymi ścieżkami prowadzisz
+*
+Pasterzem moim jest Pan
+I nie brak mi niczego
+2.
+Choć idę przez ciemną dolinę
+Niczego nie muszę się trwożyć
+Bo Pasterz mój zawsze jest przy mnie
+W obronie mej stanąć gotowy
+*
+Pasterzem moim jest Pan…
+3.
+Do stołu swojego zaprasza
+Na oczach mych wrogów to czyni
+Olejkiem mą głowę namaszcza
+A kielich napełnia obficie 
+*
+Pasterzem moim jest Pan…
+4.
+Twa łaska i dobroć podążą
+W ślad za mną po dzień mój ostatni
+Aż dotrę, o Panie, do domu
+By z Tobą zamieszkać na zawsze 
+*
+Pasterzem moim jest Pan…</t>
+  </si>
+  <si>
+    <t>1.
+Ojcze z niebios, Boże Panie,
+tu na ziemię ześlij nam,
+Twoje święte zmiłowanie,
+tu na ziemię ześlij nam.
+2.
+Boże wielki! My w pokorze
+do Twych stóp garniemy się,
+wola Twoja wszystko może,
+Ty nad nami zlituj się.
+3.
+A przez Syna Twego mękę
+ulżyj ludzkiej doli złej.
+Każdą życia skróć udrękę,
+Boże wielki, zlituj się.</t>
+  </si>
+  <si>
+    <t>Pan blisko jest, oczekuj Go.
+Pan blisko jest, w Nim serca moc!</t>
+  </si>
+  <si>
+    <t>1.
+Pan Jezus już się zbliża
+Już puka do mych drzwi
+Pobiegnę go przywitać
+Z radości serce drży
+*
+O szczęście niepojęte
+Bóg sam odwiedza mnie
+O Jezu, wspomóż łaską
+Bym godnie przyjął Cię
+2.
+Nie jestem godzien, Panie
+Byś w sercu moim był
+Tyś Królem wszego świata
+A jam jest marny pył
+*
+O szczęście niepojęte…
+3.
+Gdy wspomnę na me grzechy
+To z żalu [Ze żalu] płyną łzy
+Bom Serce Twoje zranił
+O Jezu, odpuść mi 
+*
+O szczęście niepojęte…
+4.
+Pragnąłbym Cię tak kochać
+Jak Ty kochałeś mnie
+Przyjm serce me oziębłe
+A daj mi Serce Twe 
+*
+O szczęście niepojęte…</t>
+  </si>
+  <si>
+    <t>*
+Pan wieczernik przygotował, swój zaprasza lud
+Dla nas wszystkich dom otworzył i zastawił stół
+**
+1.
+Przyjdźcie z ulic i opłotków, bowiem mija czas
+Przyjdźcie chorzy i ubodzy, Pan uzdrowi was
+*
+Pan wieczernik przygotował…
+2.
+Każdy człowiek w domu Pańskim swoje miejsce ma
+Niech nikogo w nim nie braknie, uczta Pańska trwa
+*
+Pan wieczernik przygotował…
+3.
+Przystępujmy z dziękczynieniem, pożywajmy chleb
+Pijmy napój nieśmiertelnych, aby życie mieć
+*
+Pan wieczernik przygotował…
+4.
+Zakosztujcie i poznajcie tej Wieczerzy smak
+Z obfitości boskich darów bierzcie pełnię łask
+*
+Pan wieczernik przygotował…
+5.
+Kto się z Panem tu spotyka tworzy jedno z Nim
+Bóg z miłością go nazywa przyjacielem swym
+*
+Pan wieczernik przygotował…
+6.
+Nakarmieni Chlebem Żywym wznieśmy Panu pieśń
+Bóg żyjący i prawdziwy strzeże naszych serc
+*
+Pan wieczernik przygotował…</t>
+  </si>
+  <si>
+    <t>1.
+Pan zstąpił z nieba pod postacią Chleba
+Choć skryty, bez świty, lecz prawy Bóg
+Cichy, bez chwały, daje nam się cały
+*
+Padnijmy na kolana
+Uczcijmy z niebios Pana
+Z miłością, z czułością
+Wiernych sług
+2.
+Jezus przychodzi, troski nam osłodzi
+Więc bieżmy, więc spieszmy do jego stóp
+On nas z ołtarza łaską swą obdarza
+*
+Padnijmy na kolana…</t>
+  </si>
+  <si>
+    <t>*
+Panie dobry jak chleb
+Bądź uwielbiony od swego Kościoła
+Bo Tyś do końca nas umiłował
+Do końca nas umiłował
+**
+1.
+Tyś na pustkowiu chleb rozmnożył, Panie
+Byśmy do nieba w drodze nie ustali
+Tyś stał się manną wędrowców przez ziemię
+Dla tych co dotąd przy Tobie wytrwali
+*
+Panie dobry jak chleb…
+2.
+Ziarna zbierzemy, odrzucimy chwasty
+Bo łan dojrzewa, pachnie świeżym chlebem
+Niech ziemia nasza stanie się ołtarzem
+A chleb Komunią dla spragnionych Ciebie 
+*
+Panie dobry jak chleb…
+3.
+Ty nas nazwałeś swymi przyjaciółmi
+Jeśli spełnimy, co nam przykazałeś
+Cóż my bez Ciebie, Panie, uczynimy
+Tyś naszym Życiem i Oczekiwaniem 
+*
+Panie dobry jak chleb…</t>
+  </si>
+  <si>
+    <t>1.
+Po górach, dolinach rozlega się dzwon,
+Anielskie witanie ludziom głosi on:
+*
+Ave, ave, ave Maryja.
+Zdrowaś, zdrowaś, zdrowaś Maryja.
+2.
+Bernadka dziewczynka szła po drzewo w las,
+Anioł ją tam wiedzie, Bóg sam wybrał czas.
+*
+Ave, ave, ave Maryja….
+3.
+Modlitwę serdeczną szepczą usta jej,
+„Zdrowaś bądź Panienko łaski na nas zlej”.
+*
+Ave, ave, ave Maryja….
+4.
+„Pokornej mej prośbie odpowiedź swą daj:
+„Kto jesteś, o Pani, przed nami nie taj”.
+*
+Ave, ave, ave Maryja….
+5.
+Klęczącej Bernadce rzekła Pani ta:
+„Poczęciem Niepokalanym jestem ja”.
+*
+Ave, ave, ave Maryja….
+6.
+O gwiazdo najświętsza, wiedź nas w niebios kraj,
+Gdzie wieczną szczęśliwość, o Boże nam daj.
+*
+Ave, ave, ave Maryja…</t>
+  </si>
+  <si>
+    <t>1.
+Pobłogosław, Jezu drogi
+Tym, co Serce Twe kochają
+Niechaj skarb ten cenny, drogi
+Na wiek wieków posiadają
+2.
+Za Twe łaski dziękujemy
+Które Serce Twoje dało
+W dani dusze Ci niesiemy
+By nas Serce Twe kochało
+3.
+Trzykroć święte Serce Boga
+Tobie śpiewa niebo całe
+Ciebie wielbi Matka droga
+Tobie lud Twój składa chwałę
+4.
+Nie opuszczaj nas, o Panie
+Odpuść grzesznym liczne winy
+Daj nam w Serca Twego ranie
+Błogosławieństw zdrój jedyny</t>
+  </si>
+  <si>
+    <t>1.
+Pod Twą obronę, Ojcze na niebie
+Grono Twych dzieci swój powierza los
+= Ty nam błogosław, ratuj w potrzebie
+I broń od zguby, gdy zagraża cios
+2.
+Czy toń spokojna, czy szumią fale
+Gdy Ty Twe dzieci w swej opiece masz
+= Wznosimy modły dziś ku Twej chwale
+Boś Ty nam tarczą, Boże Ojcze nasz</t>
+  </si>
+  <si>
+    <t>1.
+Pójdźmy do Pana z winnym pokłonem
+A złóżmy serca przed Jego tronem
+Dobroć nam Jego, wszechmocność znana
+Pójdźmy do Pana, pójdźmy do Pana
+2.
+Pan święty, mocny i nieśmiertelny
+Jeden w Osobach Trzech, nierozdzielny
+Moc, mądrość, miłość w Nim niezrównana
+Pójdźmy do Pana, pójdźmy do Pana
+3.
+Bóg Stwórcą naszym, Ojcem i Panem
+Wszelkim łaskawie zarządza stanem
+Jego Opatrzność wszędzie widziana
+Pójdźmy do Pana, pójdźmy do Pana</t>
+  </si>
+  <si>
+    <t>1.
+Przygotuję Ci serce, o Chryste
+Przygotuję Ci serce niewinne
+Takie jasne, radosne i czyste
+Przygotuję Ci serce, o Chryste
+2.
+Przygotuję Ci serce ofiarne
+Precz odrzucę, co kusi i wabi
+Przygotuję nadzieją i wiarą
+Przygotuję Ci serce ofiarą
+3.
+Przyozdobię Ci serce miłością
+Taką wielką, co wszystko zwycięża
+Abyś wstąpił do niego z radością
+Przyozdobię Ci serce miłością
+4.
+Przyozdobię Ci serce dziecinne
+Takie małe, tak biedne i słabe
+A Ty wlejesz w nie siły swe dziwne
+Kiedy wstąpisz w me serce niewinne
+5.
+Przygotuję Ci serce, mój Boże
+Ja, stworzenie niegodne i grzeszne
+Tobie troski, radości me złożę
+Kiedy wstąpisz w me serce, o Boże</t>
+  </si>
+  <si>
+    <t>1.
+Przyjmij, o Najświętszy Panie
+Tę ofiarę chleba, wina
+Co się wkrótce Ciałem stanie
+I Krwią świętą Twego Syna
+2.
+Przyjmij nasze wyrzeczenia
+Które w chlebie tym niesiemy
+Przyjmij trudy i cierpienia
+Które w winie dać Ci chcemy
+3.
+Chwała Ojcu i Synowi
+I Duchowi również chwała
+Bogu w Trójcy Jedynemu
+Niechaj śpiewa ziemia cała</t>
+  </si>
+  <si>
+    <t>*
+Radośnie Panu hymn śpiewajmy, Alleluja!
+I dobroć Jego wysławiajmy, Alleluja!
+**
+1.
+Wychwalajcie ze mną dzieła Bożej mocy, Alleluja!
+Wychwalajcie pana nad wszystko na wieki, Alleluja!
+Wychwalajcie Pana, aniołowie Pańscy, Alleluja!
+Wychwalajcie Pana, Zastępy niebieskie, Alleluja!
+*
+Radośnie Panu hymn śpiewajmy…
+2.
+Wychwalajcie Pana, słońce i księżycu. Alleluja!
+Wychwalajcie Pana, wszystkie gwiazdy nieba. Alleluja!
+Wychwalajcie Pana, rzeki, oceany. Alleluja!
+Wychwalajcie Pana, pagórki i góry. Alleluja!
+*
+Radośnie Panu hymn śpiewajmy…
+3.
+Wychwalajcie Pana, rośliny, zwierzęta. Alleluja!
+Niech wychwala Pana, cały rodzaj ludzki. Alleluja!
+Wychwalajcie Pana, ludzie sprawiedliwi. Alleluja!
+Wychwalajcie Pana, pokorni i święci. Alleluja!
+*
+Radośnie Panu hymn śpiewajmy…
+4.
+Wychwalajcie Pana, kapłani Kościoła. Alleluja!
+Niech cały Lud Boży sławi Jego dobroć. Alleluja!
+Wychwalajcie Ojca, wraz z Synem i Duchem. Alleluja!
+Wychwalajmy Pana, Stwórcę nieba, ziemi. Alleluja!
+*
+Radośnie Panu hymn śpiewajmy…</t>
+  </si>
+  <si>
+    <t>1.
+Rzućmy się wszyscy społem
+Uderzmy w ziemię czołem
+Dając pokłon Najwyższemu
+W Sakramencie ukrytemu
+Bogu naszemu
+2.
+Wszak pod utratą nieba
+Wierzyć każdemu trzeba
+Że pod tymi przymiotami
+Chleba, wina, jest Bóg z nami
+Choć utajony
+3.
+A jeśli kto nie wierzy
+Ma z ostatniej wieczerzy
+Jasny dowód, co się stało
+Że wino w Krew, a chleb w Ciało
+Bóg swe przemienił
+4.
+I tę moc dał kapłanom
+Nie królom ani panom
+Aby oni poświęcali
+I nam grzesznym rozdawali
+Ciało, Krew Pańską.
+5.
+…</t>
+  </si>
+  <si>
+    <t>1.
+Schowaj mnie pod skrzydła Twe
+Ukryj mnie w silnej dłoni Swej.
+*
+Kiedy fale mórz chcą porwać mnie
+Z Tobą wzniosę się, podniesiesz mnie
+Panie Królem Tyś spienionych wód
+Ja ufam Ci - Ty jesteś Bóg.
+2.
+Odpocznę dziś w ramionach Twych
+Dusza ma w Tobie będzie trwać.
+*
+Kiedy fale mórz chcą porwać mnie…</t>
+  </si>
+  <si>
+    <t>*
+Serce me do Ciebie wznoszę, Panie, szukam Cię
+**
+1.
+Usłysz, Panie, głos wołania i ulituj się
+Serce me do Ciebie wznoszę, Panie, szukam Cię
+*
+Serce me do Ciebie wznoszę, Panie, szukam Cię
+2.
+Nie ukrywaj się przede mną, nie odpychaj mnie
+Nie opuszczaj mnie, Wybawco, wstrzymaj srogi gniew 
+*
+Serce me do Ciebie wznoszę, Panie, szukam Cię
+3.
+Choćby o mnie zapomnieli ojciec, matka ma
+Ty mnie przyjmiesz i przygarniesz w utrapienia dniu 
+*
+Serce me do Ciebie wznoszę, Panie, szukam Cię
+4.
+Wskaż mi drogę Twoją, Panie, prowadź ścieżką Twą
+Bo wróg czyha na bezdrożach, wyrwij z jego rąk 
+*
+Serce me do Ciebie wznoszę, Panie, szukam Cię</t>
+  </si>
+  <si>
+    <t>1.
+Serce Twe Jezu, miłością goreje,
+Serce Twe w ogniu miłości topnieje.
+A nasze serca zimne jak lód,
+I próżny zda się Twej męki trud.
+2.
+Kiedyż, o kiedyż, słodki mój Panie,
+Poznamy Serca Twego kochanie?
+Kiedyż Twa miłość rozpali nas,
+dobry Jezu, czas to już czas!
+3.
+Rzuć tej miłości iskrę choć jedną,
+Ziemię serc naszych suchą i biedną.
+By Ci wydała obfity plon,
+Za Twój na krzyżu bolesny zgon.
+4.
+Gdy już na krzyżu, Jezu, skonałeś,
+Z miłości jeszcze zranion być chciałeś,
+By w Sercu Twoim otworzyć drzwi
+I nam ostatnią dać kroplę krwi.</t>
+  </si>
+  <si>
+    <t>1.
+Serdeczna Matko, Opiekunko ludzi
+Niech Cię płacz sierot do litości wzbudzi.
+Wygnańcy Ewy do Ciebie wołamy,
+Zlituj się, zlituj, niech się nie tułamy.
+2.
+Do kogóż wzdychać mamy nędzne dziatki?
+Tylko do Ciebie, ukochanej Matki,
+U której serce otwarte każdemu,
+A osobliwie nędzą strapionemu.
+3.
+Dla Twego Syna wszystko Bóg uczyni,
+Daruje plagi, choć człowiek zawini,
+Jak Cię cna Matko nie kochać serdecznie,
+Gdy się skryć można pod Twój płaszcz bezpiecznie.
+4.
+Ratuj nas, ratuj Matko ukochana,
+Zagniewanego, gdy zobaczysz Pana,
+Mieczem przebite pokazuj Mu serce,
+Gdy Syna na krzyż wbijali morderce.
+5.
+Dla tych boleści, któreś wycierpiała,
+Kiedyś pod krzyżem Syna Swego stała.
+Bóg nam daruje byśmy nie cierpieli,
+Cośmy wytrzymać za złość naszą mieli.</t>
+  </si>
+  <si>
+    <t>1.
+Twemu Sercu cześć składamy,
+O Jezu nasz, o Jezu;
+Twej litości przyzywamy,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie,
+Twemu Sercu, o mój Jezu.
+2.
+Serce to nam otworzone,
+O Jezu nasz, o Jezu;
+Włócznią na krzyżu zranione,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie…
+3.
+Gdy nas ciśnie utrapienie,
+O Jezu nasz, o Jezu;
+W Nim ucieczka, w Nim schronienie,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie…
+4.
+Więc do Niego się udajmy,
+O Jezu nasz, o Jezu;
+I ratunku tam szukajmy,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie…
+5.
+Nie odrzucaj nas od siebie,
+O Jezu nasz, o Jezu,
+Przyjm na ziemi, przyjmij w niebie,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie…
+6.
+Byśmy Twymi zawsze byli,
+O Jezu nasz, o Jezu;
+Twoje Serce wiecznie czcili,
+O Zbawicielu drogi.
+*
+Chwała niech będzie zawsze i wszędzie…</t>
+  </si>
+  <si>
+    <t>1.
+= U drzwi Twoich stoję, Panie, * = czekam na Twe zmiłowanie.
+2.
+= Który pod postacią chleba * = prawdziwy Bóg jesteś z nieba.
+3.
+= W tej Hostyi jest Bóg żywy, * = choć zakryty, lecz prawdziwy.
+4.
+= W tym Najświętszym Sakramencie * = z nieba stawa w tym momencie.
+5.
+= Jak wielki cud Bóg uczynił, * = gdy chleb w Ciało swe przemienił.
+6.
+= A nam pożywać zostawił, * = ażeby nas przez to zbawił.
+7.
+= Święty, Mocny, Nieśmiertelny, * = w majestacie swym niezmierny!
+8.
+= Aniołowie się lękają, * = gdy na Jego twarz patrzają.
+9.
+= Wszyscy niebiescy duchowie * = lękają się i królowie;
+10.
+= Niebo, ziemia ani morze * = pojąć, co jest Bóg, nie może.
+11.
+= Żaden z wojska anielskiego * = nie dostąpi nigdy tego.
+12.
+= Czego człowiek dostępuje, * = Ciało i Krew gdy przyjmuje.
+13.
+= Jam nie godzien, Panie, tego, * = abyś wszedł do serca mego;
+14.
+= Rzeknij tylko słowo swoje, * = a tym zbawisz duszę moją.
+15.
+= Kłaniam się Tobie samemu, * = bądź miłościw mnie grzesznemu.
+16.
+= Niechaj żyję z Tobą, Panem, * = aż na wieki wieków. Amen.</t>
+  </si>
+  <si>
+    <t>1.
+Usłysz Bożej Matki głos,
+która wzywa dzisiaj nas,
+Chce u Syna znów wyprosić
+cud przemiany serc.
+*
+Uczyńcie, co wam mówi Syn,
+Przyobleczcie wiarę w czyn,
+Niech się Słowo Boże stanie
+Ciałem w każdym z nas.
+2.
+Serce ludzkie dręczy głód,
+ciągle szuka, gdzie jest Bóg,
+Naucz, Matko, jak powtórzyć
+betlejemską noc.
+*
+Uczyńcie, co wam mówi Syn…
+3.
+Bóg ukochał w Synu świat,
+chce zamieszkać w każdym z nas,
+Naucz, Matko, jak zbudować
+Bogu w sercu dom.
+*
+Uczyńcie, co wam mówi Syn…</t>
+  </si>
+  <si>
+    <t>1.
+Upadnij na kolana
+Ludu czcią przejęty
+Uwielbiaj swego Pana
+Święty, święty, święty
+2.
+Zabrzmijcie z nami, nieba
+Bóg nasz niepojęty
+W postaci przyszedł chleba
+Święty, święty, święty
+3.
+Powtarzaj, ludzki rodzie
+Wiarą przeniknięty
+Na wschodzie i zachodzie
+Święty, święty, święty
+4.
+Pan wieczny zawsze, wszędzie
+Ku nam łaską zdjęty
+Niech wiecznie wielbion będzie
+Święty, święty, święty</t>
+  </si>
+  <si>
+    <t>Wielbię Ciebie w każdym momencie
+O, Żywy Chlebie nasz, w tym Sakramencie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Witaj, Pokarmie, w którym niezmierzony
+nieba i ziemi Twórca jest zamkniony,
+witaj, Napoju zupełnie gaszący
+umysł pragnący.
+2.
+Witaj, Krynico wszystkiego dobrego
+gdy bowiem w sobie masz Boga samego
+z Nim ludziom wszystkie Jego wszechmocności
+niesiesz godności.
+3.
+Witaj, z niebiosów Manno padająca,
+rozkoszny w sercu naszym smak czyniąca:
+wszystko na świecie co tylko smakuje,
+w tym się znajduje.
+4.
+Witaj, rozkoszne z ogrodu rajskiego
+Drzewo owocu pełne żywiącego:
+kto Cię skosztuje śmierci się nie boi,
+choć nad nim stoi. </t>
+  </si>
+  <si>
+    <t>1.
+Witaj, Święta i Poczęta Niepokalanie
+Maryja, śliczna lilija, nasze kochanie
+Witaj, czysta Panienko, najjaśniejsza Jutrzenko
+Witaj, Święta, Wniebowzięta, Niepokalana
+2.
+Swą pięknością, niewinnością w niebie górujesz
+w dostojeństwie i panieństwie wszystkim celujesz
+w pierwszym, Panno, momencie święte Twoje Poczęcie
+jaśniejące jako słońce, Niepokalana
+3.
+Sam Bóg Święty z Ciebie wzięty dla tej przyczyny
+żeś się stała i została zawsze bez winy
+Tyś przed wieki przejrzana i za Matkę wybrana
+Jezusowi Chrystusowi, Niepokalana
+4.
+My też sławiąc, błogosławiąc, Ciebie prosimy
+niech czystymi, niewinnymi zawsze będziemy
+Za to życie dajemy i mocno wyznajemy
+żeś jest Święta i poczęta, Niepokalana</t>
+  </si>
+  <si>
+    <t>1.
+Wszystko Tobie oddać pragnę
+I dla Ciebie tylko żyć
+Chcę Cię, Jezu, kochać wiernie
+Dzieckiem Twoim zawsze być
+*
+Serce moje weź
+Niech Twą śpiewa cześć
+Serce moje, duszę moją
+Panie Jezu weź
+2.
+Wszystko Tobie oddać pragnę
+Od najmłodszych moich lat
+Pomóż, Jezu, by mnie nie zwiódł
+Pokusami swymi świat
+*
+Serce moje weź...</t>
+  </si>
+  <si>
+    <t>1.
+Z dawna Polski Tyś Królową, Maryjo
+Ty za nami przemów słowo, Maryjo
+Ociemniałym podaj rękę
+niewytrwałym skracaj mękę
+Twe Królestwo weź pod rękę, Maryjo
+2.
+Gdyś pod krzyżem Syna stała, Maryjo
+Tyleś, Matko, wycierpiała, Maryjo
+Przez Twego Syna konanie
+uproś sercom zmartwychwstanie
+w ojców wierze daj wytrwanie, Maryjo
+3.
+Z dawna Polski Tyś Królową, Maryjo
+Ty za nami przemów słowo, Maryjo
+Miej w opiece naród cały
+który żyje dla Twej chwały
+niech rozwija się wspaniały, Maryjo</t>
+  </si>
+  <si>
+    <t>1.
+Za rękę weź mnie, Panie, i prowadź sam
+Aż dusza moja stanie u niebios bram
+Bez Ciebie ani kroku nie zrobię, nie
+Stań Ty u mego boku i prowadź mnie
+2.
+Do serca miłosiernie me serce tul
+By zniosło wszystkie ciernie, i krzyż i ból
+Niech dziecię Twe przybieży do Twoich nóg
+Niech w miłość Twą uwierzy, boś Ty mój Bóg</t>
+  </si>
+  <si>
+    <t>1.
+Zbliżam się w pokorze i niskości swej
+Wielbię Twój majestat, skryty w Hostii tej
+Tobie dziś w ofierze serce daję swe
+O utwierdzaj w wierze, Jezu, dzieci Twe
+2.
+Mylą się, o Boże, w Tobie wzrok i smak
+Kto się im poddaje, temu wiary brak
+Ja jedynie wierzyć Twej nauce chcę
+Że w postaci Chleba utaiłeś się
+3.
+Bóstwo swe na krzyżu skryłeś wobec nas
+Tu ukryte z Bóstwem Człowieczeństwo wraz
+Lecz w Oboje wierząc, wiem, że dojdę tam
+Gdzieś przygarnął łotra, do Twych niebios bram
+4.
+Jak niewierny Tomasz Twych nie szukam ran
+Lecz wyznaję z wiarą, żeś mój Bóg i Pan
+Pomóż wierze mojej, Jezu, łaską swą
+Ożyw mą nadzieję, rozpal miłość mą
+5.
+Ty, co jak Pelikan, Krwią swą karmisz lud
+Przywróć mi niewinność, oddal grzechów brud
+Oczyść mię Krwią swoją, która wszystkich nas
+Jedną kroplą może obmyć z win i zmaz
+6.
+Pod zasłoną teraz, Jezu, widzę Cię
+Niech pragnienie serca kiedyś spełni się
+Bym oblicze Twoje tam oglądać mógł
+Gdzie wybranym miejsce przygotował Bóg</t>
+  </si>
+  <si>
+    <t>1.
+Zdrowaś, Maryjo, Boga Rodzico
+Błagamy Ciebie, święta Dziewico
+Niech łaska Twoja zawsze nam sprzyja
+Módl się za nami, Zdrowaś Maryja
+2.
+Wśród czystych duchów, w obliczu Pana
+Tyś przenajświętsza, niepokalana
+Jak wpośród kwiatów wonna lilija
+Jak wśród gwiazd zorza, Zdrowaś Maryja
+3.
+Ty, coś karmiła świata Zbawienie
+Ty nam jak matka daj pożywienie
+Niech brak żywności nas nie zabija
+Broń nas od głodu, Zdrowaś Maryja
+4.
+Ty, coś płakała nad śmiercią Syna
+Przez te łzy gorzkie, Matko jedyna
+Oddal śmiertelność, co lud zabija
+Broń nas od moru, Zdrowaś Maryja 
+5.
+Ty, coś płomieni innych nie znała
+Tylko miłością Bożą pałała
+Spraw, niechaj pożar dom nasz omija
+Broń nas od ognia, Zdrowaś Maryja
+6.
+Ty w całym życiu łagodna, cicha
+Daj, niech pokojem kraj nasz oddycha
+Niech duch niezgody nas nie rozbija
+Broń nas od wojny, Zdrowaś Maryja
+7.
+Królowo nasza wśród Cherubinów
+Usłysz pokorny głos ziemi synów
+Co się do tronu Twojego wzbija
+Ratuj nas, Matko, Zdrowaś Maryja</t>
+  </si>
+  <si>
+    <t>1.
+Złącz, Panie, miłujących Cię
+Złącz w jedną drogę wiele dróg
+Wszak jedna miłość wiedzie nas
+A Bogiem wszystkich jeden Bóg
+2.
+Ze wszech stron świata dąży lud
+By ujrzeć Ojca twarzą w twarz
+Na górny Syjon, w Jego dom
+Wszak mieszkań wiele dla nas ma
+3.
+Bogu Zwycięzcy wieczny hołd
+Niech Panu wieków chwała brzmi
+Bo w naszych sercach Święty Duch
+Wieczyste Sanctus śpiewa Ci</t>
+  </si>
+  <si>
+    <t>1.
+Zróbcie Mu miejsce, Pan idzie z nieba
+Pod przymiotami ukryty chleba
+Zagrody nasze widzieć przychodzi
+I jak się Jego dzieciom powodzi
+2.
+Otocz Go wkoło, rzeszo wybrana
+Przed twoim Bogiem zginaj kolana
+Pieśń chwały Jego śpiewaj z weselem
+On twoim Ojcem, On przyjacielem
+3.
+Nie dosyć było to dla człowieka
+Że na ołtarzu co dzień Go czeka
+Sam ludu swego odwiedza ściany
+Bo pragnie bawić między ziemiany
+4.
+Zielem, kwiatami ścielcie Mu drogi
+Którędy Pańskie iść będą nogi
+I okrzyknijcie na wszystkie strony
+Pośród nas idzie błogosławiony</t>
+  </si>
+  <si>
+    <t>1.
+Archanioł Boży Gabryjel,
+posłan do Panny Maryi,
+z majestatu Trójcy Świętej,
+tak sprawował poselstwo k’Niej:
+„Zdrowaś Panno, łaski pełna,
+Pan jest z Tobą, to rzecz pewna”.
+2.
+Panna się wielce zdumiała
+z poselstwa, które słyszała.
+Pokorniuchno się skłoniła,
+jako Panna świątobliwa;
+zasmuciła się z tej mowy,
+Nic nie rzekła aniołowi.
+3.
+Ale poseł z wysokości,
+napełnion Boskiej mądrości,
+rzekł Jej: „Nie bój się Maryjo,
+najszczęśliwszaś, Panno miła;
+znalazłaś łaskę u Pana,
+oto poczniesz Jego Syna.
+4.
+Jezus nazwiesz imię Jego,
+będzie Synem Najwyższego;
+wielki z strony człowieczeństwa,
+a niezmierny z strony Bóstwa,
+wieczny Syn Ojca wiecznego,
+Zbawiciel świata całego”.
+5.
+Temuż Panna uwierzyła,
+przyzwalając tak mówiła:
+„O, pośle Boga wiecznego,
+gdy to wola Pana mego,
+toć ja służebnica Jego,
+stań się według słowa twego”.
+6.
+Bogu Ojcu Wszechmocnemu,
+Synowi Jego miłemu
+i Duchowi Najświętszemu,
+Bogu w Trójcy jedynemu
+dziękujmy w uniżoności
+za ten cud Jego miłości.</t>
+  </si>
+  <si>
+    <t>1.
+Błogosławiona jesteś, Maryjo
+i wywyższona przez Pana.
+On wielkich rzeczy w Tobie dokonał,
+Niepokalana.
+2.
+Ty, któraś Słowo z wiarą przyjęła,
+by w Tobie Ciałem się stało,
+zrodziłaś światu Jutrzenkę Nową,
+przedwieczną Światłość.
+3.
+Bądź nam obroną, Bogarodzico,
+gdy się błąkamy w ciemności.
+Do światła wiary prowadź na nowo,
+drogą świętości.</t>
+  </si>
+  <si>
+    <t>1.
+Czekam na Ciebie, Jezu mój mały,
+ciche błagania ku niebu ślę.
+Twojego przyjścia czeka świat cały,
+sercem gorącym przyzywa Cię.
+*
+Spójrz, tęskniony na tej ziemi,
+przybądź, Jezu, pociesz nas!
+Szczerze kochać Cię będziemy,
+przyjdź, o Jezu, bo już czas!
+2.
+Usłysz, Maryjo, głos Twoich dzieci,
+Tyś naszą Matką na każdy dzień.
+O, daj nam Słońce, które rozświeci
+grzechu i błędu straszliwy cień.
+*
+Spójrz, tęskniony na tej ziemi,
+daj nam Zbawcę, Dziecię Twe.
+My dla Niego żyć pragniemy,
+Jemu damy serca swe.</t>
+  </si>
+  <si>
+    <t>1.
+Józefie, stajenki nie szukaj
+I do gospody nie pukaj
+Z Maryją do nas przyjdź
+*
+Przynieście ze sobą dziecinę
+Jest miejsce w naszej rodzinie
+Dla Boga u nas zawsze otwarte drzwi=
+2.
+W tym mieście nie szukaj schronienia
+Nie znajdziesz tam wybawienia
+Z Maryją do nas przyjdź
+*
+Przynieście ze sobą dziecinę…
+3.
+Wprosimy do domu swojego
+Rodziny Syna Bożego
+On pokój światu da
+*
+Narodzi się w lichej stajence
+Na radość świętej Panience
+On zbawi ludzkość oraz cały ten świat=</t>
+  </si>
+  <si>
+    <t>1.
+*
+Niebiosa, rosę spuśćcie nam z góry
+Sprawiedliwego wylejcie chmury.
+**
+O, wstrzymaj, wstrzymaj, Twoje zagniewanie
+i grzechów naszych zapomnij już, Panie.
+2.
+*
+Niebiosa, rosę…
+**
+O, spojrzyj, spojrzyj na lud Twój znękany
+i ześlij Tego, co ma być zesłany.
+3.
+*
+Niebiosa, rosę…
+**
+Pociesz się, ludu, pociesz w twej niedoli,
+już się przybliża kres twojej niewoli.
+4.
+*
+Niebiosa, rosę…
+**
+Roztwórz się ziemio i z łona twojego
+wydaj nam, wydaj już Zbawcę naszego!</t>
+  </si>
+  <si>
+    <t>Oto Pan Bóg przyjdzie • Z rzeszą Świętych nam przybędzie
+Wielka światłość w dzień ów będzie • Alleluja, alleluja</t>
+  </si>
+  <si>
+    <t>1.
+Po upadku człowieka grzesznego
+użalił się Pan stworzenia swego. 
+Zesłał na świat archanioła cnego.
+2.
+Idź do Panny, imię Jej Maryja, 
+spraw poselstwo: „Zdrowaś, łaski pełna, 
+Pan jest z Tobą, nie bądźże troskliwa”.
+3.
+Panna natenczas psałterz czytała, 
+gdy pozdrowienie to usłyszała,
+na słowa się anielskie zdumiała.
+4.
+Archanioł, widząc Pannę troskliwą, 
+jął Ją cieszyć mową łagodliwą: 
+„Panno, nie lękaj się, Pan jest z Tobą.
+5.
+Znalazłaś łaskę u Pana swego, 
+Ty się masz stać Matką Syna Jego,
+ta jest wola Boga Wszechmocnego”.</t>
+  </si>
+  <si>
+    <t>1.
+„Spuśćcie nam na ziemskie niwy
+Zbawcę z niebios, obłoki”.
+Świat przez grzechy nieszczęśliwy
+wołał w nocy głębokiej;
+gdy wśród przekleństwa od Boga
+czart panował, śmierć i trwoga,
+a ciężkie przewinienia
+zamkły bramy zbawienia.
+2.
+Ale Ojciec się zlitował
+nad nędzną ludzi dolą,
+Syn się chętnie ofiarował,
+by spełnić wieczną wolę;
+zaraz Gabryjel zstępuje
+i Maryi to zwiastuje,
+iże z Ducha Świętego
+pocznie Syna Bożego.
+3.
+Panna przeczysta w pokorze
+wyrokom się poddaje,
+iszczą się wyroki Boże,
+Słowo Ciałem się staje.
+Ach! Ciesz się, Adama plemię,
+Zbawiciel zejdzie na ziemię;
+drżyj, piekło, On twe mocy
+w wiecznej pogrąży nocy.</t>
+  </si>
+  <si>
+    <t>1.
+Zdrowaś bądź Maryja,
+niebieska lilija,
+Panu Bogu miła,
+Matko litościwa:
+Tyś jest nasza ucieczka,
+Najświętsza Maryja.
+2.
+Maryja wielebna,
+ukaż drogę pewną
+przykazania Twego
+Boga Wszechmocnego,
+On ci wszystka nadzieja
+zbawienia naszego.
+3.
+Łaskiś pełna Pańskiej,
+czystości anielskiej,
+Pannaś nad pannami,
+Święta nad świętymi.
+O Najświętsza Maryja,
+módl się dziś za nami.
+4.
+Pełna wszech światłości,
+wielkiej pokorności,
+bez grzechuś poczęła,
+wielką sławę wzięła,
+przez Twoje narodzenie
+wziął świat pocieszenie.</t>
+  </si>
+  <si>
+    <t>1.
+Ach, ubogi żłobie, * cóż ja widzę w tobie?
+= Droższy widok niż ma niebo, * w maleńkiej osobie.
+2.
+Zbawicielu drogi, * takżeś to ubogi!
+= Opuściłeś śliczne niebo, * obrałeś barłogi.
+3.
+Czyżeś nie mógł sobie * w największej ozdobie
+= obrać pałacu drogiego, * nie w tym leżeć żłobie?
+4.
+Gdy na świat przybywasz, * grzechy z niego zmywasz.
+= A na zmycie naszych złości, * gorzkie łzy wylewasz.
+5.
+Na twarz upadamy, * czołem uderzamy,
+= witając Cię w tej stajence * między bydlętami.
+6.
+Zmiłuj się nad nami, * obmyj z grzechów łzami.
+= Przyjmij serca te skruszone, * które Ci składamy</t>
+  </si>
+  <si>
+    <t>1.
+Przybądźcie tu z wiarą i radością wielką,
+przybądźcie, przybądźcie do Betlejem
+Oto Dzieciątko z Bożą Rodzicielką!
+*
+Pokłońmy się Królowi,
+Królowi anielskiemu,
+dziś nam narodzonemu,
+pokłońmy się.
+2.
+Pasterze przybiegli, zostawiwszy trzody,
+pokornie przed żłóbkiem stanęli wraz
+Śpieszmy za nimi, pośpieszcie, narody!
+*
+Pokłońmy się Królowi…
+3.
+Blask wiecznej światłości Ojca przedwiecznego,
+w maleńkim Dzieciątku jawi się nam.
+Boga uczcijmy w żłobie złożonego!
+*
+Pokłońmy się Królowi…
+4.
+Bóg dla nas leżący na ubogim sianie
+tak słodko przemawia do naszych serc
+Widząc tę miłość, któż zimnym zostanie?
+*
+Pokłońmy się Królowi…</t>
+  </si>
+  <si>
+    <t>1.
+Anioł pasterzom mówił: * „Chrystus się wam narodził
+w Betlejem, nie bardzo sławnym mieście, * narodził się w ubóstwie * Pan wszego stworzenia”.
+2.
+Chcąc się dowiedzieć tego * poselstwa wesołego,
+bieżeli do Betlejem skwapliwie, * znaleźli Dziecię w żłobie, * Maryję z Józefem.
+3.
+Taki Pan chwały wielkiej * uniżył się Wysoki;
+pałacu kosztownego żadnego * nie miał zbudowanego, * Pan wszego stworzenia!
+4.
+O, dziwne narodzenie, * nigdy nie wysłowione:
+poczęła Panna Syna w czystości, * porodziła w całości * panieństwa swojego.</t>
+  </si>
+  <si>
+    <t>1.
+Bóg się rodzi, moc truchleje, * Pan niebiosów obnażony!
+Ogień krzepnie, blask ciemnieje, * ma granice nieskończony!
+Wzgardzony, okryty chwałą! * Śmiertelny, Król nad wiekami
+A Słowo Ciałem się stało i mieszkało między nami.
+2.
+Cóż masz, niebo, nad ziemiany? * Bóg porzucił szczęście twoje.
+Wszedł między lud ukochany, * dzieląc z nim trudy i znoje.
+Niemało cierpiał, niemało, * żeśmy byli winni sami.
+A Słowo Ciałem się stało i mieszkało między nami.
+3.
+W nędznej szopie urodzony, * żłób Mu za kolebkę dano.
+Cóż jest, czym był otoczony? * Bydło, pasterze i siano. 
+Ubodzy! Was to spotkało, * witać Go przed bogaczami.
+A Słowo Ciałem się stało i mieszkało między nami.
+4.
+Potem i króle widziani * cisną się między prostotą,
+niosąc dary Panu w dani: * mirrę, kadzidło i złoto.
+Bóstwo to razem zmieszało * z wieśniaczymi ofiarami
+A Słowo Ciałem się stało i mieszkało między nami
+5.
+Podnieś rękę, Boże Dziecię, * błogosław ojczyznę miłą!
+W dobrych radach, w dobrym bycie * wspieraj jej siłę swą siłą,
+dom nasz i majętność całą * i wszystkie wioski z miastami.
+A Słowo Ciałem się stało i mieszkało między nami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Bracia patrzcie jeno
+jak niebo goreje
+znać, że coś dziwnego
+w Betlejem się dzieje.
+Rzućmy budy, warty, stada,
+niechaj nimi Pan Bóg włąda.
+= A my do Betlejem.
+2.
+Patrzcie, jak tam gwiazda
+światłem swoim miga!
+Pewnie do uczczenia
+Pana swego ściga.
+Krokiem śmiałym i wesołym
+śpieszmy i uderzmy czołem;
+= przed Panem w Betlejem
+3.
+Wszakże powiedziałem,
+że cuda ujrzymy
+Dziecię, Boga świata,
+w żłobie zobaczymy.
+Patrzcie, jak biedne okryte,
+w żłobku Panię znakomite.
+= W szopie przy Betlejem </t>
+  </si>
+  <si>
+    <t>1.
+Cicha noc, święta noc! * Pokój niesie ludziom wszem,
+a u żłóbka Matka Święta * czuwa sama uśmiechnięta * nad Dzieciątka snem
+2.
+Cicha noc, święta noc, * pastuszkowie od swych trzód
+biegną wielce zadziwieni * za anielskich głosem pieni, * gdzie się spełnił cud
+3.
+Cicha noc, święta noc, * narodzony Boży Syn, 
+Pan Wielkiego Majestatu * niesie dziś całemu światu * odkupienie win</t>
+  </si>
+  <si>
+    <t>1.
+Do szopy, hej, pasterze, do szopy, bo tam cud.
+Syn Boży w żłobie leży, by zbawić ludzki ród.
+Śpiewajcie, aniołowie, pasterze grajcie Mu,
+kłaniajcie się królowie, nie budźcie Go ze snu.
+2.
+Padnijmy na kolana, to Dziecię to nasz Bóg.
+Witajmy swego Pana, wdzięczności złóżmy dług.
+*
+Śpiewajcie, aniołowie, pasterze grajcie Mu...
+3.
+O Boże niepojęty, kto pojmie miłość Twą?
+Na sianie wśród bydlęty masz tron i służbę swą.
+*
+Śpiewajcie, aniołowie, pasterze grajcie Mu...
+4.
+On Ojcu równy w Bóstwie opuszcza niebo swe,
+a rodzi się w ubóstwie i cierpi wszystko złe.
+*
+Śpiewajcie, aniołowie, pasterze grajcie Mu...</t>
+  </si>
+  <si>
+    <t>1.
+Dzisiaj w Betlejem, dzisiaj w Betlejem wesoła nowina,
+że Panna czysta, że Panna czysta porodziła Syna.
+*
+Chrystus się rodzi, nas oswobodzi,
+anieli grają, króle witają,
+pasterze śpiewają, bydlęta klękają,
+cuda, cuda ogłaszają.
+2.
+Maryja Panna, Maryja Panna Dzieciątko piastuje
+i Józef Święty, i Józef Święty Ono pielęgnuje.
+*
+Chrystus się rodzi, nas oswobodzi...
+3.
+Choć w stajeneczce, choć w stajeneczce Panna Syna rodzi,
+przecież On wkrótce, przecież On wkrótce ludzi oswobodzi.
+*
+Chrystus się rodzi, nas oswobodzi...
+4.
+I Trzej Królowie, i Trzej Królowie od wschodu przybyli
+i dary Panu, i dary Panu kosztowne złożyli.
+*
+Chrystus się rodzi, nas oswobodzi...</t>
+  </si>
+  <si>
+    <t>1.
+Gdy się Chrystus rodzi i na świat przychodzi,
+ciemna noc w jasności promienistej brodzi.
+Aniołowie się radują, pod niebiosy wyśpiewują:
+„Gloria, gloria, gloria in excelsis Deo!”.
+2.
+Mówią do pasterzy, którzy trzód swych strzegli,
+aby do Betlejem czym prędzej pobiegli,
+bo się narodził Zbawiciel, * wszego świata Odkupiciel. 
+„Gloria, gloria, gloria in excelsis Deo!”.
+3.
+„O niebieskie Duchy i posłowie nieba,
+powiedzcież wyraźniej, co nam czynić trzeba;
+bo my nic nie pojmujemy, * ledwo od strachu żyjemy”.
+„Gloria, gloria, gloria in excelsis Deo!”</t>
+  </si>
+  <si>
+    <t>1.
+Gdy śliczna panna syna kołysała, * z wielkim weselem tak jemu śpiewała
+Lili lili laj, moje Dzieciąteczko * lili lili laj, śliczne Paniąteczko
+2.
+Wszystko stworzenie, śpiewaj Panu swemu, * pomóż w radości wielkiej sercu memu.
+Lili lili laj, wielki królewiczu, * Lili lili laj, niebieski dziedzicu.
+3.
+Sypcie z nieba liczni aniołowie, * śpiewajcie Panu niebiescy duchowie.
+Lili lili laj, mój wonny kwiateczku, * Lili lili laj, w ubogim żłobeczku.</t>
+  </si>
+  <si>
+    <t>1.
+Gore gwiazda Jezusowi w obłoku, w obłoku
+Józef z Marią asystują przy boku, przy boku
+*
+Hejże ino dyna, dyna,
+narodził się Bóg dziecina
+W Betlejem, w Betlejem=
+2.
+Wół i osioł w parze służą przy żłobie, przy żłobie
+Huczą, buczą delikatnej osobie, osobie
+*
+Hejże ino…
+3.
+Pastuszkowie z podarunki przybiegli, przybiegli
+W koło szopę o północy oblegli, oblegli
+*
+Hejże ino…
+4.
+Anioł Pański sam ogłosił te dziwy, te dziwy
+Których oni nie słyszeli jak żywi, jak żywi
+*
+Hejże ino…</t>
+  </si>
+  <si>
+    <t>1.
+Jezus malusieńki leży wśród stajenki
+= Płacze z zimna nie dała mu matula sukienki.
+2.
+Bo uboga była, rąbek z głowy zdjęła,
+= w który Dziecię owinąwszy, siankiem Je okryła
+3.
+Nie ma kolebeczki, ani poduszeczki,
+= We żłobie Mu położyła siana pod główeczki.</t>
+  </si>
+  <si>
+    <t>1.
+Lulajże, Jezuniu, moja perełko
+Lulaj, ulubione me pieścidełko
+*
+Lulajże, Jezuniu, lulajże, lulaj
+A ty Go, Matulu, w płaczu utulaj
+2.
+Zamknijże znużone płaczem powieczki
+Utulże zemdlone łkaniem usteczki
+*
+Lulajże, Jezuniu…
+3.
+Lulajże, piękniuchny nasz aniołeczku
+Lulajże, wdzięczniuchny świata kwiateczku
+*
+Lulajże, Jezuniu…
+4.
+Lulajże, różyczko najozdobniejsza
+Lulajże, lilijko najprzyjemniejsza
+*
+Lulajże, Jezuniu…</t>
+  </si>
+  <si>
+    <t>1.
+Mędrcy świata, monarchowie, * gdzie śpiesznie dążycie?
+Powiedzcież nam Trzej Królowie, * chcecie widzieć Dziecię?
+Ono w żłobie nie ma tronu, * i berła nie dzierży,
+a proroctwo jego zgonu, * już się w świecie szerzy.
+2.
+Mędrcy świata, złość okrutna, * Dziecię prześladuje,
+wieść okropna, wieść to smutna, * Herod spiski knuje.
+Nic monarchów nie odstrasza, * do Betlejem spieszą,
+gwiazda zbawcę im ogłasza, * nadzieją się cieszą.
+3.
+Przed Maryją stoją społem, * Niosą Panu dary.
+Przed Jezusem biją czołem, * składają ofiary.
+Trzykroć szczęśliwi królowie, * Któż wam nie zazdrości?
+Cóż my damy, kto nam powie, * pałając z miłości.</t>
+  </si>
+  <si>
+    <t>1.
+Mizerna, cicha, stajenka licha, * Pełna niebieskiej chwały.
+= Oto leżący, przed nami śpiący * W promieniach Jezus mały.
+2.
+Nad nim anieli w locie stanęli * I pochyleni klęczą
+= Z włosy złotymi, z skrzydła białymi, * Pod malowaną tęczą.
+3.
+Wielkie zdziwienie: wszelkie stworzenie * Cały świat orzeźwiony;
+= Mądrość Mądrości, Światłość Światłości, * Bóg - człowiek tu wcielony!</t>
+  </si>
+  <si>
+    <t>1.
+Nie było miejsca dla Ciebie • W Betlejem w żadnej gospodzie
+I narodziłeś się, Jezu • W stajni, w ubóstwie i chłodzie
+Nie było miejsca, choć zszedłeś • Jako Zbawiciel na ziemię
+By wyrwać z czarta niewoli • Nieszczęsne Adama plemię
+2.
+Nie było miejsca, choć chciałeś • Ludzkość przytulić do łona
+I podać z krzyża grzesznikom • Zbawcze, skrwawione ramiona
+Nie było miejsca, choć zszedłeś • Ogień miłości zapalić
+I przez swą mękę najdroższą • Świat od zagłady ocalić
+3.
+Gdy liszki mają swe jamy • I ptaszki swoje gniazdeczka
+Dla ciebie brakło gospody • Tyś musiał szukać żłóbeczka
+A dzisiaj czemu wśród ludzi • Tyle łez, jęków, katuszy
+Bo nie ma miejsca dla Ciebie • W niejednej człowieczej duszy</t>
+  </si>
+  <si>
+    <t>1.
+Nowy rok bieży, w jasełkach leży: a kto, kto?
+=Dzieciątko małe, dajcie Mu chwałę na ziemi.
+2.
+Leży Dzieciątko jako jagniątko, a gdzie, gdzie?
+=W Betlejem mieście, tam się pośpieszcie, znajdziecie.
+3.
+Jak Go poznamy, gdy Go nie znamy, Jezusa?
+=Biednie uwity, nie w aksamity, ubogo.
+4.
+Anieli grają, wdzięcznie śpiewają: A co, co?
+=Niech chwała będzie zawsze i wszędzie Dzieciątku.
+5.
+Królowie jadą z wielką gromadą, a skąd, skąd?
+=Od wschodu słońca, szukają końca Zbawienia.</t>
+  </si>
+  <si>
+    <t>1.
+O gwiazdo betlejemska, zaświeć na niebie mym
+Tak szukam Cię wśród nocy, tęsknię za światłem Twym
+Zaprowadź do stajenki, leży tam Boży Syn
+Bóg Człowiek z Panny Świętej, dany na okup win
+2.
+O nie masz Go już w szopce, nie masz Go w żłóbku tam
+Więc gdzie pójdziemy, Chryste? Gdzie się ukryłeś nam?
+Pójdziemy przed ołtarze, wzniecić miłości żar
+I hołd Ci niski oddać, to jest nasz wszystek dar
+3.
+Ja nie wiem, o mój Panie, któryś miał w żłobie tron
+Czy dusza moja biedna milsza Ci jest niż on
+Ulituj się nade mną, błagać Cię kornie śmiem
+Gdyś stajnią nie pogardził, nie gardź i sercem mym</t>
+  </si>
+  <si>
+    <t>1.
+Pójdźmy wszyscy do stajenki, * do Jezusa i Panienki!
+=Powitajmy Maleńkiego * i Maryję Matkę Jego.
+2.
+Witaj, Jezu ukochany, * od patriarchów czekany, 
+=od proroków ogłoszony, * od narodów upragniony.
+3.
+Witaj, Dzieciąteczko w żłobie, * wyznajemy Boga w Tobie. 
+=Coś się narodził tej nocy, * byś nas wyrwał z czarta mocy.
+4.
+Witaj, Jezu nam zjawiony; * witaj, dwakroć narodzony, 
+=raz z Ojca przed wieków wiekiem, * a teraz z Matki człowiekiem.</t>
+  </si>
+  <si>
+    <t>1.
+Przybieżeli do Betlejem pasterze, * grając skocznie Dzieciąteczku na lirze.
+*
+Chwała na wysokości, chwała na wysokości, * a pokój na ziemi!
+2.
+Oddawali swe ukłony w pokorze * Tobie z serca ochotnego, o Boże!
+*
+Chwała na wysokości…
+3.
+Anioł Pański sam ogłosił te dziwy, * których oni nie słyszeli, jak żywi.
+*
+Chwała na wysokości…
+4.
+I anieli gromadami pilnują, * Panna czysta wraz z Józefem piastują.
+*
+Chwała na wysokości…
+5.
+Poznali Go Mesyjaszem być prawym, * narodzonym dzisiaj Panem łaskawym.
+*
+Chwała na wysokości…
+6.
+My Go także Bogiem, Zbawcą już znamy * i z całego serca wszyscy kochamy.
+*
+Chwała na wysokości…</t>
+  </si>
+  <si>
+    <t>1.
+Tryumfy Króla Niebieskiego * zstąpiły z nieba wysokiego.
+Pobudziły pasterzów, * dobytku swego stróżów, * śpiewaniem, śpiewaniem, śpiewaniem.
+2.
+Chwała bądź Bogu w wysokości, * a ludziom pokój na niskości.
+Narodził się Zbawiciel, * dusz ludzkich Odkupiciel * na ziemi, na ziemi, na ziemi.
+3.
+Zrodziła Maryja Dziewica, * wiecznego Boga bez rodzica,
+by nas z piekła wybawił, * a w niebieskich postawił * pałacach, pałacach, pałacach.</t>
+  </si>
+  <si>
+    <t>1.
+W dzień Bożego Narodzenia * Radość wszelkiego stworzenia
+Aniołowie się radują, * Jezusowi wyśpiewują
+2.
+Niesłychana to nowina * Panna porodziła Syna
+Syna Jednorodzonego * Boga Ojca Niebieskiego
+3.
+To anieli oznajmują * Do Betlejem pokazują 
+Gdzie narodził się Zbawiciel * Wszego świata Odkupiciel</t>
+  </si>
+  <si>
+    <t>1.
+W żłobie leży, któż pobieży * kolędować Małemu,
+Jezusowi Chrystusowi, * dziś nam narodzonemu?
+Pastuszkowie, przybywajcie, * Jemu wdzięcznie przygrywajcie,
+jako Panu naszemu.
+2.
+My zaś sami z piosneczkami * za wami pośpieszymy.
+A tak Tego Maleńkiego * niech wszyscy zobaczymy.
+Jak ubogo narodzony, * płacze w stajni położony,
+więc Go dziś ucieszymy.
+3.
+Naprzód tedy niechaj wszędy * zabrzmi świat w wesołości,
+że posłany nam jest dany * Emmanuel w niskości
+Jego tedy przywitajmy, * z aniołami zaśpiewajmy:
+„Chwała na wysokości”.</t>
+  </si>
+  <si>
+    <t>1.
+Wesołą nowinę, bracia słuchajcie, * niebieską Dziecinę ze mną witajcie.
+*
+Jak miła ta nowina! * Mów, gdzie jest ta Dziecina? * Byśmy tam pobieżeli i ujrzeli.
+*
+2.
+Bogu chwałę wznoszą na wysokości, * pokój ludziom głoszą duchy światłości.
+*
+Jak miła ta nowina…
+3.
+Panna nam powiła Boskie Dzieciątko, * pokłonem uczciła to Niemowlątko.
+*
+Jak miła ta nowina…</t>
+  </si>
+  <si>
+    <t>1.
+Wśród nocnej ciszy głos się rozchodzi: * „Wstańcie pasterze, Bóg się wam rodzi. 
+Czym prędzej się wybierajcie, * do Betlejem pośpieszajcie * przywitać Pana”.
+2.
+Poszli, znaleźli Dzieciątko w żłobie * z wszystkimi znaki, danymi sobie. 
+Jako Bogu cześć Mu dali, * a witając zawołali * z wielkiej radości:
+3.
+„Ach witaj, Zbawco z dawna żądany, * tyle tysięcy lat wyglądany! 
+Na Ciebie króle, prorocy * czekali, a Tyś tej nocy * nam się objawił”.
+4.
+I my czekamy na Ciebie, Pana, * a skoro przyjdziesz na głos kapłana, 
+padniemy na twarz przed Tobą, * wierząc, żeś jest pod osłoną * chleba i wina.</t>
+  </si>
+  <si>
+    <t>1.
+Z narodzenia Pana dzień dziś wesoły. * Wyśpiewują chwałę Bogu żywioły
+Radość ludzi wszędzie słynie. * Anioł budzi przy dolinie * pasterzy, co paśli pod borem woły.
+2.
+Wypada wśród nocy ogień z obłoku. * Dumają pasterze w takim widoku.
+Każdy pyta: „Co się dzieje? * Czy nie świta? Czy nie dnieje? * Skąd ta łuna bije, tak miła oku?”.
+3.
+Ale gdy anielskie głosy słyszeli, * zaraz do Betlejem prosto bieżeli.
+Tam witali w żłobie Pana, * poklękali na kolana * i oddali dary, co z sobą wzięli.</t>
+  </si>
+  <si>
+    <t>1.
+Ach, mój Jezu, jak Ty klęczysz, * w Ogrojcu zakrwawiony!
+Tam Cię anioł w smutku cieszył, * skąd był świat pocieszony.
+*
+Przyjdź, mój Jezu, przyjdź, mój Jezu, * przyjdź, mój Jezu, pociesz mnie,
+bo Cię kocham serdecznie.
+2.
+Ach, mój Jezu, jakeś srodze * do słupa przywiązany,
+za tak ciężkie grzechy nasze * okrutnie biczowany.
+*
+Przyjdź, mój Jezu…
+3.
+Ach, mój Jezu, co za boleść * cierpisz w ostrej koronie,
+twarz najświętsza zakrwawiona, * głowa wszystka w krwi tonie.
+*
+Przyjdź, mój Jezu…
+4.
+Ach, mój Jezu, gdy wychodzisz * na Górę Kalwaryjską,
+trzykroć pod ciężarem krzyża * upadasz bardzo ciężko.
+*
+Przyjdź, mój Jezu…</t>
+  </si>
+  <si>
+    <t>1.
+Dobranoc, Głowo święta Jezusa mojego
+Która była zraniona do mózgu samego
+*
+Dobranoc, kwiecie różany,
+dobranoc, Jezu kochany, dobranoc
+Dobranoc, śliczna lilija,
+Jezus, Józef i Maryja, dobranoc
+2.
+Dobranoc, włosy święte, mocno potargane
+Które były najświętszą Krwią zafarbowane
+*
+Dobranoc, kwiecie różany…</t>
+  </si>
+  <si>
+    <t>1.
+Golgoto, Golgoto, Golgoto.
+W tej ciszy przebywam wciąż rad,
+W tej ciszy daleki jest świat.
+Ty koisz mój ból, usuwasz mój strach,
+Gdy widzę Cię Zbawco przez łzy.
+*
+To nie gwoździe Cię przybiły, lecz mój grzech.
+To nie ludzie Cię skrzywdzili, lecz mój grzech.
+To nie gwoździe Cię trzymały, lecz mój grzech.
+Choć tak dawno to się stało, widziałeś mnie.
+2.
+Golgoto, Golgoto, Golgoto
+Ja widzę Cię, Zbawco mój, tam,
+Tak wiele masz sińców i ran.
+Miłości Twej moc zawiodła Cię tam,
+Uwolnić mnie z grzechów i win
+*
+To nie gwoździe Cię przybiły, lecz mój grzech…
+3.
+Golgoto, Golgoto, Golgoto
+Tak często wspominam ten dzień,
+Golgotę i słodki jej cień,
+Gdy przyszłem pod krzyż z ciężarem mych win,
+Uwolnił mnie tam Boży Syn.
+*
+To nie gwoździe Cię przybiły, lecz mój grzech…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+Jezu Chryste, Panie miły
+Baranku bardzo cierpliwy!
+Wzniosłeś na krzyż ręce swoje,
+Gładząc nieprawości moje. [za niesprawiedliwość moją]
+2.
+Płacz Go, człowiecze mizerny,
+Patrząc jak jest miłosierny;
+Jezus, na krzyżu umiera,
+Słońce jasność swą zawiera.
+3.
+Pan wyrzekł ostatnie słowa,
+Zwisła Mu na piersi głowa;
+Matka, pod Nim frasobliwa,
+Stoi z żalu ledwie żywa.
+4.
+Zasłona się potargała,
+Ziemia rwie się, ryczy skała;
+Setnik woła: Syn to Boży!
+Tłuszcza wierząc w proch się korzy </t>
+  </si>
+  <si>
+    <t>1.
+Krzyżu święty nade wszystko
+Drzewo przenajszlachetniejsze
+W żadnym lesie takie nie jest
+Jedno na którym sam Bóg jest
+Słodkie drzewo słodkie gwoździe
+Rozkoszny owoc nosiło
+2.
+Skłoń gałązki drzewo święte
+Ulżyj członkom tak rozpiętym
+Odmień teraz oną srogość
+Którąś miało z urodzenia
+Spuść lekuchno i cichuchno
+Ciało Króla niebieskiego
+3.
+Tyś samo było dostojne
+Nosić światowe Zbawienie
+Przez Cię przewóz jest naprawion
+Światu który był zagubion
+Który święta Krew polała
+Co z Baranka wypływała
+4.
+W jasełkach leżąc gdy płakał
+Już tam był wszystko oglądał
+Iż tak haniebnie umrzeć miał
+Gdy wszystek świat odkupić chciał
+W on czas między zwierzętami
+A teraz między łotrami</t>
+  </si>
+  <si>
+    <t>1.
+*
+Ludu, mój ludu, cóżem ci uczynił?
+W czymem zasmucił, albo w czym zawinił?
+**
+Jam cię wyzwolił z mocy faraona,
+a tyś przyrządził krzyż na me ramiona.
+2.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam cię wprowadził w kraj miodem płynący,
+tyś Mi zgotował śmierci znak hańbiący.
+3.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam ciebie szczepił, winnico wybrana,
+a tyś Mnie octem poił, swego Pana.
+4.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam dla cię spuszczał na Egipt karanie,
+a tyś Mnie wydał na ubiczowanie.
+5.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam faraona dał w odmęt bałwanów
+a tyś Mnie wydał książętom kapłanów.
+6.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Morzem otworzył, byś szedł suchą nogą
+a tyś Mi włócznią bok otworzył srogą.
+7.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam ci był wodzem w kolumnie obłoku,
+tyś Mnie wiódł słuchać Piłata wyroku.
+8.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam ciebie karmił manny rozkoszami
+tyś Mi odpłacił policzkowaniami.
+9.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam ci ze skały dobył wodę zdrową,
+a tyś Mnie poił goryczą żółciową.
+10.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam dał, że zbici Chanaan królowie,
+a ty zaś trzciną biłeś Mnie po głowie.
+11.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam ci dał berło Judzie powierzone,
+a tyś Mi wtłoczył cierniową koronę.
+12.
+*
+Ludu, mój ludu, cóżem ci uczynił?...
+**
+Jam cię wywyższył między narodami,
+tyś Mnie na krzyżu podwyższył z łotrami</t>
+  </si>
+  <si>
+    <t>1.
+O Krwi najdroższa, o Krwi odkupienia
+Napoju życia z nieba dla nas dany
+O zdroju łaski, o ceno zbawienia
+Ty grzechowe leczysz rany
+2.
+Tyś w Jezusowym kielichu zamknięta
+Abyś nas wszystkich życiem napawała
+Abyś dla świata, Krwi Boska prześwięta
+Miłosierdzie wybłagała
+3.
+O Krwi najdroższa, przez serce przeczyste
+Gdzie Twoje źródło miałaś na tej ziemi
+Cześć Tobie niesiem, dzięki wiekuiste
+Z aniołami, ze świętymi</t>
+  </si>
+  <si>
+    <t>1.
+Ogrodzie Oliwny, widok w tobie dziwny!
+Widzę Pana mego, na twarz upadłego.
+Tęskoność, smutek, strach Go ściska!
+Krwawy pot z Niego wyciska.
+Ach, Jezu mdlejący, prawieś konający!
+2.
+Kielich gorzkiej męki z Ojca Twego Ręki.
+Ochotnie przyjmujesz, za nas ofiarujesz.
+Anioł Ci się z nieba zjawia,
+O męce z Tobą rozprawia,
+Ach, Jezu strwożony, przed męką zmęczony!
+3.
+Uczniowie posnęli, Ciebie zapomnieli,
+Judasz zbrojne roty stawia przede wroty.
+I wnet do Ogrójca wpada
+z wodzem swych zbirów gromada.
+Ach, Jezu kochany, przez ucznia sprzedany!
+4.
+Chociaż ze swym ludem obalony cudem,
+Judasz z ziemi wstaje: "Jezusa wydaję".
+Dopiero się nań rzucają,
+Więzy, łańcuchy wkładają.
+Ach, Jezu pojmany, za złoczyńcę miany!</t>
+  </si>
+  <si>
+    <t>1.
+Posypmy głowy popiołem, * uderzmy przed Panem czołem;
+zapustne śmiechy na stronę, * cierniową wijmy koronę.
+2.
+Posypmy głowy popiołem, * grzmi niebo głosem surowym:
+„Pokutę czyńcie za grzechy, * na stronę teraz uciechy”.
+3.
+Posypmy głowy popiołem, * otoczmy Pana pospołem,
+bo Pański sąd sprawiedliwy, * a dla grzesznika straszliwy.
+4.
+Posypmy głowy popiołem, * już Zbawca cierpieć gotowy
+ponosić męki katusze, * by nasze odkupić dusze.
+5.
+Posypmy głowy popiołem, * o śmierci myślmy pospołem;
+nim głosu Twego wezwanie * na sąd Twój stawi nas, Panie.
+6.
+Posypmy głowy popiołem, * z Chrystusem nieśmy krzyż społem,
+abyśmy z nim zmartwychwstali * i hymn Mu chwały śpiewali.</t>
+  </si>
+  <si>
+    <t>1.
+Rozmyślajmy dziś, wierni chrześcijanie, * jako Pan Chrystus za nas cierpiał rany;
+od pojmania nie miał odpocznienia, * aż do skonania.
+2.
+Naprzód w Ogrojcu wziął pocałowanie, * tam Judasz zdrajca dał był katom znamię:
+oto patrzajcie, mego Mistrza macie, * Tego imajcie.
+3.
+Wnet się rzucili jako lwy zaciekli, * apostołowie od Niego uciekli;
+On zaś był śpiesznie wiedzion do Annasza, * pociecha nasza.
+4.
+Przed sąd Piłata gdy był postawiony, * niesprawiedliwie został oskarżony;
+rozkazał Piłat, by był biczowany * ten Pan nad pany.
+5.
+Koronę z ciernia żołnierze uwili, * naszemu Panu na głowę wtłoczyli; 
+naśmiewając się przed Nim przyklękali, * królem Go zwali.
+6.
+Krzyknęła potem tłuszcza zbuntowana: * „Nie chcemy Tego za swego mieć pana;
+niechaj na krzyżu swój żywot położy * ten to Syn Boży!”.
+7.
+Krzyż niosąc, na śmierć szedł nieustraszenie, * oprawcy niecni zwlekli zeń odzienie;
+do krzyża Zbawcę okrutnie przybili, * octem poili.
+8.
+Z wołaniem głośnym po tak srogiej męce * skonał, oddając ducha w Ojca ręce; 
+zagasło słońce, strach ludzi oniemia, * trzęsła się ziemia.
+9.
+…</t>
+  </si>
+  <si>
+    <t>1.
+W krzyżu cierpienie, w krzyżu zbawienie, * w krzyżu miłości nauka.
+Kto Ciebie, Boże, raz pojąć może, * ten nic nie pragnie, ni szuka.
+2.
+W krzyżu osłoda, w krzyżu ochłoda * dla duszy smutkiem zmroczonej.
+Kto krzyż odgadnie, ten nie upadnie * w boleści sercu zadanej.
+3.
+Kiedy cierpienie, kiedy zwątpienie * serce ci na wskroś przepali
+gdy grom się zbliża, pośpiesz do krzyża, * On ciebie wesprze, ocali.
+4.
+Gdy cię skrzywdzono albo zraniono, * lub serce czyjeś zawiodło,
+o, nie rozpaczaj, módl się, przebaczaj, * krzyż niech ci stanie za godło.</t>
+  </si>
+  <si>
+    <t>1.
+Wisi na krzyżu Pan, Stwórca nieba
+płakać za grzechy, człowiecze, potrzeba
+ach, ach, na krzyżu umiera
+Jezus oczy swe zawiera!
+2.
+Najświętsze członki i wszystko ciało
+okrutnie zbite na krzyżu wisiało
+Ach, ach, dla ciebie, człowiecze
+z boku krew Jezusa ciecze!
+3.
+Ostrą koroną skronie zranione
+język zapiekły i usta spragnione
+Ach, ach, dla mojej swawoli
+Jezus umiera i boli!
+4.
+Woła i kona, łzy z oczu leje
+pod krzyżem Matka Bolesna truchleje
+Ach, ach, sprośne złości moje
+sprawiły te niepokoje!</t>
+  </si>
+  <si>
+    <t>1.
+Wjeżdża Król nasz, Jezus cichy, do Jerozolimy, 
+hołd Mu składa lud pobożny, Jego lud rodzimy.
+*
+Hosanna, hosanna Synowi Bożemu! 
+Hosanna, hosanna, cześć Zbawcy naszemu!
+2.
+Brzmi: „Hosanna, witaj, Zbawco, wnijdź błogosławiony,
+w imię Pańskie wchodzisz do nas”, brzmi na wszystkie strony.
+*
+Hosanna, hosanna Synowi Bożemu…
+3.
+Bądźże tedy pozdrowiony, Boże nasz i Panie
+przyjmij od nas modły, hołdy, pobożne śpiewanie.
+*
+Hosanna, hosanna Synowi Bożemu…
+4.
+Przyjmij od nas za Twą mękę korne dziękczynienie
+chwała Ci po wszystkie czasy, miłość, uwielbienie.
+*
+Hosanna, hosanna Synowi Bożemu…</t>
   </si>
 </sst>
 </file>
@@ -9327,16 +13572,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomRight" activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9345,8 +13590,8 @@
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="50.88671875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9372,7 +13617,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -9414,8 +13659,11 @@
       <c r="F3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -9434,8 +13682,11 @@
       <c r="F4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -9454,8 +13705,11 @@
       <c r="F5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -9475,7 +13729,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -9494,8 +13748,11 @@
       <c r="F7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -9514,8 +13771,11 @@
       <c r="F8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -9534,8 +13794,11 @@
       <c r="F9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -9554,8 +13817,11 @@
       <c r="F10" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -9574,8 +13840,11 @@
       <c r="F11" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -9594,8 +13863,11 @@
       <c r="F12" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -9614,8 +13886,11 @@
       <c r="F13" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -9638,7 +13913,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -9657,8 +13932,11 @@
       <c r="F15" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -9677,8 +13955,11 @@
       <c r="F16" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9697,8 +13978,11 @@
       <c r="F17" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -9717,8 +14001,11 @@
       <c r="F18" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -9737,8 +14024,11 @@
       <c r="F19" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -9757,8 +14047,11 @@
       <c r="F20" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -9777,8 +14070,11 @@
       <c r="F21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -9797,8 +14093,11 @@
       <c r="F22" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -9817,8 +14116,11 @@
       <c r="F23" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -9837,8 +14139,11 @@
       <c r="F24" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -9857,8 +14162,11 @@
       <c r="F25" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9881,7 +14189,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -9900,8 +14208,11 @@
       <c r="F27" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -9920,8 +14231,11 @@
       <c r="F28" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -9940,8 +14254,11 @@
       <c r="F29" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -9960,8 +14277,11 @@
       <c r="F30" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -9980,8 +14300,11 @@
       <c r="F31" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -10000,8 +14323,11 @@
       <c r="F32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -10020,8 +14346,11 @@
       <c r="F33" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -10040,28 +14369,28 @@
       <c r="F34" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>323</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35" t="s">
         <v>179</v>
       </c>
       <c r="F35" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -10080,8 +14409,11 @@
       <c r="F36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -10100,8 +14432,11 @@
       <c r="F37" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -10118,10 +14453,13 @@
         <v>177</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -10129,19 +14467,19 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -10158,10 +14496,13 @@
         <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -10180,8 +14521,11 @@
       <c r="F41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -10204,7 +14548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -10223,8 +14567,11 @@
       <c r="F43" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -10241,10 +14588,13 @@
         <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -10261,12 +14611,15 @@
         <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -10278,13 +14631,13 @@
         <v>174</v>
       </c>
       <c r="F46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -10303,8 +14656,11 @@
       <c r="F47" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -10323,8 +14679,11 @@
       <c r="F48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -10343,8 +14702,11 @@
       <c r="F49" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -10354,22 +14716,22 @@
       <c r="C50" t="s">
         <v>292</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
       <c r="E50" t="s">
         <v>174</v>
       </c>
       <c r="F50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>293</v>
@@ -10381,10 +14743,13 @@
         <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -10403,8 +14768,11 @@
       <c r="F52" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -10423,8 +14791,11 @@
       <c r="F53" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -10443,8 +14814,11 @@
       <c r="F54" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -10463,8 +14837,11 @@
       <c r="F55" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -10484,7 +14861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -10501,10 +14878,13 @@
         <v>173</v>
       </c>
       <c r="F57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -10523,8 +14903,11 @@
       <c r="F58" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -10543,8 +14926,11 @@
       <c r="F59" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -10561,10 +14947,13 @@
         <v>175</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -10583,8 +14972,11 @@
       <c r="F61" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -10601,10 +14993,13 @@
         <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -10623,8 +15018,11 @@
       <c r="F63" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -10643,8 +15041,11 @@
       <c r="F64" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -10664,7 +15065,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -10681,10 +15082,13 @@
         <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -10703,8 +15107,11 @@
       <c r="F67" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -10723,8 +15130,11 @@
       <c r="F68" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -10743,8 +15153,11 @@
       <c r="F69" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -10761,10 +15174,13 @@
         <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -10783,8 +15199,11 @@
       <c r="F71" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -10803,8 +15222,11 @@
       <c r="F72" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -10823,8 +15245,11 @@
       <c r="F73" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -10841,10 +15266,13 @@
         <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -10863,8 +15291,11 @@
       <c r="F75" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -10883,8 +15314,11 @@
       <c r="F76" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -10901,10 +15335,13 @@
         <v>171</v>
       </c>
       <c r="F77" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -10923,8 +15360,11 @@
       <c r="F78" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -10943,8 +15383,11 @@
       <c r="F79" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -10963,8 +15406,11 @@
       <c r="F80" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -10983,8 +15429,11 @@
       <c r="F81" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -11001,10 +15450,13 @@
         <v>179</v>
       </c>
       <c r="F82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -11021,10 +15473,13 @@
         <v>173</v>
       </c>
       <c r="F83" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -11043,8 +15498,11 @@
       <c r="F84" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -11063,8 +15521,11 @@
       <c r="F85" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -11083,8 +15544,11 @@
       <c r="F86" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -11103,8 +15567,11 @@
       <c r="F87" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -11121,10 +15588,13 @@
         <v>176</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -11143,8 +15613,11 @@
       <c r="F89" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -11161,10 +15634,13 @@
         <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -11182,6 +15658,9 @@
       </c>
       <c r="F91" t="s">
         <v>347</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11203,8 +15682,11 @@
       <c r="F92" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -11223,8 +15705,11 @@
       <c r="F93" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -11244,275 +15729,311 @@
         <v>347</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D95">
-        <v>1290</v>
+        <v>539</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D96">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D97">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D98">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E98" t="s">
         <v>179</v>
       </c>
       <c r="F98" t="s">
+        <v>347</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99">
+        <v>580</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" t="s">
+        <v>335</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100">
+        <v>594</v>
+      </c>
+      <c r="E100" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99">
-        <v>558</v>
-      </c>
-      <c r="E99" t="s">
-        <v>179</v>
-      </c>
-      <c r="F99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100">
+      <c r="G100" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>278</v>
       </c>
-      <c r="D100">
-        <v>580</v>
-      </c>
-      <c r="E100" t="s">
-        <v>172</v>
-      </c>
-      <c r="F100" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>289</v>
-      </c>
       <c r="D101">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E101" t="s">
         <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D102">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E102" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D103">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="E103" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F103" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D104">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>279</v>
+      </c>
+      <c r="D105">
+        <v>631</v>
+      </c>
+      <c r="E105" t="s">
+        <v>182</v>
+      </c>
+      <c r="F105" t="s">
+        <v>363</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
         <v>338</v>
       </c>
-      <c r="D105">
-        <v>630</v>
-      </c>
-      <c r="E105" t="s">
-        <v>177</v>
-      </c>
-      <c r="F105" t="s">
-        <v>336</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>279</v>
-      </c>
       <c r="D106">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E106" t="s">
         <v>182</v>
       </c>
       <c r="F106" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
         <v>338</v>
       </c>
       <c r="D107">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F107" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -11521,481 +16042,541 @@
         <v>338</v>
       </c>
       <c r="D108">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E108" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F108" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D109">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E109" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F109" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110">
+        <v>655</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111">
+        <v>656</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" t="s">
+        <v>337</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" t="s">
+        <v>350</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113">
         <v>2</v>
       </c>
-      <c r="C110" t="s">
-        <v>288</v>
-      </c>
-      <c r="D110">
-        <v>649</v>
-      </c>
-      <c r="E110" t="s">
-        <v>182</v>
-      </c>
-      <c r="F110" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>138</v>
-      </c>
-      <c r="B111">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>312</v>
-      </c>
-      <c r="D111">
-        <v>655</v>
-      </c>
-      <c r="E111" t="s">
-        <v>171</v>
-      </c>
-      <c r="F111" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>282</v>
-      </c>
-      <c r="D112">
-        <v>656</v>
-      </c>
-      <c r="E112" t="s">
-        <v>177</v>
-      </c>
-      <c r="F112" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E113" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>381</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D114">
-        <v>672</v>
+        <v>1308</v>
       </c>
       <c r="E114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F114" t="s">
+        <v>335</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115">
+        <v>677</v>
+      </c>
+      <c r="E115" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115" t="s">
+        <v>346</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>278</v>
+      </c>
+      <c r="D116">
+        <v>687</v>
+      </c>
+      <c r="E116" t="s">
+        <v>175</v>
+      </c>
+      <c r="F116" t="s">
+        <v>335</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117">
+        <v>690</v>
+      </c>
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115">
-        <v>1308</v>
-      </c>
-      <c r="E115" t="s">
-        <v>299</v>
-      </c>
-      <c r="F115" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>59</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>338</v>
-      </c>
-      <c r="D116">
-        <v>677</v>
-      </c>
-      <c r="E116" t="s">
-        <v>179</v>
-      </c>
-      <c r="F116" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117">
+      <c r="G117" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118">
         <v>6</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>278</v>
       </c>
-      <c r="D117">
-        <v>687</v>
-      </c>
-      <c r="E117" t="s">
-        <v>175</v>
-      </c>
-      <c r="F117" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>317</v>
-      </c>
       <c r="D118">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="E118" t="s">
         <v>179</v>
       </c>
       <c r="F118" t="s">
-        <v>366</v>
+        <v>335</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D119">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="E119" t="s">
+        <v>174</v>
+      </c>
+      <c r="F119" t="s">
+        <v>341</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>289</v>
+      </c>
+      <c r="D120">
+        <v>726</v>
+      </c>
+      <c r="E120" t="s">
         <v>179</v>
-      </c>
-      <c r="F119" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>279</v>
-      </c>
-      <c r="D120">
-        <v>709</v>
-      </c>
-      <c r="E120" t="s">
-        <v>174</v>
       </c>
       <c r="F120" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D121">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E121" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F121" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D122">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E122" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F122" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D123">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F123" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D124">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="E124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F124" t="s">
-        <v>367</v>
+        <v>335</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D125">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="E125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F125" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D126">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="E126" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F126" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D127">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="E127" t="s">
         <v>173</v>
       </c>
       <c r="F127" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D128">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="E128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F128" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D129">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E129" t="s">
         <v>172</v>
       </c>
       <c r="F129" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D130">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="E130" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F130" t="s">
+        <v>342</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>289</v>
+      </c>
+      <c r="D131">
+        <v>812</v>
+      </c>
+      <c r="E131" t="s">
+        <v>181</v>
+      </c>
+      <c r="F131" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>236</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>338</v>
-      </c>
-      <c r="D131">
-        <v>806</v>
-      </c>
-      <c r="E131" t="s">
-        <v>177</v>
-      </c>
-      <c r="F131" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -12004,18 +16585,21 @@
         <v>289</v>
       </c>
       <c r="D132">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="E132" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F132" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -12024,18 +16608,21 @@
         <v>289</v>
       </c>
       <c r="D133">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F133" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -12044,136 +16631,157 @@
         <v>289</v>
       </c>
       <c r="D134">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="E134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F134" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D135">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="E135" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F135" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B136">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D136">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E136" t="s">
+        <v>171</v>
+      </c>
+      <c r="F136" t="s">
+        <v>355</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137">
+        <v>862</v>
+      </c>
+      <c r="E137" t="s">
         <v>172</v>
       </c>
-      <c r="F136" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>69</v>
-      </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>338</v>
-      </c>
-      <c r="D137">
-        <v>861</v>
-      </c>
-      <c r="E137" t="s">
-        <v>171</v>
-      </c>
       <c r="F137" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="G137" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D138">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E138" t="s">
+        <v>179</v>
+      </c>
+      <c r="F138" t="s">
+        <v>347</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139">
+        <v>870</v>
+      </c>
+      <c r="E139" t="s">
         <v>172</v>
       </c>
-      <c r="F138" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>68</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>311</v>
-      </c>
-      <c r="D139">
-        <v>863</v>
-      </c>
-      <c r="E139" t="s">
-        <v>179</v>
-      </c>
       <c r="F139" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D140">
-        <v>870</v>
+        <v>1308</v>
       </c>
       <c r="E140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F140" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>334</v>
       </c>
@@ -12187,10 +16795,10 @@
         <v>174</v>
       </c>
       <c r="F141" t="s">
+        <v>374</v>
+      </c>
+      <c r="G141" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12210,10 +16818,13 @@
         <v>171</v>
       </c>
       <c r="F142" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -12236,7 +16847,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -12255,8 +16866,11 @@
       <c r="F144" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>119</v>
       </c>
@@ -12275,8 +16889,11 @@
       <c r="F145" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>96</v>
       </c>
@@ -12290,13 +16907,16 @@
         <v>920</v>
       </c>
       <c r="E146" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F146" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>97</v>
       </c>
@@ -12304,7 +16924,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="D147">
         <v>934</v>
@@ -12313,10 +16933,13 @@
         <v>178</v>
       </c>
       <c r="F147" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -12335,8 +16958,11 @@
       <c r="F148" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>71</v>
       </c>
@@ -12355,8 +16981,11 @@
       <c r="F149" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="25" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>193</v>
       </c>
@@ -12379,7 +17008,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -12398,8 +17027,11 @@
       <c r="F151" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>72</v>
       </c>
@@ -12416,7 +17048,10 @@
         <v>175</v>
       </c>
       <c r="F152" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12438,8 +17073,11 @@
       <c r="F153" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="25" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>265</v>
       </c>
@@ -12458,8 +17096,11 @@
       <c r="F154" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -12478,8 +17119,11 @@
       <c r="F155" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -12498,8 +17142,11 @@
       <c r="F156" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="25" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -12518,8 +17165,11 @@
       <c r="F157" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>75</v>
       </c>
@@ -12538,8 +17188,11 @@
       <c r="F158" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -12562,7 +17215,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>76</v>
       </c>
@@ -12579,10 +17232,13 @@
         <v>176</v>
       </c>
       <c r="F160" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>77</v>
       </c>
@@ -12601,8 +17257,11 @@
       <c r="F161" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>305</v>
       </c>
@@ -12612,8 +17271,8 @@
       <c r="C162" t="s">
         <v>293</v>
       </c>
-      <c r="D162">
-        <v>0</v>
+      <c r="D162" t="s">
+        <v>406</v>
       </c>
       <c r="E162" t="s">
         <v>179</v>
@@ -12621,8 +17280,11 @@
       <c r="F162" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>98</v>
       </c>
@@ -12641,8 +17303,11 @@
       <c r="F163" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -12661,8 +17326,11 @@
       <c r="F164" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -12679,10 +17347,13 @@
         <v>263</v>
       </c>
       <c r="F165" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="G165" s="25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -12699,10 +17370,13 @@
         <v>175</v>
       </c>
       <c r="F166" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="G166" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -12721,8 +17395,11 @@
       <c r="F167" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -12741,8 +17418,11 @@
       <c r="F168" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -12761,8 +17441,11 @@
       <c r="F169" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>80</v>
       </c>
@@ -12779,10 +17462,13 @@
         <v>179</v>
       </c>
       <c r="F170" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>122</v>
       </c>
@@ -12801,13 +17487,16 @@
       <c r="F171" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>135</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>338</v>
@@ -12821,8 +17510,11 @@
       <c r="F172" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>125</v>
       </c>
@@ -12841,8 +17533,11 @@
       <c r="F173" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>140</v>
       </c>
@@ -12862,7 +17557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>123</v>
       </c>
@@ -12881,8 +17576,11 @@
       <c r="F175" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>141</v>
       </c>
@@ -12899,10 +17597,10 @@
         <v>176</v>
       </c>
       <c r="F176" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -12921,8 +17619,11 @@
       <c r="F177" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>134</v>
       </c>
@@ -12941,8 +17642,11 @@
       <c r="F178" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -12961,8 +17665,11 @@
       <c r="F179" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -12981,8 +17688,11 @@
       <c r="F180" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>82</v>
       </c>
@@ -12999,10 +17709,13 @@
         <v>173</v>
       </c>
       <c r="F181" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="G181" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13021,8 +17734,11 @@
       <c r="F182" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>271</v>
       </c>
@@ -13039,10 +17755,13 @@
         <v>179</v>
       </c>
       <c r="F183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="G183" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -13062,7 +17781,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>84</v>
       </c>
@@ -13081,8 +17800,11 @@
       <c r="F185" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -13099,10 +17821,13 @@
         <v>175</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>124</v>
       </c>
@@ -13121,8 +17846,11 @@
       <c r="F187" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>86</v>
       </c>
@@ -13141,8 +17869,11 @@
       <c r="F188" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G188" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -13161,8 +17892,11 @@
       <c r="F189" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G189" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>169</v>
       </c>
@@ -13181,8 +17915,11 @@
       <c r="F190" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G190" s="25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>167</v>
       </c>
@@ -13201,8 +17938,11 @@
       <c r="F191" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G191" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -13221,8 +17961,11 @@
       <c r="F192" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -13241,8 +17984,11 @@
       <c r="F193" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -13261,8 +18007,11 @@
       <c r="F194" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>85</v>
       </c>
@@ -13281,8 +18030,11 @@
       <c r="F195" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>87</v>
       </c>
@@ -13301,8 +18053,11 @@
       <c r="F196" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -13321,8 +18076,11 @@
       <c r="F197" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>168</v>
       </c>
@@ -13341,8 +18099,11 @@
       <c r="F198" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -13361,8 +18122,11 @@
       <c r="F199" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>142</v>
       </c>
@@ -13383,8 +18147,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
+  <autoFilter ref="A1:G200" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F899C43-F92A-4742-9230-7F77F6173102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0410133-A134-472E-831F-53D146985F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2190" windowWidth="14670" windowHeight="8325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="564">
   <si>
     <t>Data</t>
   </si>
@@ -5698,6 +5698,9 @@
 chwała Ci po wszystkie czasy, miłość, uwielbienie.
 *
 Hosanna, hosanna Synowi Bożemu…</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -5851,7 +5854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5909,6 +5912,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8042,6 +8048,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3379304</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>722465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BFD307-5606-2D8D-2626-65CA20F5BA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115956" y="6170545"/>
+          <a:ext cx="3263348" cy="507116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13310,8 +13360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA72C7D-2EFC-408F-B255-EAEC24F0A3D2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13468,27 +13518,29 @@
       <c r="A11" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13509,30 +13561,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>222</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="3:3" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -13556,8 +13608,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="6">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A15:A16"/>
@@ -13577,7 +13628,7 @@
   </sheetPr>
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0410133-A134-472E-831F-53D146985F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150D94C-10D2-435E-A86E-73AB62A2CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8250" yWindow="1830" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="565">
   <si>
     <t>Data</t>
   </si>
@@ -5701,6 +5701,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>0/1/0/1/1/0</t>
   </si>
 </sst>
 </file>
@@ -13360,7 +13363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA72C7D-2EFC-408F-B255-EAEC24F0A3D2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -13623,16 +13626,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G201" sqref="G201"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13668,7 +13671,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -13737,7 +13740,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -13760,7 +13763,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -13826,7 +13829,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -13849,7 +13852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -13872,7 +13875,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -13895,7 +13898,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -13964,7 +13967,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -14010,7 +14013,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -14033,7 +14036,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14056,7 +14059,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -14125,7 +14128,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -14148,7 +14151,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -14171,7 +14174,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -14240,7 +14243,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -14286,7 +14289,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -14309,7 +14312,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -14332,7 +14335,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -14378,7 +14381,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -14401,7 +14404,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -14424,7 +14427,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -14464,7 +14467,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -14530,7 +14533,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -14553,7 +14556,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -14570,13 +14573,13 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>564</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -14599,7 +14602,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -14668,7 +14671,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -14688,7 +14691,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -14711,7 +14714,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -14777,7 +14780,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -14800,7 +14803,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -14892,7 +14895,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -14912,7 +14915,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -14935,7 +14938,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -14958,7 +14961,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -14981,7 +14984,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -15004,7 +15007,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -15027,7 +15030,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -15073,7 +15076,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15116,7 +15119,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -15139,7 +15142,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -15162,7 +15165,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -15202,13 +15205,13 @@
         <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -15231,7 +15234,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -15277,7 +15280,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -15323,7 +15326,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -15346,7 +15349,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -15369,7 +15372,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -15392,7 +15395,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -15415,7 +15418,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -15438,7 +15441,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -15461,7 +15464,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -15484,7 +15487,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -15530,7 +15533,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -15553,7 +15556,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -15576,7 +15579,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -15622,7 +15625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -15645,7 +15648,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -15691,7 +15694,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -15737,7 +15740,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -15760,7 +15763,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -15806,7 +15809,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -15829,7 +15832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>53</v>
       </c>
@@ -15852,7 +15855,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -15898,7 +15901,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>55</v>
       </c>
@@ -15921,7 +15924,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -15944,7 +15947,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -15990,7 +15993,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>274</v>
       </c>
@@ -16013,7 +16016,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -16036,7 +16039,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>244</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -16082,7 +16085,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -16128,7 +16131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -16148,7 +16151,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -16171,7 +16174,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -16194,7 +16197,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -16214,7 +16217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>381</v>
       </c>
@@ -16237,7 +16240,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -16260,7 +16263,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -16283,7 +16286,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -16306,7 +16309,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>240</v>
       </c>
@@ -16352,7 +16355,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>160</v>
       </c>
@@ -16375,7 +16378,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -16398,7 +16401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>64</v>
       </c>
@@ -16421,7 +16424,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -16444,7 +16447,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -16490,7 +16493,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -16513,7 +16516,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -16536,7 +16539,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -16559,7 +16562,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>236</v>
       </c>
@@ -16602,7 +16605,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -16625,7 +16628,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>66</v>
       </c>
@@ -16648,7 +16651,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>246</v>
       </c>
@@ -16671,7 +16674,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -16717,7 +16720,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -16740,7 +16743,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>237</v>
       </c>
@@ -16763,7 +16766,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -16809,7 +16812,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>380</v>
       </c>
@@ -16832,7 +16835,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>334</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -16898,7 +16901,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -16921,7 +16924,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>119</v>
       </c>
@@ -16944,7 +16947,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>96</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>97</v>
       </c>
@@ -16990,7 +16993,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -17013,7 +17016,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>71</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>193</v>
       </c>
@@ -17059,7 +17062,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -17082,7 +17085,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>72</v>
       </c>
@@ -17128,7 +17131,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>265</v>
       </c>
@@ -17151,7 +17154,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -17174,7 +17177,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -17197,7 +17200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -17220,7 +17223,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>75</v>
       </c>
@@ -17243,7 +17246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>76</v>
       </c>
@@ -17289,7 +17292,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>77</v>
       </c>
@@ -17312,7 +17315,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>305</v>
       </c>
@@ -17335,7 +17338,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>98</v>
       </c>
@@ -17358,7 +17361,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -17381,7 +17384,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -17404,7 +17407,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -17427,7 +17430,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -17473,7 +17476,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -17496,7 +17499,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>80</v>
       </c>
@@ -17519,7 +17522,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>122</v>
       </c>
@@ -17565,7 +17568,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>125</v>
       </c>
@@ -17588,7 +17591,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>140</v>
       </c>
@@ -17608,7 +17611,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>123</v>
       </c>
@@ -17631,7 +17634,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>141</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -17697,7 +17700,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -17720,7 +17723,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -17743,7 +17746,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>82</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -17812,7 +17815,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -17832,7 +17835,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>84</v>
       </c>
@@ -17855,7 +17858,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -17878,7 +17881,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>124</v>
       </c>
@@ -17901,7 +17904,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>86</v>
       </c>
@@ -17924,7 +17927,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>169</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>167</v>
       </c>
@@ -17993,7 +17996,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -18016,7 +18019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -18039,7 +18042,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -18062,7 +18065,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>85</v>
       </c>
@@ -18085,7 +18088,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>87</v>
       </c>
@@ -18108,7 +18111,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -18131,7 +18134,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>168</v>
       </c>
@@ -18154,7 +18157,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -18177,7 +18180,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>142</v>
       </c>
@@ -18198,13 +18201,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G200" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150D94C-10D2-435E-A86E-73AB62A2CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569977A0-A124-45C7-ACA5-771890C19F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8250" yWindow="1830" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1830" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -3106,32 +3106,6 @@
   </si>
   <si>
     <t>*
-Jam jest chlebem żywym
-Który zstąpił z nieba
-**
-1.
-Ciało moje _est pokarmem
-A krew mo_ja_ jest napojem
-*
-Jam jest chlebem żywym…
-2.
-Kto pożywa Ciało i Krew moją
-Ten _ma_ życie wieczne
-*
-Jam jest chlebem żywym…
-3.
-Kto przyjmuje Ciało i Krew moją
-Ten we Mnie, _a_ Ja w nim mieszkam
-*
-Jam jest chlebem żywym…
-4.
-Ja go wskrzeszę w dzień ostateczny
-I bę_dzie_ żył na wieki
-*
-Jam jest chlebem żywym…</t>
-  </si>
-  <si>
-    <t>*
 Jasnogórska Pani, Tyś naszą hetmanką
 Polski Tyś Królową i najlepszą Matką
 **
@@ -5704,6 +5678,32 @@
   </si>
   <si>
     <t>0/1/0/1/1/0</t>
+  </si>
+  <si>
+    <t>*
+Jam jest chlebem żywym
+Który zstąpił z nieba
+**
+1.
+Ciało moje _jest_ pokarmem
+A krew mo_ja_ jest napojem
+*
+Jam jest chlebem żywym…
+2.
+Kto pożywa Ciało i Krew moją
+Ten _ma_ życie wieczne
+*
+Jam jest chlebem żywym…
+3.
+Kto przyjmuje Ciało i Krew moją
+Ten we Mnie, _a_ Ja w nim mieszkam
+*
+Jam jest chlebem żywym…
+4.
+Ja go wskrzeszę w dzień ostateczny
+I bę_dzie_ żył na wieki
+*
+Jam jest chlebem żywym…</t>
   </si>
 </sst>
 </file>
@@ -13534,7 +13534,7 @@
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="12" t="s">
@@ -13632,10 +13632,10 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13714,7 +13714,7 @@
         <v>336</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
         <v>335</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13760,7 +13760,7 @@
         <v>335</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13803,7 +13803,7 @@
         <v>335</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13826,7 +13826,7 @@
         <v>337</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13987,7 +13987,7 @@
         <v>344</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14194,7 +14194,7 @@
         <v>335</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>335</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
         <v>335</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14573,7 +14573,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>435</v>
@@ -14622,7 +14622,7 @@
         <v>344</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,7 +14711,7 @@
         <v>335</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14757,7 +14757,7 @@
         <v>335</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14892,7 +14892,7 @@
         <v>335</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14958,7 +14958,7 @@
         <v>335</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14981,7 +14981,7 @@
         <v>335</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15073,7 +15073,7 @@
         <v>341</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,7 +15096,7 @@
         <v>335</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15254,7 +15254,7 @@
         <v>341</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>450</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15277,7 +15277,7 @@
         <v>347</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15300,7 +15300,7 @@
         <v>341</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15323,7 +15323,7 @@
         <v>362</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15346,7 +15346,7 @@
         <v>341</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15369,7 +15369,7 @@
         <v>341</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>360</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15415,7 +15415,7 @@
         <v>341</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15438,7 +15438,7 @@
         <v>335</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15461,7 +15461,7 @@
         <v>341</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15484,7 +15484,7 @@
         <v>341</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15507,7 +15507,7 @@
         <v>354</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15530,7 +15530,7 @@
         <v>354</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15553,7 +15553,7 @@
         <v>342</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15599,7 +15599,7 @@
         <v>341</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15622,7 +15622,7 @@
         <v>341</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15645,7 +15645,7 @@
         <v>362</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15668,7 +15668,7 @@
         <v>343</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15691,7 +15691,7 @@
         <v>355</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15714,7 +15714,7 @@
         <v>347</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15737,7 +15737,7 @@
         <v>342</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15760,7 +15760,7 @@
         <v>336</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
         <v>341</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15829,7 +15829,7 @@
         <v>335</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15852,7 +15852,7 @@
         <v>342</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15875,7 +15875,7 @@
         <v>347</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15898,7 +15898,7 @@
         <v>335</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15921,7 +15921,7 @@
         <v>342</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15944,7 +15944,7 @@
         <v>335</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15967,7 +15967,7 @@
         <v>347</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15990,7 +15990,7 @@
         <v>347</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16036,7 +16036,7 @@
         <v>363</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16059,7 +16059,7 @@
         <v>335</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16082,7 +16082,7 @@
         <v>341</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16105,7 +16105,7 @@
         <v>347</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16171,7 +16171,7 @@
         <v>337</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16194,7 +16194,7 @@
         <v>350</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16260,7 +16260,7 @@
         <v>346</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16283,7 +16283,7 @@
         <v>335</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16306,7 +16306,7 @@
         <v>365</v>
       </c>
       <c r="G117" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16329,7 +16329,7 @@
         <v>335</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16352,7 +16352,7 @@
         <v>341</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16375,7 +16375,7 @@
         <v>341</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16398,7 +16398,7 @@
         <v>341</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16421,7 +16421,7 @@
         <v>349</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16444,7 +16444,7 @@
         <v>366</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16490,7 +16490,7 @@
         <v>355</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16513,7 +16513,7 @@
         <v>341</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16536,7 +16536,7 @@
         <v>367</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16602,7 +16602,7 @@
         <v>342</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16625,7 +16625,7 @@
         <v>341</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16648,7 +16648,7 @@
         <v>341</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16671,7 +16671,7 @@
         <v>341</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16694,7 +16694,7 @@
         <v>360</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16740,7 +16740,7 @@
         <v>355</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16763,7 +16763,7 @@
         <v>368</v>
       </c>
       <c r="G137" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16786,7 +16786,7 @@
         <v>347</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16809,7 +16809,7 @@
         <v>352</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16875,7 +16875,7 @@
         <v>369</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16921,7 +16921,7 @@
         <v>336</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16944,7 +16944,7 @@
         <v>335</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17013,7 +17013,7 @@
         <v>335</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>342</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17082,7 +17082,7 @@
         <v>342</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17105,7 +17105,7 @@
         <v>354</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17128,7 +17128,7 @@
         <v>349</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17151,7 +17151,7 @@
         <v>341</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17174,7 +17174,7 @@
         <v>341</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17197,7 +17197,7 @@
         <v>342</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17220,7 +17220,7 @@
         <v>347</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17243,7 +17243,7 @@
         <v>347</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17312,7 +17312,7 @@
         <v>337</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
         <v>335</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
         <v>365</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17450,7 +17450,7 @@
         <v>341</v>
       </c>
       <c r="G167" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
         <v>349</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17496,7 +17496,7 @@
         <v>350</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17542,7 +17542,7 @@
         <v>335</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17565,7 +17565,7 @@
         <v>347</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17588,7 +17588,7 @@
         <v>335</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17631,7 +17631,7 @@
         <v>335</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17674,7 +17674,7 @@
         <v>350</v>
       </c>
       <c r="G177" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v>341</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17720,7 +17720,7 @@
         <v>341</v>
       </c>
       <c r="G179" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17789,7 +17789,7 @@
         <v>336</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>373</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17878,7 +17878,7 @@
         <v>359</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17901,7 +17901,7 @@
         <v>335</v>
       </c>
       <c r="G187" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17924,7 +17924,7 @@
         <v>347</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17947,7 +17947,7 @@
         <v>335</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17993,7 +17993,7 @@
         <v>342</v>
       </c>
       <c r="G191" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18085,7 +18085,7 @@
         <v>341</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18108,7 +18108,7 @@
         <v>337</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18131,7 +18131,7 @@
         <v>342</v>
       </c>
       <c r="G197" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18154,7 +18154,7 @@
         <v>343</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18177,7 +18177,7 @@
         <v>341</v>
       </c>
       <c r="G199" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569977A0-A124-45C7-ACA5-771890C19F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDFFC0-2FF4-40A0-99F2-3C8A9E2A4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1830" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="side view" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lista pieśni'!$A$1:$K$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="569">
   <si>
     <t>Data</t>
   </si>
@@ -5704,6 +5704,57 @@
 I bę_dzie_ żył na wieki
 *
 Jam jest chlebem żywym…</t>
+  </si>
+  <si>
+    <t>Gdy klęczę przed Tobą</t>
+  </si>
+  <si>
+    <t>1.
+Gdy klęczę przed Tobą,
+modlę się i składam hołd,
+Weź ten dzień, uczyń go Twym,
+i we mnie miłość wznieć.
+*
+Ave Maria,
+gratia plena,
+Dominus tecum,
+benedicta tu =
+2.
+Wszystko Tobie daję,
+każdy sen i każdą myśl.
+Matko Boga, Matko moja,
+wznieś je przed Pana tron!
+*
+Ave Maria...
+3.
+Gdy klęczę przed Tobą,
+widzę Twą radosną twarz.
+Każda myśl, każde słowo,
+niech spocznie w dłoniach Twych.
+*
+Ave Maria...</t>
+  </si>
+  <si>
+    <t>Czekam na Ciebie, dobry Boże</t>
+  </si>
+  <si>
+    <t>1.
+Czekam na Ciebie, dobry Boże,
+przyjdź do mnie, Panie, pośpiesz się,
+niechaj mi łaska Twa pomoże,
+chcę czystym sercem przyjąć Cię.
+*
+Przyjdź do mnie Panie, mój dobry Boże,
+przyjdź i nie spóźniaj się.
+Przyjdź do mnie Panie, przyjdź z łaską swoją,
+przyjdź i nie spóźniaj się.
+2.
+Wśród licznych trosk i niepokojów,
+kiedy już sił nie starcza nam,
+karmisz nas, Panie, swoim Ciałem,
+Tyś nasza moc, nasz Bóg i Pan
+*
+Przyjdź do mnie Panie...</t>
   </si>
 </sst>
 </file>
@@ -13629,13 +13680,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14604,53 +14655,50 @@
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D44">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -14659,199 +14707,199 @@
         <v>286</v>
       </c>
       <c r="D45">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="D46">
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>529</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D48">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D49">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>338</v>
+      </c>
+      <c r="D50">
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
-      </c>
-      <c r="D51">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="D52">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D53">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
         <v>350</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -14860,314 +14908,311 @@
         <v>298</v>
       </c>
       <c r="D54">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F54" t="s">
         <v>350</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D55">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D56">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F56" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D57">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D58">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F58" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>531</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>285</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E59" t="s">
         <v>171</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D60">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="D61">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>443</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D62">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D63">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>551</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D64">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F64" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D66">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D67">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="F67" t="s">
-        <v>346</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>446</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -15176,113 +15221,113 @@
         <v>286</v>
       </c>
       <c r="D68">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D69">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D70">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D71">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>564</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D72">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -15291,44 +15336,44 @@
         <v>289</v>
       </c>
       <c r="D73">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
         <v>341</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>451</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D74">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>552</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -15337,7 +15382,7 @@
         <v>289</v>
       </c>
       <c r="D75">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="E75" t="s">
         <v>171</v>
@@ -15346,58 +15391,58 @@
         <v>341</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D76">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E76" t="s">
         <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D77">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E77" t="s">
         <v>171</v>
       </c>
       <c r="F77" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -15406,44 +15451,44 @@
         <v>289</v>
       </c>
       <c r="D78">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E78" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F78" t="s">
         <v>341</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D79">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F79" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -15452,7 +15497,7 @@
         <v>289</v>
       </c>
       <c r="D80">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="E80" t="s">
         <v>172</v>
@@ -15461,196 +15506,196 @@
         <v>341</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D81">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D82">
-        <v>1314</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D83">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F83" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D84">
-        <v>483</v>
+        <v>1314</v>
       </c>
       <c r="E84" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D85">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E85" t="s">
         <v>173</v>
       </c>
       <c r="F85" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D86">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D87">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D88">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F88" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -15659,274 +15704,274 @@
         <v>311</v>
       </c>
       <c r="D89">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D90">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D91">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D92">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D93">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>279</v>
       </c>
       <c r="D94">
-        <v>1331</v>
+        <v>514</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>379</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D95">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>554</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D96">
-        <v>540</v>
+        <v>1331</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D97">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="D98">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D99">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D100">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -15935,346 +15980,346 @@
         <v>278</v>
       </c>
       <c r="D101">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E101" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F101" t="s">
         <v>335</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="E102" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F102" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="D103">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="E103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D104">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="E104" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F104" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>326</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D105">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F105" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
         <v>338</v>
       </c>
       <c r="D106">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>538</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D107">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E107" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>338</v>
       </c>
       <c r="D108">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="D109">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E109" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F109" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D110">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F110" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D111">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F111" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>518</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E112" t="s">
         <v>171</v>
       </c>
       <c r="F112" t="s">
-        <v>350</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D113">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="E113" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F113" t="s">
-        <v>364</v>
+        <v>337</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="D114">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F114" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D115">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G115" s="25" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>381</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D116">
-        <v>687</v>
+        <v>1308</v>
       </c>
       <c r="E116" t="s">
         <v>175</v>
@@ -16283,35 +16328,35 @@
         <v>335</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>539</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D117">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="E117" t="s">
         <v>179</v>
       </c>
       <c r="F117" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="G117" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -16320,90 +16365,90 @@
         <v>278</v>
       </c>
       <c r="D118">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F118" t="s">
         <v>335</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="D119">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="E119" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F119" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>555</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D120">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="E120" t="s">
         <v>179</v>
       </c>
       <c r="F120" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D121">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="E121" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F121" t="s">
         <v>341</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -16412,248 +16457,248 @@
         <v>289</v>
       </c>
       <c r="D122">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E122" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F122" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D123">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F123" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D124">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="E124" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F124" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>333</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D125">
-        <v>771</v>
+        <v>733</v>
       </c>
       <c r="E125" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F125" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>556</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D126">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="E126" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F126" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>482</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D127">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="E127" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F127" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D128">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="E128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F128" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="D129">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F129" t="s">
-        <v>341</v>
+        <v>367</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D130">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="E130" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F130" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D131">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="E131" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F131" t="s">
         <v>341</v>
       </c>
-      <c r="G131" s="25" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D132">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="E132" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16662,21 +16707,21 @@
         <v>289</v>
       </c>
       <c r="D133">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E133" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F133" t="s">
         <v>341</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16685,386 +16730,386 @@
         <v>289</v>
       </c>
       <c r="D134">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="E134" t="s">
         <v>175</v>
       </c>
       <c r="F134" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D135">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G135" s="25" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D136">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="E136" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D137">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E137" t="s">
         <v>172</v>
       </c>
       <c r="F137" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="G137" s="25" t="s">
-        <v>520</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D138">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E138" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F138" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D139">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E139" t="s">
         <v>172</v>
       </c>
       <c r="F139" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="D140">
-        <v>1308</v>
+        <v>863</v>
       </c>
       <c r="E140" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F140" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>383</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+      <c r="D141">
+        <v>870</v>
       </c>
       <c r="E141" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F141" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D142">
-        <v>899</v>
+        <v>1308</v>
       </c>
       <c r="E142" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F142" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>557</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
-      </c>
-      <c r="D143">
-        <v>876</v>
+        <v>295</v>
       </c>
       <c r="E143" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F143" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D144">
-        <v>878</v>
+        <v>899</v>
       </c>
       <c r="E144" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F144" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D145">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E145" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F145" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>541</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D146">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="E146" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D147">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="E147" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F147" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D148">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="E148" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F148" t="s">
         <v>335</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>542</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D149">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E149" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F149" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D150">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="E150" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F150" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>328</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17073,21 +17118,21 @@
         <v>317</v>
       </c>
       <c r="D151">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="E151" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F151" t="s">
         <v>342</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -17096,490 +17141,490 @@
         <v>298</v>
       </c>
       <c r="D152">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="E152" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F152" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>494</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="D153">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="E153" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F153" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>558</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D154">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F154" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D155">
-        <v>1295</v>
+        <v>985</v>
       </c>
       <c r="E155" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F155" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D156">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="E156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F156" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D157">
-        <v>1002</v>
+        <v>1295</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D158">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E158" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F158" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D159">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="E159" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F159" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>331</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D160">
-        <v>1333</v>
+        <v>1005</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>404</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D161">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="E161" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F161" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>521</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>293</v>
-      </c>
-      <c r="D162" t="s">
-        <v>406</v>
+        <v>303</v>
+      </c>
+      <c r="D162">
+        <v>1333</v>
       </c>
       <c r="E162" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F162" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D163">
-        <v>1047</v>
+        <v>1027</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F163" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>387</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
-      </c>
-      <c r="D164">
-        <v>1067</v>
+        <v>293</v>
+      </c>
+      <c r="D164" t="s">
+        <v>406</v>
       </c>
       <c r="E164" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F164" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D165">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="F165" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>500</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D166">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E166" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F166" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>407</v>
+        <v>543</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D167">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="E167" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="F167" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G167" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D168">
-        <v>1283</v>
+        <v>1070</v>
       </c>
       <c r="E168" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F168" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="D169">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="E169" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F169" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D170">
-        <v>1100</v>
+        <v>1283</v>
       </c>
       <c r="E170" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F170" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="D171">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="E171" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F171" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D172">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="E172" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F172" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>559</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B173">
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D173">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="E173" t="s">
         <v>173</v>
@@ -17588,32 +17633,35 @@
         <v>335</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D174">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="E174" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F174" t="s">
         <v>347</v>
       </c>
+      <c r="G174" s="25" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B175">
         <v>6</v>
@@ -17622,7 +17670,7 @@
         <v>278</v>
       </c>
       <c r="D175">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
@@ -17631,12 +17679,12 @@
         <v>335</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B176">
         <v>8</v>
@@ -17645,291 +17693,288 @@
         <v>312</v>
       </c>
       <c r="D176">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E176" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F176" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D177">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="E177" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G177" s="25" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="D178">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="E178" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F178" t="s">
-        <v>341</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>560</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D179">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="E179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F179" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="G179" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="E180" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F180" t="s">
         <v>341</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="D181">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E181" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="G181" s="25" t="s">
-        <v>410</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D182">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="E182" t="s">
         <v>173</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="B183">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="E183" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F183" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>561</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D184">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="E184" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D185">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F185" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>399</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D186">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="E186" t="s">
         <v>175</v>
       </c>
       <c r="F186" t="s">
-        <v>359</v>
-      </c>
-      <c r="G186" s="25" t="s">
-        <v>507</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B187">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D187">
-        <v>1194</v>
+        <v>1203</v>
       </c>
       <c r="E187" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F187" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G187" s="25" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D188">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="E188" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F188" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B189">
         <v>6</v>
@@ -17938,270 +17983,316 @@
         <v>278</v>
       </c>
       <c r="D189">
-        <v>1224</v>
+        <v>1194</v>
       </c>
       <c r="E189" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F189" t="s">
         <v>335</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D190">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E190" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F190" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G190" s="25" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D191">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="E191" t="s">
         <v>175</v>
       </c>
       <c r="F191" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G191" s="25" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D192">
-        <v>845</v>
+        <v>1226</v>
       </c>
       <c r="E192" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F192" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D193">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="E193" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F193" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G193" s="25" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D194">
-        <v>1248</v>
+        <v>845</v>
       </c>
       <c r="E194" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F194" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D195">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E195" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F195" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>510</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D196">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="E196" t="s">
         <v>175</v>
       </c>
       <c r="F196" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>522</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D197">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E197" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F197" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G197" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D198">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="E198" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F198" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D199">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="E199" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G199" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D200">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="E200" t="s">
         <v>171</v>
       </c>
       <c r="F200" t="s">
+        <v>343</v>
+      </c>
+      <c r="G200" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>170</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>289</v>
+      </c>
+      <c r="D201">
+        <v>1276</v>
+      </c>
+      <c r="E201" t="s">
+        <v>176</v>
+      </c>
+      <c r="F201" t="s">
+        <v>341</v>
+      </c>
+      <c r="G201" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>312</v>
+      </c>
+      <c r="D202">
+        <v>1279</v>
+      </c>
+      <c r="E202" t="s">
+        <v>171</v>
+      </c>
+      <c r="F202" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
+  <autoFilter ref="A1:G202" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDFFC0-2FF4-40A0-99F2-3C8A9E2A4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099CC1F-5EC4-4212-A4C3-44CB43AB413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="side view" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lista pieśni'!$A$1:$K$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="571">
   <si>
     <t>Data</t>
   </si>
@@ -5755,6 +5755,42 @@
 Tyś nasza moc, nasz Bóg i Pan
 *
 Przyjdź do mnie Panie...</t>
+  </si>
+  <si>
+    <t>1.
+Ty wyzwoliłeś nas Panie
+Z kajdan i samych siebie
+A Chrystus stając się bratem
+Nauczył nas wołać do Ciebie:
+*
+Abba Ojcze!
+Abba Ojcze!
+Abba Ojcze!
+Abba Ojcze!
+2.
+Bo Kościół jak drzewo życia
+W wieczności zapuszcza korzenie
+Przenika naszą codzienność
+I pokazuje nam Ciebie
+*
+Abba Ojcze...
+3.
+Bóg hojnym Dawcą jest życia
+On wyswobodził nas od śmierci
+I przygarniając do siebie
+Uczynił swoimi dziećmi.
+*
+Abba Ojcze...
+4.
+Wszyscy jesteśmy braćmi
+Jesteśmy jedną rodziną.
+Tej prawdy nic już nie zaćmi
+I teraz jest jej godzina.
+*
+Abba Ojcze...</t>
+  </si>
+  <si>
+    <t>Abba Ojcze</t>
   </si>
 </sst>
 </file>
@@ -5908,7 +5944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5966,6 +6002,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8146,6 +8185,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32493</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>216041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3445569</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>644770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Obraz 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6D478E-C669-F146-DB31-CFB2B1D2A1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14012262" y="6172829"/>
+          <a:ext cx="3413076" cy="428729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13414,8 +13497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA72C7D-2EFC-408F-B255-EAEC24F0A3D2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13572,7 +13655,7 @@
       <c r="A11" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12" t="s">
         <v>228</v>
       </c>
@@ -13587,14 +13670,16 @@
       <c r="A12" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13615,30 +13700,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>222</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="3:3" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -13662,9 +13747,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
@@ -13680,13 +13764,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13747,53 +13831,50 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>570</v>
       </c>
       <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -13802,386 +13883,386 @@
         <v>278</v>
       </c>
       <c r="D5">
-        <v>896</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>335</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>896</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>525</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>412</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D15">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>515</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D17">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D18">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D19">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D20">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D21">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
         <v>336</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -14190,449 +14271,449 @@
         <v>298</v>
       </c>
       <c r="D22">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D23">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
         <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>526</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D25">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
         <v>335</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D26">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D27">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D28">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D29">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D30">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D31">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D32">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D33">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D34">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35">
+        <v>184</v>
+      </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>528</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D37">
-        <v>1281</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38">
-        <v>1309</v>
+        <v>1281</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F38" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>288</v>
+      </c>
+      <c r="D39">
+        <v>1309</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D41">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>563</v>
+        <v>353</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14641,87 +14722,87 @@
         <v>298</v>
       </c>
       <c r="D42">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
         <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>563</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>567</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
       <c r="D43">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>568</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="B44">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D45">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -14730,199 +14811,199 @@
         <v>286</v>
       </c>
       <c r="D46">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="D47">
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>529</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D49">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D50">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>338</v>
+      </c>
+      <c r="D51">
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="D53">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D54">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
         <v>350</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -14931,518 +15012,518 @@
         <v>298</v>
       </c>
       <c r="D55">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F55" t="s">
         <v>350</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D56">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D57">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F57" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D58">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F58" t="s">
-        <v>356</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>565</v>
+        <v>92</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>295</v>
       </c>
       <c r="D59">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F59" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>566</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>565</v>
       </c>
       <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F60" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D61">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
         <v>335</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D62">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F62" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D63">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D64">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F64" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D65">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>551</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>338</v>
       </c>
       <c r="D66">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
         <v>335</v>
       </c>
+      <c r="G67" s="25" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D68">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="F68" t="s">
-        <v>360</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>445</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D69">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D70">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F70" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D71">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
         <v>179</v>
       </c>
       <c r="F71" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="D72">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D73">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>564</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D74">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>450</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D75">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E75" t="s">
         <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D76">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F76" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D77">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>452</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -15451,113 +15532,113 @@
         <v>289</v>
       </c>
       <c r="D78">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F78" t="s">
         <v>341</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D79">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D80">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D81">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>534</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D82">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F82" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -15566,619 +15647,619 @@
         <v>289</v>
       </c>
       <c r="D83">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F83" t="s">
         <v>341</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D84">
-        <v>1314</v>
+        <v>469</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F84" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D85">
-        <v>474</v>
+        <v>1314</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
         <v>354</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D86">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E86" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D87">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F87" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D88">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D89">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F89" t="s">
         <v>341</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D90">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D91">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E91" t="s">
         <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D92">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D93">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D94">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D95">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D96">
-        <v>1331</v>
+        <v>520</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>279</v>
       </c>
       <c r="D97">
-        <v>539</v>
+        <v>1331</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>554</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D98">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D100">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E100" t="s">
         <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D101">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="E101" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D102">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F102" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D103">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E103" t="s">
         <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D104">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F104" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D105">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="E105" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F105" t="s">
         <v>347</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D106">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F106" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="D107">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F107" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>472</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D108">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E108" t="s">
         <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>338</v>
       </c>
       <c r="D109">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F109" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -16187,541 +16268,541 @@
         <v>338</v>
       </c>
       <c r="D110">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F110" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="D111">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F111" t="s">
         <v>347</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D112">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F112" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="D113">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E113" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F113" t="s">
-        <v>337</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>518</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E114" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F114" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="D115">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F115" t="s">
-        <v>364</v>
+        <v>350</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D116">
-        <v>1308</v>
+        <v>672</v>
       </c>
       <c r="E116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F116" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D117">
-        <v>677</v>
+        <v>1308</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F117" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G117" s="25" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D118">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E118" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F118" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D119">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E119" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D120">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E120" t="s">
         <v>179</v>
       </c>
       <c r="F120" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D121">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E121" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D122">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="E122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F122" t="s">
         <v>341</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D123">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E123" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F123" t="s">
         <v>341</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D124">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E124" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F124" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D125">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F125" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D126">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E126" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F126" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D127">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="E127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F127" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>556</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D128">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E128" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F128" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D129">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="E129" t="s">
         <v>173</v>
       </c>
       <c r="F129" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D130">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E130" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>401</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D131">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E131" t="s">
         <v>172</v>
       </c>
       <c r="F131" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D132">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="E132" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F132" t="s">
-        <v>342</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>483</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D133">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E133" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F133" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16730,21 +16811,21 @@
         <v>289</v>
       </c>
       <c r="D134">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E134" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F134" t="s">
         <v>341</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16753,21 +16834,21 @@
         <v>289</v>
       </c>
       <c r="D135">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F135" t="s">
         <v>341</v>
       </c>
       <c r="G135" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16776,159 +16857,159 @@
         <v>289</v>
       </c>
       <c r="D136">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F136" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D137">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="E137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F137" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="G137" s="25" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D138">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E138" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>488</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="D139">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F139" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="D140">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E140" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F140" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D141">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E141" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F141" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D142">
-        <v>1308</v>
+        <v>870</v>
       </c>
       <c r="E142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F142" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>383</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -16936,65 +17017,65 @@
       <c r="C143" t="s">
         <v>295</v>
       </c>
+      <c r="D143">
+        <v>1308</v>
+      </c>
       <c r="E143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F143" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>279</v>
-      </c>
-      <c r="D144">
-        <v>899</v>
+        <v>295</v>
       </c>
       <c r="E144" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F144" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>557</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D145">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="E145" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F145" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>329</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -17003,1139 +17084,1139 @@
         <v>298</v>
       </c>
       <c r="D146">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E146" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F146" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>491</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D147">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D148">
-        <v>920</v>
+        <v>879</v>
       </c>
       <c r="E148" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F148" t="s">
         <v>335</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>384</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D149">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="E149" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F149" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D150">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E150" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F150" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>542</v>
+        <v>403</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D151">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E151" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F151" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D152">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="E152" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F152" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>328</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D153">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E153" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F153" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>493</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D154">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="E154" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F154" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D155">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F155" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D156">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F156" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D157">
-        <v>1295</v>
+        <v>990</v>
       </c>
       <c r="E157" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F157" t="s">
         <v>341</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="D158">
-        <v>999</v>
+        <v>1295</v>
       </c>
       <c r="E158" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F158" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D159">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E159" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F159" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D160">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F160" t="s">
         <v>347</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D161">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E161" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F161" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D162">
-        <v>1333</v>
+        <v>1009</v>
       </c>
       <c r="E162" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F162" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="D163">
-        <v>1027</v>
+        <v>1333</v>
       </c>
       <c r="E163" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F163" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>293</v>
-      </c>
-      <c r="D164" t="s">
-        <v>406</v>
+        <v>282</v>
+      </c>
+      <c r="D164">
+        <v>1027</v>
       </c>
       <c r="E164" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F164" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
-      </c>
-      <c r="D165">
-        <v>1047</v>
+        <v>293</v>
+      </c>
+      <c r="D165" t="s">
+        <v>406</v>
       </c>
       <c r="E165" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F165" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D166">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="E166" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F166" t="s">
         <v>335</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>543</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="D167">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="F167" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="G167" s="25" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D168">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E168" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="F168" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
         <v>289</v>
       </c>
       <c r="D169">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="E169" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F169" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D170">
-        <v>1283</v>
+        <v>1086</v>
       </c>
       <c r="E170" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F170" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D171">
-        <v>1095</v>
+        <v>1283</v>
       </c>
       <c r="E171" t="s">
         <v>182</v>
       </c>
       <c r="F171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D172">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="E172" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F172" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D173">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="E173" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F173" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>544</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="D174">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F174" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G174" s="25" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D175">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="E175" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F175" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B176">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D176">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E176" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F176" t="s">
-        <v>347</v>
+        <v>335</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B177">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D177">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E177" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F177" t="s">
-        <v>335</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>546</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B178">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D178">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E178" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F178" t="s">
-        <v>372</v>
+        <v>335</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D179">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="E179" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
-      </c>
-      <c r="G179" s="25" t="s">
-        <v>504</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B180">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D180">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="E180" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F180" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D181">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E181" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F181" t="s">
         <v>341</v>
       </c>
       <c r="G181" s="25" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="E182" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F182" t="s">
         <v>341</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="D183">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="E183" t="s">
         <v>173</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D184">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="E184" t="s">
         <v>173</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="B185">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="E185" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F185" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D186">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>373</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D187">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E187" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F187" t="s">
-        <v>347</v>
-      </c>
-      <c r="G187" s="25" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
         <v>298</v>
       </c>
       <c r="D188">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E188" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F188" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>507</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D189">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="E189" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F189" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D190">
-        <v>1223</v>
+        <v>1194</v>
       </c>
       <c r="E190" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F190" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G190" s="25" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D191">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E191" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F191" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G191" s="25" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D192">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E192" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F192" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>422</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D193">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="E193" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F193" t="s">
         <v>342</v>
       </c>
       <c r="G193" s="25" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D194">
-        <v>845</v>
+        <v>1237</v>
       </c>
       <c r="E194" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F194" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D195">
-        <v>1245</v>
+        <v>845</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F195" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -18144,155 +18225,178 @@
         <v>286</v>
       </c>
       <c r="D196">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E196" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F196" t="s">
         <v>335</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D197">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E197" t="s">
         <v>175</v>
       </c>
       <c r="F197" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G197" s="25" t="s">
-        <v>510</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D198">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E198" t="s">
         <v>175</v>
       </c>
       <c r="F198" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D199">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E199" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F199" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G199" s="25" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D200">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="E200" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F200" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G200" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D201">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="E201" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F201" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G201" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>289</v>
+      </c>
+      <c r="D202">
+        <v>1276</v>
+      </c>
+      <c r="E202" t="s">
+        <v>176</v>
+      </c>
+      <c r="F202" t="s">
+        <v>341</v>
+      </c>
+      <c r="G202" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>142</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <v>8</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>312</v>
       </c>
-      <c r="D202">
+      <c r="D203">
         <v>1279</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>171</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G202" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
+  <autoFilter ref="A1:G203" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099CC1F-5EC4-4212-A4C3-44CB43AB413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6549DC-8DDA-4CC2-9003-0E82FFAB8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="side view" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">db!$A$1:$G$209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lista pieśni'!$A$1:$K$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="585">
   <si>
     <t>Data</t>
   </si>
@@ -5791,6 +5791,108 @@
   </si>
   <si>
     <t>Abba Ojcze</t>
+  </si>
+  <si>
+    <t>Miłość Twa</t>
+  </si>
+  <si>
+    <t>1/1/1/1/1/ślubne</t>
+  </si>
+  <si>
+    <t>Miłość Twa
+od najwyższych gór wyższa jest,
+Wielka jest wierność Twa
+Do nieba sięga wzwyż
+Miłość Twa
+głębsza niż ocean bez dna
+wielka jest wierność Twa
+gdy do mnie zbliżasz się.</t>
+  </si>
+  <si>
+    <t>Kiedy serca dwa</t>
+  </si>
+  <si>
+    <t>Kiedy serca dwa połączą się miłością.
+A Bóg obdarzył je łaską Swą
+Wtedy razem iść przez życie chcą z ufnością
+i proszą, żebyś błogosławił im.
+Dziś spójrz, stoją tu u Twoich drzwi
+i proszą, byś zawsze z nimi był.
+Dziś spójrz, stoją tu i proszą Cię,
+byś błogosławił im przez wszystkie dni.</t>
+  </si>
+  <si>
+    <t>Jesteśmy piękni</t>
+  </si>
+  <si>
+    <t>Jesteśmy piękni
+Twoim pięknem Panie!=
+Ty otwierasz nasze oczy,
+na piękno Twoje Panie!
+Ty otwierasz nasze oczy, Panie!
+Ty otwierasz nasze oczy
+na piękno Twoje Panie!
+Ty otwierasz nasze oczy, Panie, na Twoje piękno.</t>
+  </si>
+  <si>
+    <t>Ofiaruję Tobie</t>
+  </si>
+  <si>
+    <t>Ofiaruję Tobie, Panie mój
+Całe życie me
+Cały jestem Twój
+Aż na wieki
+Oto moje serce, przecież wiesz
+Tyś miłością mą
+Jedyną jest</t>
+  </si>
+  <si>
+    <t>Gdy się łączą ręce dwie</t>
+  </si>
+  <si>
+    <t>1.
+Gdy się łączą ręce dwie w Imię Boże,
+Przed ołtarzem uroczystym w blasku świec.
+Wtedy zwykła ludzka miłość jest potęgą,
+Bo z miłością Jego wieczną splata się.
+2.
+Kiedy łączysz serca dwa w Imię swoje
+I związujesz między nimi mocną nić.
+Błogosławisz swoim dzieciom na wędrówkę,
+Pokazujesz, co to znaczy umieć żyć.
+3.
+Pójdą odtąd na radości i na smutki,
+Zawsze razem, przy nim – ona, przy niej – on
+Twoja łaska szlak im będzie wyznaczała
+I obroni od drapieżnych świata szpon.</t>
+  </si>
+  <si>
+    <t>1/1/1/1/0/0</t>
+  </si>
+  <si>
+    <t>Szczęśliwy, kogo</t>
+  </si>
+  <si>
+    <t>1.
+Szczęśliwy, kogo opatrzność Boska
+ma w swej opiece, niech się nie troska:
+w żadnym przypadku ten nie szkoduje,
+kogo opatrzność Boska piastuje.
+2.
+Nie tak miedziany mur jest bezpieczny,
+ani też diament tak długowieczny,
+jak kto przy Bogu łaskawym stoi,
+żadnych się nieszczęść niechaj nie boi.
+3.
+Niechaj się na mnie i świat oburzy,
+niechaj me serce w żalach zanurzy;
+gdy tylko spojrzy Niebieskie Oko,
+wyjdę z tej toni pewnie wysoko.
+4.
+Boże Wszechmocny, nadzieje w Tobie
+nasze składamy, niech w każdej dobie
+przy nas opatrzność Twoja zostanie,
+bo nic bez Ciebie nie poczniem, Panie.</t>
   </si>
 </sst>
 </file>
@@ -13497,7 +13599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA72C7D-2EFC-408F-B255-EAEC24F0A3D2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -13764,13 +13866,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15158,441 +15260,429 @@
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>580</v>
       </c>
       <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>572</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D63">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F63" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D64">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D65">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D66">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>551</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>338</v>
       </c>
       <c r="D67">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
         <v>335</v>
       </c>
+      <c r="G68" s="25" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D69">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="F69" t="s">
-        <v>360</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>445</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D70">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D71">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D72">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E72" t="s">
         <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="D73">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D74">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>564</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D75">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F75" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>450</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D76">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E76" t="s">
         <v>171</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D77">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F77" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>576</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D78">
-        <v>432</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>572</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>452</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D79">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
         <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D80">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E80" t="s">
         <v>171</v>
       </c>
       <c r="F80" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -15601,44 +15691,44 @@
         <v>289</v>
       </c>
       <c r="D81">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
         <v>341</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D82">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -15647,7 +15737,7 @@
         <v>289</v>
       </c>
       <c r="D83">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="E83" t="s">
         <v>172</v>
@@ -15656,334 +15746,328 @@
         <v>341</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D84">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D85">
-        <v>1314</v>
+        <v>468</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D86">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D87">
-        <v>483</v>
+        <v>1314</v>
       </c>
       <c r="E87" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D88">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E88" t="s">
         <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D89">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D90">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D91">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E91" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>574</v>
       </c>
       <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>572</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D93">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D94">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D95">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D96">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D97">
-        <v>1331</v>
+        <v>508</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
         <v>347</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -15992,99 +16076,99 @@
         <v>279</v>
       </c>
       <c r="D98">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D99">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D100">
-        <v>556</v>
+        <v>1331</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D101">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D102">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="E102" t="s">
         <v>172</v>
@@ -16093,196 +16177,190 @@
         <v>335</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="E103" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F103" t="s">
         <v>342</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D104">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="E104" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F104" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D105">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F105" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>571</v>
       </c>
       <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
-        <v>311</v>
-      </c>
-      <c r="D106">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" t="s">
-        <v>347</v>
+        <v>572</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>471</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D107">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="E107" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D108">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F108" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D109">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="E109" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F109" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D110">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F110" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -16291,87 +16369,90 @@
         <v>338</v>
       </c>
       <c r="D111">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F111" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D112">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E112" t="s">
         <v>182</v>
       </c>
       <c r="F112" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D113">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="E113" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F113" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="D114">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="E114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F114" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -16380,725 +16461,722 @@
         <v>338</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F115" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="D116">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="E116" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
+        <v>347</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D117">
-        <v>1308</v>
+        <v>655</v>
       </c>
       <c r="E117" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F117" t="s">
-        <v>335</v>
-      </c>
-      <c r="G117" s="25" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D118">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F118" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D119">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F119" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D120">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="E120" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F120" t="s">
-        <v>365</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>477</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D121">
-        <v>700</v>
+        <v>1308</v>
       </c>
       <c r="E121" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F121" t="s">
         <v>335</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>540</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D122">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="E122" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F122" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D123">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="E123" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F123" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D124">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="E124" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F124" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D125">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="E125" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F125" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D126">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="E126" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F126" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D127">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="E127" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F127" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D128">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="E128" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D129">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="E129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F129" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D130">
-        <v>789</v>
+        <v>733</v>
       </c>
       <c r="E130" t="s">
         <v>173</v>
       </c>
       <c r="F130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D131">
-        <v>796</v>
+        <v>745</v>
       </c>
       <c r="E131" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F131" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>578</v>
       </c>
       <c r="B132">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="E132" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F132" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D133">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="E133" t="s">
         <v>177</v>
       </c>
       <c r="F133" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D134">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="E134" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F134" t="s">
         <v>341</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D135">
-        <v>819</v>
+        <v>789</v>
       </c>
       <c r="E135" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F135" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="G135" s="25" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D136">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="E136" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F136" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D137">
-        <v>835</v>
+        <v>797</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F137" t="s">
-        <v>360</v>
-      </c>
-      <c r="G137" s="25" t="s">
-        <v>487</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D138">
-        <v>856</v>
+        <v>806</v>
       </c>
       <c r="E138" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F138" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D139">
-        <v>861</v>
+        <v>812</v>
       </c>
       <c r="E139" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F139" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D140">
-        <v>862</v>
+        <v>819</v>
       </c>
       <c r="E140" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F140" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D141">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="E141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F141" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D142">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="E142" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F142" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D143">
-        <v>1308</v>
+        <v>856</v>
       </c>
       <c r="E143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F143" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>334</v>
+        <v>69</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
+        <v>338</v>
+      </c>
+      <c r="D144">
+        <v>861</v>
       </c>
       <c r="E144" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F144" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>375</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D145">
-        <v>899</v>
+        <v>862</v>
       </c>
       <c r="E145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D146">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="E146" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F146" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -17107,44 +17185,44 @@
         <v>298</v>
       </c>
       <c r="D147">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E147" t="s">
         <v>172</v>
       </c>
       <c r="F147" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>119</v>
+        <v>380</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D148">
-        <v>879</v>
+        <v>1308</v>
       </c>
       <c r="E148" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F148" t="s">
         <v>335</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>541</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -17152,298 +17230,295 @@
       <c r="C149" t="s">
         <v>295</v>
       </c>
-      <c r="D149">
-        <v>920</v>
-      </c>
       <c r="E149" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F149" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D150">
-        <v>934</v>
+        <v>899</v>
       </c>
       <c r="E150" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F150" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>403</v>
+        <v>557</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D151">
-        <v>938</v>
+        <v>876</v>
       </c>
       <c r="E151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F151" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>542</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D152">
-        <v>940</v>
+        <v>878</v>
       </c>
       <c r="E152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F152" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D153">
-        <v>951</v>
+        <v>879</v>
       </c>
       <c r="E153" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F153" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>328</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D154">
-        <v>954</v>
+        <v>920</v>
       </c>
       <c r="E154" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F154" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D155">
-        <v>973</v>
+        <v>934</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F155" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D156">
-        <v>985</v>
+        <v>938</v>
       </c>
       <c r="E156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F156" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D157">
-        <v>990</v>
+        <v>940</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F157" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D158">
-        <v>1295</v>
+        <v>951</v>
       </c>
       <c r="E158" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F158" t="s">
         <v>341</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>496</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="D159">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="E159" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F159" t="s">
         <v>342</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D160">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D161">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="E161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F161" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -17452,656 +17527,656 @@
         <v>289</v>
       </c>
       <c r="D162">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="E162" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F162" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>331</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="D163">
-        <v>1333</v>
+        <v>1295</v>
       </c>
       <c r="E163" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F163" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D164">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="E164" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F164" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>293</v>
-      </c>
-      <c r="D165" t="s">
-        <v>406</v>
+        <v>311</v>
+      </c>
+      <c r="D165">
+        <v>1002</v>
       </c>
       <c r="E165" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F165" t="s">
         <v>347</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D166">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="E166" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F166" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D167">
-        <v>1067</v>
+        <v>1009</v>
       </c>
       <c r="E167" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F167" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G167" s="25" t="s">
-        <v>543</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D168">
-        <v>1069</v>
+        <v>1333</v>
       </c>
       <c r="E168" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="F168" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>500</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D169">
-        <v>1070</v>
+        <v>1027</v>
       </c>
       <c r="E169" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F169" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>407</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>289</v>
-      </c>
-      <c r="D170">
-        <v>1086</v>
+        <v>298</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F170" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>501</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>338</v>
-      </c>
-      <c r="D171">
-        <v>1283</v>
+        <v>293</v>
+      </c>
+      <c r="D171" t="s">
+        <v>406</v>
       </c>
       <c r="E171" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F171" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>502</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D172">
-        <v>1095</v>
+        <v>1047</v>
       </c>
       <c r="E172" t="s">
         <v>182</v>
       </c>
       <c r="F172" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>503</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D173">
-        <v>1100</v>
+        <v>1067</v>
       </c>
       <c r="E173" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F173" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>409</v>
+        <v>543</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D174">
-        <v>1114</v>
+        <v>1069</v>
       </c>
       <c r="E174" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="F174" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G174" s="25" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D175">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="E175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F175" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>559</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D176">
-        <v>1130</v>
+        <v>1086</v>
       </c>
       <c r="E176" t="s">
         <v>173</v>
       </c>
       <c r="F176" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G176" s="25" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B177">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D177">
-        <v>1135</v>
+        <v>1283</v>
       </c>
       <c r="E177" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F177" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="G177" s="25" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D178">
-        <v>1139</v>
+        <v>1095</v>
       </c>
       <c r="E178" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F178" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B179">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D179">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="E179" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F179" t="s">
-        <v>372</v>
+        <v>408</v>
+      </c>
+      <c r="G179" s="25" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D180">
-        <v>1151</v>
+        <v>1114</v>
       </c>
       <c r="E180" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B181">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="D181">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="E181" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F181" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G181" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="D182">
-        <v>1168</v>
+        <v>1130</v>
       </c>
       <c r="E182" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F182" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="E183" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F183" t="s">
-        <v>341</v>
-      </c>
-      <c r="G183" s="25" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D184">
-        <v>1176</v>
+        <v>1139</v>
       </c>
       <c r="E184" t="s">
         <v>173</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>410</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D185">
-        <v>1184</v>
+        <v>1140</v>
       </c>
       <c r="E185" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
-      </c>
-      <c r="G185" s="25" t="s">
-        <v>506</v>
+        <v>372</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="E186" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F186" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D187">
-        <v>1196</v>
+        <v>1165</v>
       </c>
       <c r="E187" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="G187" s="25" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D188">
-        <v>1203</v>
+        <v>1168</v>
       </c>
       <c r="E188" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F188" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D189">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F189" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>507</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D190">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="E190" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F190" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="G190" s="25" t="s">
-        <v>547</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -18110,293 +18185,428 @@
         <v>286</v>
       </c>
       <c r="D191">
-        <v>1223</v>
+        <v>1184</v>
       </c>
       <c r="E191" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F191" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G191" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="B192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D192">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F192" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D193">
-        <v>1226</v>
+        <v>1196</v>
       </c>
       <c r="E193" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F193" t="s">
         <v>342</v>
       </c>
-      <c r="G193" s="25" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
         <v>298</v>
       </c>
       <c r="D194">
-        <v>1237</v>
+        <v>1203</v>
       </c>
       <c r="E194" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F194" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>509</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D195">
-        <v>845</v>
+        <v>1205</v>
       </c>
       <c r="E195" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F195" t="s">
-        <v>347</v>
+        <v>582</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D196">
-        <v>1245</v>
+        <v>1194</v>
       </c>
       <c r="E196" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F196" t="s">
         <v>335</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>385</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
         <v>286</v>
       </c>
       <c r="D197">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="E197" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F197" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G197" s="25" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D198">
-        <v>1252</v>
+        <v>1224</v>
       </c>
       <c r="E198" t="s">
         <v>175</v>
       </c>
       <c r="F198" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="D199">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="E199" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F199" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G199" s="25" t="s">
-        <v>522</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D200">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="E200" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F200" t="s">
         <v>342</v>
       </c>
       <c r="G200" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D201">
-        <v>1262</v>
+        <v>845</v>
       </c>
       <c r="E201" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F201" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G201" s="25" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D202">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="E202" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F202" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G202" s="25" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>101</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>286</v>
+      </c>
+      <c r="D203">
+        <v>1248</v>
+      </c>
+      <c r="E203" t="s">
+        <v>175</v>
+      </c>
+      <c r="F203" t="s">
+        <v>335</v>
+      </c>
+      <c r="G203" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>289</v>
+      </c>
+      <c r="D204">
+        <v>1252</v>
+      </c>
+      <c r="E204" t="s">
+        <v>175</v>
+      </c>
+      <c r="F204" t="s">
+        <v>341</v>
+      </c>
+      <c r="G204" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>87</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>282</v>
+      </c>
+      <c r="D205">
+        <v>1253</v>
+      </c>
+      <c r="E205" t="s">
+        <v>175</v>
+      </c>
+      <c r="F205" t="s">
+        <v>337</v>
+      </c>
+      <c r="G205" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>286</v>
+      </c>
+      <c r="D206">
+        <v>1255</v>
+      </c>
+      <c r="E206" t="s">
+        <v>179</v>
+      </c>
+      <c r="F206" t="s">
+        <v>342</v>
+      </c>
+      <c r="G206" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>168</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>298</v>
+      </c>
+      <c r="D207">
+        <v>1262</v>
+      </c>
+      <c r="E207" t="s">
+        <v>171</v>
+      </c>
+      <c r="F207" t="s">
+        <v>343</v>
+      </c>
+      <c r="G207" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>289</v>
+      </c>
+      <c r="D208">
+        <v>1276</v>
+      </c>
+      <c r="E208" t="s">
+        <v>176</v>
+      </c>
+      <c r="F208" t="s">
+        <v>341</v>
+      </c>
+      <c r="G208" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>142</v>
       </c>
-      <c r="B203">
+      <c r="B209">
         <v>8</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C209" t="s">
         <v>312</v>
       </c>
-      <c r="D203">
+      <c r="D209">
         <v>1279</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E209" t="s">
         <v>171</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F209" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G203" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
+  <autoFilter ref="A1:G209" xr:uid="{4F891C4F-9816-403C-B080-E89BC2162DC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/szperacz.xlsx
+++ b/db/szperacz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projektOrganista\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6549DC-8DDA-4CC2-9003-0E82FFAB8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A950846-196D-4D2A-8D0B-D3005409B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log przeszłości" sheetId="1" r:id="rId1"/>
@@ -13869,10 +13869,10 @@
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15562,7 +15562,7 @@
         <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F75" t="s">
         <v>341</v>
